--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
   <si>
     <t>充电时间</t>
   </si>
@@ -303,6 +303,19 @@
   <si>
     <t>充电总收入(元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高岭站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09</t>
+  </si>
+  <si>
+    <t>四方坪站</t>
+  </si>
+  <si>
+    <t>高岭站</t>
   </si>
   <si>
     <t>高岭站</t>
@@ -691,8 +704,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3284,7 +3297,7 @@
         <v>90</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C108" s="1">
         <v>153275.94</v>
@@ -3304,22 +3317,50 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="1">
+        <v>302262.06</v>
+      </c>
+      <c r="D109" s="1">
+        <v>141741.24</v>
+      </c>
+      <c r="E109" s="1">
+        <v>104524.97</v>
+      </c>
+      <c r="F109" s="1">
+        <v>246266.21</v>
+      </c>
+      <c r="G109" s="1">
+        <v>12644</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="1">
+        <v>145618.5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>79313.490000000005</v>
+      </c>
+      <c r="E110" s="1">
+        <v>36711.49</v>
+      </c>
+      <c r="F110" s="1">
+        <v>116024.98</v>
+      </c>
+      <c r="G110" s="1">
+        <v>5197</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -4,17 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="166">
   <si>
     <t>充电时间</t>
   </si>
@@ -319,6 +324,221 @@
   </si>
   <si>
     <t>高岭站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电电量(kw)</t>
+  </si>
+  <si>
+    <t>充电电量(kw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电服务费(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电费用(元)</t>
+  </si>
+  <si>
+    <t>充电费用(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数量</t>
+  </si>
+  <si>
+    <t>订单数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四方坪东区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四方坪南区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四方坪西区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大巴</t>
+  </si>
+  <si>
+    <t>公务用车</t>
+  </si>
+  <si>
+    <t>私家车</t>
+  </si>
+  <si>
+    <t>特种车</t>
+  </si>
+  <si>
+    <t>网约车</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>物流车</t>
+  </si>
+  <si>
+    <t>主机厂</t>
+  </si>
+  <si>
+    <t>个人</t>
+  </si>
+  <si>
+    <t>企业</t>
+  </si>
+  <si>
+    <t>车辆分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的士</t>
+  </si>
+  <si>
+    <t>油电混合车辆</t>
+  </si>
+  <si>
+    <t>黄牌充电车辆</t>
+  </si>
+  <si>
+    <t>未录入车牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站名称</t>
+  </si>
+  <si>
+    <t>终端名称</t>
+  </si>
+  <si>
+    <t>312号直流</t>
+  </si>
+  <si>
+    <t>301号直流</t>
+  </si>
+  <si>
+    <t>306号直流</t>
+  </si>
+  <si>
+    <t>309号直流</t>
+  </si>
+  <si>
+    <t>204号直流</t>
+  </si>
+  <si>
+    <t>311号直流</t>
+  </si>
+  <si>
+    <t>310号直流</t>
+  </si>
+  <si>
+    <t>202号直流</t>
+  </si>
+  <si>
+    <t>302号直流</t>
+  </si>
+  <si>
+    <t>308号直流</t>
+  </si>
+  <si>
+    <t>601号直流</t>
+  </si>
+  <si>
+    <t>305号直流</t>
+  </si>
+  <si>
+    <t>303号直流</t>
+  </si>
+  <si>
+    <t>304号直流</t>
+  </si>
+  <si>
+    <t>007A号直流</t>
+  </si>
+  <si>
+    <t>307号直流</t>
+  </si>
+  <si>
+    <t>602号直流</t>
+  </si>
+  <si>
+    <t>504号直流</t>
+  </si>
+  <si>
+    <t>充电电量(度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均日充电电量(度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702号直流</t>
+  </si>
+  <si>
+    <t>201号直流</t>
+  </si>
+  <si>
+    <t>406号直流</t>
+  </si>
+  <si>
+    <t>502号直流</t>
+  </si>
+  <si>
+    <t>603号直流</t>
+  </si>
+  <si>
+    <t>101号直流</t>
+  </si>
+  <si>
+    <t>701号直流</t>
+  </si>
+  <si>
+    <t>402号直流</t>
+  </si>
+  <si>
+    <t>东区充电站</t>
+  </si>
+  <si>
+    <t>南区充电站</t>
+  </si>
+  <si>
+    <t>高岭充电站</t>
+  </si>
+  <si>
+    <t>西区充电站</t>
+  </si>
+  <si>
+    <t>充电电量(kw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均日充电电量(kw)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,8 +546,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00.00%"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -353,7 +575,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -376,11 +598,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,6 +631,32 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,8 +965,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6336,4 +6597,1093 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>45901</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1">
+        <v>145618.50499999963</v>
+      </c>
+      <c r="D2" s="1">
+        <v>36711.489999999991</v>
+      </c>
+      <c r="E2" s="1">
+        <v>116024.98000000003</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>45901</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1">
+        <v>142199.90199999968</v>
+      </c>
+      <c r="D3" s="1">
+        <v>49346.029999999977</v>
+      </c>
+      <c r="E3" s="1">
+        <v>115294.21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>45901</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1">
+        <v>46497.199999999953</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15923.649999999991</v>
+      </c>
+      <c r="E4" s="1">
+        <v>37870.589999999967</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>45901</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1">
+        <v>113564.96000000006</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39255.289999999943</v>
+      </c>
+      <c r="E5" s="1">
+        <v>93101.410000000047</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4711</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6846.8260000000055</v>
+      </c>
+      <c r="E2" s="1">
+        <v>243</v>
+      </c>
+      <c r="F2" s="14">
+        <f>D2/30</f>
+        <v>228.22753333333353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>45902</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6738.0859999999957</v>
+      </c>
+      <c r="E3" s="1">
+        <v>283</v>
+      </c>
+      <c r="F3" s="14">
+        <f>D3/30</f>
+        <v>224.60286666666653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>45903</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6427.5620000000026</v>
+      </c>
+      <c r="E4" s="1">
+        <v>221</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F21" si="0">D4/30</f>
+        <v>214.25206666666676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>45904</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5977.0030000000015</v>
+      </c>
+      <c r="E5" s="1">
+        <v>199</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>199.23343333333338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>45905</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5655.2000000000007</v>
+      </c>
+      <c r="E6" s="1">
+        <v>225</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>188.50666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>45906</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5587.213999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>206</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>186.24046666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>45907</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5446.4260000000013</v>
+      </c>
+      <c r="E8" s="1">
+        <v>198</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>181.54753333333338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>45908</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5395.2380000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>164</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>179.84126666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>45909</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5388.4640000000009</v>
+      </c>
+      <c r="E10" s="1">
+        <v>181</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>179.61546666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>45910</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5329.6329999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>167</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="0"/>
+        <v>177.65443333333332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>45911</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5124.9309999999996</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>170.83103333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>45912</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5104.0400000000018</v>
+      </c>
+      <c r="E13" s="1">
+        <v>220</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>170.13466666666673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>45913</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5040.8310000000038</v>
+      </c>
+      <c r="E14" s="1">
+        <v>174</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="0"/>
+        <v>168.02770000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>45914</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4951.6849999999986</v>
+      </c>
+      <c r="E15" s="1">
+        <v>213</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="0"/>
+        <v>165.05616666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>45915</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4908.7199999999975</v>
+      </c>
+      <c r="E16" s="1">
+        <v>194</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="0"/>
+        <v>163.62399999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>45916</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4863.0689999999995</v>
+      </c>
+      <c r="E17" s="1">
+        <v>201</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="0"/>
+        <v>162.10229999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>45917</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4694.4699999999975</v>
+      </c>
+      <c r="E18" s="1">
+        <v>205</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>156.48233333333326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>45918</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4657.5870000000014</v>
+      </c>
+      <c r="E19" s="1">
+        <v>176</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>155.25290000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>45919</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4653.7999999999956</v>
+      </c>
+      <c r="E20" s="1">
+        <v>198</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>155.12666666666652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>45920</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4589.1600000000017</v>
+      </c>
+      <c r="E21" s="1">
+        <v>175</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>152.97200000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>45901</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1">
+        <v>54939.295000000013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>45902</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1">
+        <v>24536.197000000018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>45903</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="1">
+        <v>28528.709999999988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>45904</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10725.66499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>45905</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="1">
+        <v>68032.578000000038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>45907</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1">
+        <v>66778.129000000015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>45908</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1">
+        <v>178412.28999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>45909</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4885.5640000000021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>45910</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1">
+        <v>404.01500000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>45911</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10031.285000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>45912</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="7">
+        <v>556.14099999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>45913</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="7">
+        <v>50.697999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>45901</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1">
+        <v>317071.95499999891</v>
+      </c>
+      <c r="D2" s="1">
+        <v>102493.45000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>255690.91000000012</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>45902</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1">
+        <v>130808.61199999967</v>
+      </c>
+      <c r="D3" s="1">
+        <v>38743.010000000031</v>
+      </c>
+      <c r="E3" s="1">
+        <v>106600.28000000003</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="15">
+        <v>792.95999999999981</v>
+      </c>
+      <c r="E2" s="7">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14">
+        <f>D2/30</f>
+        <v>26.431999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>45902</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="15">
+        <v>688.84000000000015</v>
+      </c>
+      <c r="E3" s="7">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F11" si="0">D3/30</f>
+        <v>22.961333333333339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>45903</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="15">
+        <v>656.00000000000011</v>
+      </c>
+      <c r="E4" s="7">
+        <v>30</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" si="0"/>
+        <v>21.866666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>45904</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="15">
+        <v>605.67999999999995</v>
+      </c>
+      <c r="E5" s="7">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>20.18933333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>45905</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="15">
+        <v>547.22</v>
+      </c>
+      <c r="E6" s="7">
+        <v>29</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>18.240666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>45906</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="15">
+        <v>436.32</v>
+      </c>
+      <c r="E7" s="7">
+        <v>17</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>14.544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>45907</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="15">
+        <v>319.36</v>
+      </c>
+      <c r="E8" s="7">
+        <v>11</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>10.645333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>45908</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="15">
+        <v>177.94000000000003</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>5.9313333333333338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>45909</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="15">
+        <v>139.08000000000001</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>4.6360000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>45910</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="15">
+        <v>73.34</v>
+      </c>
+      <c r="E11" s="7">
+        <v>7</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="0"/>
+        <v>2.444666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="170">
   <si>
     <t>充电时间</t>
   </si>
@@ -395,9 +395,6 @@
     <t>特种车</t>
   </si>
   <si>
-    <t>网约车</t>
-  </si>
-  <si>
     <t>未知</t>
   </si>
   <si>
@@ -539,6 +536,22 @@
   </si>
   <si>
     <t>平均日充电电量(kw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高岭</t>
+  </si>
+  <si>
+    <t>四方坪东区</t>
+  </si>
+  <si>
+    <t>四方坪南区</t>
+  </si>
+  <si>
+    <t>四方坪西区</t>
+  </si>
+  <si>
+    <t>网约车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +588,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -611,11 +624,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,6 +690,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6602,10 +6644,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6716,6 +6758,86 @@
         <v>4711</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>45931</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5652</v>
+      </c>
+      <c r="E6" s="12">
+        <v>9845</v>
+      </c>
+      <c r="F6" s="12">
+        <v>6587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>45932</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="12">
+        <v>30000</v>
+      </c>
+      <c r="D7" s="12">
+        <v>9845</v>
+      </c>
+      <c r="E7" s="12">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="12">
+        <v>9865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>45933</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="12">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="12">
+        <v>5685</v>
+      </c>
+      <c r="E8" s="12">
+        <v>12000</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>45934</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="12">
+        <v>16000</v>
+      </c>
+      <c r="D9" s="12">
+        <v>5458</v>
+      </c>
+      <c r="E9" s="12">
+        <v>13000</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5489</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6725,10 +6847,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6745,19 +6867,19 @@
         <v>101</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -6765,10 +6887,10 @@
         <v>45901</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1">
         <v>6846.8260000000055</v>
@@ -6786,10 +6908,10 @@
         <v>45902</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1">
         <v>6738.0859999999957</v>
@@ -6807,10 +6929,10 @@
         <v>45903</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1">
         <v>6427.5620000000026</v>
@@ -6828,10 +6950,10 @@
         <v>45904</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1">
         <v>5977.0030000000015</v>
@@ -6849,10 +6971,10 @@
         <v>45905</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1">
         <v>5655.2000000000007</v>
@@ -6870,10 +6992,10 @@
         <v>45906</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="1">
         <v>5587.213999999999</v>
@@ -6891,10 +7013,10 @@
         <v>45907</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1">
         <v>5446.4260000000013</v>
@@ -6912,10 +7034,10 @@
         <v>45908</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1">
         <v>5395.2380000000003</v>
@@ -6933,10 +7055,10 @@
         <v>45909</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1">
         <v>5388.4640000000009</v>
@@ -6954,10 +7076,10 @@
         <v>45910</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1">
         <v>5329.6329999999998</v>
@@ -6975,10 +7097,10 @@
         <v>45911</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="1">
         <v>5124.9309999999996</v>
@@ -6996,10 +7118,10 @@
         <v>45912</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1">
         <v>5104.0400000000018</v>
@@ -7017,10 +7139,10 @@
         <v>45913</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1">
         <v>5040.8310000000038</v>
@@ -7038,10 +7160,10 @@
         <v>45914</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="1">
         <v>4951.6849999999986</v>
@@ -7059,10 +7181,10 @@
         <v>45915</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="1">
         <v>4908.7199999999975</v>
@@ -7080,10 +7202,10 @@
         <v>45916</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1">
         <v>4863.0689999999995</v>
@@ -7101,10 +7223,10 @@
         <v>45917</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1">
         <v>4694.4699999999975</v>
@@ -7122,10 +7244,10 @@
         <v>45918</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="1">
         <v>4657.5870000000014</v>
@@ -7143,10 +7265,10 @@
         <v>45919</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="1">
         <v>4653.7999999999956</v>
@@ -7164,10 +7286,10 @@
         <v>45920</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="1">
         <v>4589.1600000000017</v>
@@ -7178,6 +7300,66 @@
       <c r="F21" s="14">
         <f t="shared" si="0"/>
         <v>152.97200000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>45950</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22">
+        <v>5587.213999999999</v>
+      </c>
+      <c r="E22">
+        <v>206</v>
+      </c>
+      <c r="F22">
+        <v>186.24046666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>45951</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23">
+        <v>5446.4260000000013</v>
+      </c>
+      <c r="E23">
+        <v>198</v>
+      </c>
+      <c r="F23">
+        <v>181.54753333333338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>45952</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24">
+        <v>5395.2380000000003</v>
+      </c>
+      <c r="E24">
+        <v>164</v>
+      </c>
+      <c r="F24">
+        <v>179.84126666666668</v>
       </c>
     </row>
   </sheetData>
@@ -7189,10 +7371,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7207,7 +7389,7 @@
         <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>104</v>
@@ -7218,7 +7400,7 @@
         <v>45901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1">
         <v>54939.295000000013</v>
@@ -7229,7 +7411,7 @@
         <v>45902</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1">
         <v>24536.197000000018</v>
@@ -7240,7 +7422,7 @@
         <v>45903</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1">
         <v>28528.709999999988</v>
@@ -7251,7 +7433,7 @@
         <v>45904</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1">
         <v>10725.66499999999</v>
@@ -7273,7 +7455,7 @@
         <v>45907</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1">
         <v>66778.129000000015</v>
@@ -7284,7 +7466,7 @@
         <v>45908</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="C8" s="1">
         <v>178412.28999999992</v>
@@ -7295,7 +7477,7 @@
         <v>45909</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1">
         <v>4885.5640000000021</v>
@@ -7306,7 +7488,7 @@
         <v>45910</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1">
         <v>404.01500000000004</v>
@@ -7343,6 +7525,39 @@
       </c>
       <c r="C13" s="7">
         <v>50.697999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>45943</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>45944</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>45945</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="17">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -7354,10 +7569,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7393,7 +7608,7 @@
         <v>45901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1">
         <v>317071.95499999891</v>
@@ -7413,7 +7628,7 @@
         <v>45902</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1">
         <v>130808.61199999967</v>
@@ -7426,6 +7641,46 @@
       </c>
       <c r="F3" s="1">
         <v>5184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>45932</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>20000</v>
+      </c>
+      <c r="E4">
+        <v>12565</v>
+      </c>
+      <c r="F4">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>45933</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="18">
+        <v>50000</v>
+      </c>
+      <c r="D5" s="18">
+        <v>5642</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1201</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
@@ -7457,19 +7712,19 @@
         <v>101</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>108</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7477,10 +7732,10 @@
         <v>45901</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="15">
         <v>792.95999999999981</v>
@@ -7498,10 +7753,10 @@
         <v>45902</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="15">
         <v>688.84000000000015</v>
@@ -7519,10 +7774,10 @@
         <v>45903</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="15">
         <v>656.00000000000011</v>
@@ -7540,10 +7795,10 @@
         <v>45904</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="15">
         <v>605.67999999999995</v>
@@ -7561,10 +7816,10 @@
         <v>45905</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="15">
         <v>547.22</v>
@@ -7582,10 +7837,10 @@
         <v>45906</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="15">
         <v>436.32</v>
@@ -7603,10 +7858,10 @@
         <v>45907</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="15">
         <v>319.36</v>
@@ -7624,10 +7879,10 @@
         <v>45908</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="15">
         <v>177.94000000000003</v>
@@ -7645,10 +7900,10 @@
         <v>45909</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="15">
         <v>139.08000000000001</v>
@@ -7666,10 +7921,10 @@
         <v>45910</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11" s="15">
         <v>73.34</v>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="174">
   <si>
     <t>充电时间</t>
   </si>
@@ -553,6 +553,18 @@
   <si>
     <t>网约车</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有车牌</t>
+  </si>
+  <si>
+    <t>网约车</t>
+  </si>
+  <si>
+    <t>互联网平台</t>
+  </si>
+  <si>
+    <t>分时租赁</t>
   </si>
 </sst>
 </file>
@@ -588,7 +600,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -624,31 +636,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,13 +683,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6647,7 +6636,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6656,6 +6645,7 @@
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6760,82 +6750,82 @@
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
-        <v>45931</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>45871</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="12">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="12">
-        <v>5652</v>
-      </c>
-      <c r="E6" s="12">
-        <v>9845</v>
-      </c>
-      <c r="F6" s="12">
-        <v>6587</v>
+      <c r="C6" s="16">
+        <v>152879.68699999916</v>
+      </c>
+      <c r="D6" s="16">
+        <v>38264.369999999908</v>
+      </c>
+      <c r="E6" s="16">
+        <v>128630.50000000022</v>
+      </c>
+      <c r="F6" s="17">
+        <v>5362</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
-        <v>45932</v>
-      </c>
-      <c r="B7" s="12" t="s">
+        <v>45872</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="12">
-        <v>30000</v>
-      </c>
-      <c r="D7" s="12">
-        <v>9845</v>
-      </c>
-      <c r="E7" s="12">
-        <v>15000</v>
-      </c>
-      <c r="F7" s="12">
-        <v>9865</v>
+      <c r="C7" s="16">
+        <v>169036.11999999965</v>
+      </c>
+      <c r="D7" s="16">
+        <v>58538.309999999794</v>
+      </c>
+      <c r="E7" s="16">
+        <v>144554.87999999968</v>
+      </c>
+      <c r="F7" s="17">
+        <v>6834</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
-        <v>45933</v>
-      </c>
-      <c r="B8" s="12" t="s">
+        <v>45873</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="12">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="12">
-        <v>5685</v>
-      </c>
-      <c r="E8" s="12">
-        <v>12000</v>
-      </c>
-      <c r="F8" s="12">
-        <v>5587</v>
+      <c r="C8" s="16">
+        <v>60594.68000000008</v>
+      </c>
+      <c r="D8" s="16">
+        <v>20357.979999999981</v>
+      </c>
+      <c r="E8" s="16">
+        <v>52378.310000000034</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2529</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
-        <v>45934</v>
-      </c>
-      <c r="B9" s="12" t="s">
+        <v>45874</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="12">
-        <v>16000</v>
-      </c>
-      <c r="D9" s="12">
-        <v>5458</v>
-      </c>
-      <c r="E9" s="12">
-        <v>13000</v>
-      </c>
-      <c r="F9" s="12">
-        <v>5489</v>
+      <c r="C9" s="16">
+        <v>139925.25999999983</v>
+      </c>
+      <c r="D9" s="16">
+        <v>48192.829999999987</v>
+      </c>
+      <c r="E9" s="16">
+        <v>122444.86</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5709</v>
       </c>
     </row>
   </sheetData>
@@ -6847,16 +6837,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" customWidth="1"/>
@@ -7304,62 +7294,212 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
-        <v>45950</v>
-      </c>
-      <c r="B22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22">
-        <v>5587.213999999999</v>
-      </c>
-      <c r="E22">
-        <v>206</v>
-      </c>
-      <c r="F22">
-        <v>186.24046666666663</v>
+        <v>45890</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7774.1670000000004</v>
+      </c>
+      <c r="E22" s="1">
+        <v>320</v>
+      </c>
+      <c r="F22" s="16">
+        <f>D22/31</f>
+        <v>250.7795806451613</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
-        <v>45951</v>
-      </c>
-      <c r="B23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23">
-        <v>5446.4260000000013</v>
-      </c>
-      <c r="E23">
-        <v>198</v>
-      </c>
-      <c r="F23">
-        <v>181.54753333333338</v>
+        <v>45891</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7509.2669999999989</v>
+      </c>
+      <c r="E23" s="1">
+        <v>226</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" ref="F23:F31" si="1">D23/31</f>
+        <v>242.23441935483868</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
-        <v>45952</v>
-      </c>
-      <c r="B24" t="s">
+        <v>45892</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6529.8100000000031</v>
+      </c>
+      <c r="E24" s="1">
+        <v>240</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="1"/>
+        <v>210.63903225806462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>45893</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24">
-        <v>5395.2380000000003</v>
-      </c>
-      <c r="E24">
-        <v>164</v>
-      </c>
-      <c r="F24">
-        <v>179.84126666666668</v>
+      <c r="C25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6392.5540000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>245</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="1"/>
+        <v>206.21141935483871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>45894</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6240.3350000000037</v>
+      </c>
+      <c r="E26" s="1">
+        <v>235</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="1"/>
+        <v>201.30112903225819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>45895</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5933.8999999999978</v>
+      </c>
+      <c r="E27" s="1">
+        <v>224</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="1"/>
+        <v>191.416129032258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <v>45896</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5899.6409999999996</v>
+      </c>
+      <c r="E28" s="1">
+        <v>214</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="1"/>
+        <v>190.31099999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="8">
+        <v>45897</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5845.5980000000009</v>
+      </c>
+      <c r="E29" s="1">
+        <v>199</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="1"/>
+        <v>188.56767741935488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>45898</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5765.8460000000032</v>
+      </c>
+      <c r="E30" s="1">
+        <v>243</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" si="1"/>
+        <v>185.99503225806461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <v>45899</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5692.0220000000008</v>
+      </c>
+      <c r="E31" s="1">
+        <v>232</v>
+      </c>
+      <c r="F31" s="16">
+        <f t="shared" si="1"/>
+        <v>183.61361290322583</v>
       </c>
     </row>
   </sheetData>
@@ -7371,10 +7511,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7529,35 +7669,156 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
-        <v>45943</v>
-      </c>
-      <c r="B14" t="s">
+        <v>45883</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="17">
-        <v>10000</v>
+      <c r="C14" s="13">
+        <v>75524.076000000205</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
-        <v>45944</v>
-      </c>
-      <c r="B15" t="s">
+        <v>45884</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="17">
-        <v>20000</v>
+      <c r="C15" s="13">
+        <v>28101.525999999994</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
-        <v>45945</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="17">
-        <v>50000</v>
+        <v>45885</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="13">
+        <v>34219.557000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>45886</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11258.058999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>45887</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="1">
+        <v>86036.677999999796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>45888</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="1">
+        <v>60828.45600000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>45889</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10574.231000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>45890</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="1">
+        <v>137126.10099999967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>45891</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6191.416000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>45892</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="1">
+        <v>60487.229999999967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>45893</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11403.327999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>45894</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="1">
+        <v>547.15800000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>45895</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="1">
+        <v>118.032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>45896</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="1">
+        <v>19.899000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7572,7 +7833,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7645,42 +7906,42 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
-        <v>45932</v>
-      </c>
-      <c r="B4" t="s">
+        <v>45872</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C4">
-        <v>100000</v>
-      </c>
-      <c r="D4">
-        <v>20000</v>
-      </c>
-      <c r="E4">
-        <v>12565</v>
-      </c>
-      <c r="F4">
-        <v>1235</v>
+      <c r="C4" s="1">
+        <v>381919.94700000284</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123003.68000000024</v>
+      </c>
+      <c r="E4" s="1">
+        <v>205079.24000000127</v>
+      </c>
+      <c r="F4" s="1">
+        <v>14975</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
-        <v>45933</v>
-      </c>
-      <c r="B5" t="s">
+        <v>45873</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="18">
-        <v>50000</v>
-      </c>
-      <c r="D5" s="18">
-        <v>5642</v>
-      </c>
-      <c r="E5" s="18">
-        <v>1201</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1245</v>
+      <c r="C5" s="13">
+        <v>140515.79999999973</v>
+      </c>
+      <c r="D5" s="13">
+        <v>42349.809999999947</v>
+      </c>
+      <c r="E5" s="13">
+        <v>77575.819999999701</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5459</v>
       </c>
     </row>
   </sheetData>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="172">
   <si>
     <t>充电时间</t>
   </si>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>站点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>充电电量(kw)</t>
   </si>
   <si>
@@ -345,38 +341,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充电服务费(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>充电费用(元)</t>
   </si>
   <si>
-    <t>充电费用(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单数量</t>
-  </si>
-  <si>
-    <t>订单数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高岭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四方坪东区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四方坪南区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四方坪西区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户分类</t>
@@ -539,18 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高岭</t>
-  </si>
-  <si>
-    <t>四方坪东区</t>
-  </si>
-  <si>
-    <t>四方坪南区</t>
-  </si>
-  <si>
-    <t>四方坪西区</t>
-  </si>
-  <si>
     <t>网约车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,16 +521,47 @@
   </si>
   <si>
     <t>分时租赁</t>
+  </si>
+  <si>
+    <t>出租车</t>
+  </si>
+  <si>
+    <t>501号直流</t>
+  </si>
+  <si>
+    <t>集团用户</t>
+  </si>
+  <si>
+    <t>211号直流</t>
+  </si>
+  <si>
+    <t>其他车辆</t>
+  </si>
+  <si>
+    <t>站点</t>
+  </si>
+  <si>
+    <t>高岭</t>
+  </si>
+  <si>
+    <t>四方坪东区</t>
+  </si>
+  <si>
+    <t>四方坪南区</t>
+  </si>
+  <si>
+    <t>四方坪西区</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="00.00%"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -600,7 +587,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -636,11 +623,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,7 +686,21 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6633,199 +6647,759 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>101</v>
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
-        <v>45901</v>
+        <v>45658</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="1">
-        <v>145618.50499999963</v>
-      </c>
-      <c r="D2" s="1">
-        <v>36711.489999999991</v>
-      </c>
-      <c r="E2" s="1">
-        <v>116024.98000000003</v>
+        <v>168</v>
+      </c>
+      <c r="C2" s="16">
+        <v>120213.94599999956</v>
+      </c>
+      <c r="D2" s="16">
+        <v>25724.940000000024</v>
+      </c>
+      <c r="E2" s="16">
+        <v>100294.46000000009</v>
       </c>
       <c r="F2" s="1">
-        <v>5197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
-        <v>45901</v>
+        <v>45659</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="1">
-        <v>142199.90199999968</v>
-      </c>
-      <c r="D3" s="1">
-        <v>49346.029999999977</v>
-      </c>
-      <c r="E3" s="1">
-        <v>115294.21</v>
+        <v>169</v>
+      </c>
+      <c r="C3" s="16">
+        <v>144284.73899999997</v>
+      </c>
+      <c r="D3" s="16">
+        <v>44069.95</v>
+      </c>
+      <c r="E3" s="16">
+        <v>124745.59000000008</v>
       </c>
       <c r="F3" s="1">
-        <v>5924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
-        <v>45901</v>
+        <v>45660</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="1">
-        <v>46497.199999999953</v>
-      </c>
-      <c r="D4" s="1">
-        <v>15923.649999999991</v>
-      </c>
-      <c r="E4" s="1">
-        <v>37870.589999999967</v>
+        <v>170</v>
+      </c>
+      <c r="C4" s="16">
+        <v>54241.24</v>
+      </c>
+      <c r="D4" s="16">
+        <v>16240.510000000042</v>
+      </c>
+      <c r="E4" s="16">
+        <v>47572.150000000031</v>
       </c>
       <c r="F4" s="1">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
-        <v>45901</v>
+        <v>45661</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="1">
-        <v>113564.96000000006</v>
-      </c>
-      <c r="D5" s="1">
-        <v>39255.289999999943</v>
-      </c>
-      <c r="E5" s="1">
-        <v>93101.410000000047</v>
+        <v>171</v>
+      </c>
+      <c r="C5" s="16">
+        <v>144105.49999999965</v>
+      </c>
+      <c r="D5" s="16">
+        <v>44438.669999999955</v>
+      </c>
+      <c r="E5" s="16">
+        <v>126753.83999999987</v>
       </c>
       <c r="F5" s="1">
-        <v>4711</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
-        <v>45871</v>
+        <v>45901</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C6" s="16">
-        <v>152879.68699999916</v>
+        <v>145618.50499999963</v>
       </c>
       <c r="D6" s="16">
-        <v>38264.369999999908</v>
+        <v>36711.489999999991</v>
       </c>
       <c r="E6" s="16">
-        <v>128630.50000000022</v>
-      </c>
-      <c r="F6" s="17">
-        <v>5362</v>
+        <v>116024.98000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5197</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
-        <v>45872</v>
+        <v>45901</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C7" s="16">
-        <v>169036.11999999965</v>
+        <v>142199.90199999968</v>
       </c>
       <c r="D7" s="16">
-        <v>58538.309999999794</v>
+        <v>49346.029999999977</v>
       </c>
       <c r="E7" s="16">
-        <v>144554.87999999968</v>
-      </c>
-      <c r="F7" s="17">
-        <v>6834</v>
+        <v>115294.21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5924</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
-        <v>45873</v>
+        <v>45901</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C8" s="16">
-        <v>60594.68000000008</v>
+        <v>46497.199999999953</v>
       </c>
       <c r="D8" s="16">
-        <v>20357.979999999981</v>
+        <v>15923.649999999991</v>
       </c>
       <c r="E8" s="16">
-        <v>52378.310000000034</v>
-      </c>
-      <c r="F8" s="17">
-        <v>2529</v>
+        <v>37870.589999999967</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2009</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
+        <v>45901</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="16">
+        <v>113564.96000000006</v>
+      </c>
+      <c r="D9" s="16">
+        <v>39255.289999999943</v>
+      </c>
+      <c r="E9" s="16">
+        <v>93101.410000000047</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>45871</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="16">
+        <v>152879.68699999916</v>
+      </c>
+      <c r="D10" s="16">
+        <v>38264.369999999908</v>
+      </c>
+      <c r="E10" s="16">
+        <v>128630.50000000022</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>45872</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="16">
+        <v>169036.11999999965</v>
+      </c>
+      <c r="D11" s="16">
+        <v>58538.309999999794</v>
+      </c>
+      <c r="E11" s="16">
+        <v>144554.87999999968</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>45873</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="16">
+        <v>60594.68000000008</v>
+      </c>
+      <c r="D12" s="16">
+        <v>20357.979999999981</v>
+      </c>
+      <c r="E12" s="16">
+        <v>52378.310000000034</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
         <v>45874</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="16">
+        <v>139925.25999999983</v>
+      </c>
+      <c r="D13" s="16">
+        <v>48192.829999999987</v>
+      </c>
+      <c r="E13" s="16">
+        <v>122444.86</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>45694</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="16">
-        <v>139925.25999999983</v>
-      </c>
-      <c r="D9" s="16">
-        <v>48192.829999999987</v>
-      </c>
-      <c r="E9" s="16">
-        <v>122444.86</v>
-      </c>
-      <c r="F9" s="17">
-        <v>5709</v>
+      <c r="C14" s="16">
+        <v>130899.43399999969</v>
+      </c>
+      <c r="D14" s="16">
+        <v>28051.24</v>
+      </c>
+      <c r="E14" s="16">
+        <v>108144.12999999987</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>45694</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="16">
+        <v>138713.27200000023</v>
+      </c>
+      <c r="D15" s="16">
+        <v>42210.570000000291</v>
+      </c>
+      <c r="E15" s="16">
+        <v>118591.51999999974</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>45694</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="16">
+        <v>53889.840000000055</v>
+      </c>
+      <c r="D16" s="16">
+        <v>15998.460000000019</v>
+      </c>
+      <c r="E16" s="16">
+        <v>46512.210000000123</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>45694</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="16">
+        <v>125399.01999999999</v>
+      </c>
+      <c r="D17" s="16">
+        <v>38283.890000000101</v>
+      </c>
+      <c r="E17" s="16">
+        <v>109886.24000000009</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>45722</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="16">
+        <v>141804.27099999969</v>
+      </c>
+      <c r="D18" s="16">
+        <v>30256.539999999899</v>
+      </c>
+      <c r="E18" s="16">
+        <v>113696.42999999998</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>45722</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="16">
+        <v>156933.24800000002</v>
+      </c>
+      <c r="D19" s="16">
+        <v>47367.189999999908</v>
+      </c>
+      <c r="E19" s="16">
+        <v>130058.93999999983</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>45722</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="16">
+        <v>55724.920000000078</v>
+      </c>
+      <c r="D20" s="16">
+        <v>16438.139999999959</v>
+      </c>
+      <c r="E20" s="16">
+        <v>47466.680000000029</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>45722</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="16">
+        <v>140601.58000000002</v>
+      </c>
+      <c r="D21" s="16">
+        <v>42401.440000000053</v>
+      </c>
+      <c r="E21" s="16">
+        <v>118711.53999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>45753</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="16">
+        <v>104547.96199999975</v>
+      </c>
+      <c r="D22" s="16">
+        <v>22245.890000000076</v>
+      </c>
+      <c r="E22" s="16">
+        <v>84023.609999999841</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>45753</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="16">
+        <v>148225.34999999928</v>
+      </c>
+      <c r="D23" s="16">
+        <v>43418.879999999874</v>
+      </c>
+      <c r="E23" s="16">
+        <v>122758.71000000018</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>45753</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="16">
+        <v>54411.500000000022</v>
+      </c>
+      <c r="D24" s="16">
+        <v>15483.160000000002</v>
+      </c>
+      <c r="E24" s="16">
+        <v>46438.960000000072</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>45753</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="16">
+        <v>134083.96000000034</v>
+      </c>
+      <c r="D25" s="16">
+        <v>38889.230000000025</v>
+      </c>
+      <c r="E25" s="16">
+        <v>113148.28000000004</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="16">
+        <v>110586.98200000005</v>
+      </c>
+      <c r="D26" s="16">
+        <v>23536.710000000003</v>
+      </c>
+      <c r="E26" s="16">
+        <v>88398.86999999985</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>45784</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="16">
+        <v>165003.35900000029</v>
+      </c>
+      <c r="D27" s="16">
+        <v>51368.109999999877</v>
+      </c>
+      <c r="E27" s="16">
+        <v>138533.13999999987</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>45785</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="16">
+        <v>56749.460000000028</v>
+      </c>
+      <c r="D28" s="16">
+        <v>17489.209999999985</v>
+      </c>
+      <c r="E28" s="16">
+        <v>48185.260000000053</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="16">
+        <v>137256.86000000002</v>
+      </c>
+      <c r="D29" s="16">
+        <v>42224.959999999926</v>
+      </c>
+      <c r="E29" s="16">
+        <v>116142.64999999947</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>45817</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="16">
+        <v>114030.86799999975</v>
+      </c>
+      <c r="D30" s="16">
+        <v>24081.519999999993</v>
+      </c>
+      <c r="E30" s="16">
+        <v>92458.010000000126</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>45818</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="16">
+        <v>158644.23099999933</v>
+      </c>
+      <c r="D31" s="16">
+        <v>51694.65000000006</v>
+      </c>
+      <c r="E31" s="16">
+        <v>136553.14000000004</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>45819</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="16">
+        <v>55061.939999999981</v>
+      </c>
+      <c r="D32" s="16">
+        <v>17546.240000000013</v>
+      </c>
+      <c r="E32" s="16">
+        <v>47841.949999999975</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>45820</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="16">
+        <v>132862.82000000012</v>
+      </c>
+      <c r="D33" s="16">
+        <v>42880.259999999907</v>
+      </c>
+      <c r="E33" s="16">
+        <v>114232.04999999989</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>45850</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="16">
+        <v>154879.25199999931</v>
+      </c>
+      <c r="D34" s="16">
+        <v>33879.160000000105</v>
+      </c>
+      <c r="E34" s="16">
+        <v>131209.27000000022</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>45851</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="16">
+        <v>180126.72599999953</v>
+      </c>
+      <c r="D35" s="16">
+        <v>57428.41</v>
+      </c>
+      <c r="E35" s="16">
+        <v>158934.90000000029</v>
+      </c>
+      <c r="F35" s="1">
+        <v>7109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>45852</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="16">
+        <v>63801.56000000007</v>
+      </c>
+      <c r="D36" s="16">
+        <v>20257.800000000061</v>
+      </c>
+      <c r="E36" s="16">
+        <v>56648.209999999912</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>45853</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="16">
+        <v>148273.12000000002</v>
+      </c>
+      <c r="D37" s="16">
+        <v>47623.190000000031</v>
+      </c>
+      <c r="E37" s="16">
+        <v>131850.23999999993</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5900</v>
       </c>
     </row>
   </sheetData>
@@ -6837,19 +7411,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -6857,19 +7431,19 @@
         <v>101</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>164</v>
+        <v>105</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -6877,10 +7451,10 @@
         <v>45901</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1">
         <v>6846.8260000000055</v>
@@ -6888,7 +7462,7 @@
       <c r="E2" s="1">
         <v>243</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="18">
         <f>D2/30</f>
         <v>228.22753333333353</v>
       </c>
@@ -6898,10 +7472,10 @@
         <v>45902</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1">
         <v>6738.0859999999957</v>
@@ -6909,7 +7483,7 @@
       <c r="E3" s="1">
         <v>283</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="18">
         <f>D3/30</f>
         <v>224.60286666666653</v>
       </c>
@@ -6919,10 +7493,10 @@
         <v>45903</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1">
         <v>6427.5620000000026</v>
@@ -6930,7 +7504,7 @@
       <c r="E4" s="1">
         <v>221</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="18">
         <f t="shared" ref="F4:F21" si="0">D4/30</f>
         <v>214.25206666666676</v>
       </c>
@@ -6940,10 +7514,10 @@
         <v>45904</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1">
         <v>5977.0030000000015</v>
@@ -6951,7 +7525,7 @@
       <c r="E5" s="1">
         <v>199</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="18">
         <f t="shared" si="0"/>
         <v>199.23343333333338</v>
       </c>
@@ -6961,10 +7535,10 @@
         <v>45905</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1">
         <v>5655.2000000000007</v>
@@ -6972,7 +7546,7 @@
       <c r="E6" s="1">
         <v>225</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>188.50666666666669</v>
       </c>
@@ -6982,10 +7556,10 @@
         <v>45906</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1">
         <v>5587.213999999999</v>
@@ -6993,7 +7567,7 @@
       <c r="E7" s="1">
         <v>206</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>186.24046666666663</v>
       </c>
@@ -7003,10 +7577,10 @@
         <v>45907</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1">
         <v>5446.4260000000013</v>
@@ -7014,7 +7588,7 @@
       <c r="E8" s="1">
         <v>198</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>181.54753333333338</v>
       </c>
@@ -7024,10 +7598,10 @@
         <v>45908</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1">
         <v>5395.2380000000003</v>
@@ -7035,7 +7609,7 @@
       <c r="E9" s="1">
         <v>164</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>179.84126666666668</v>
       </c>
@@ -7045,10 +7619,10 @@
         <v>45909</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1">
         <v>5388.4640000000009</v>
@@ -7056,7 +7630,7 @@
       <c r="E10" s="1">
         <v>181</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="18">
         <f t="shared" si="0"/>
         <v>179.61546666666669</v>
       </c>
@@ -7066,10 +7640,10 @@
         <v>45910</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D11" s="1">
         <v>5329.6329999999998</v>
@@ -7077,7 +7651,7 @@
       <c r="E11" s="1">
         <v>167</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>177.65443333333332</v>
       </c>
@@ -7087,10 +7661,10 @@
         <v>45911</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D12" s="1">
         <v>5124.9309999999996</v>
@@ -7098,7 +7672,7 @@
       <c r="E12" s="1">
         <v>200</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="18">
         <f t="shared" si="0"/>
         <v>170.83103333333332</v>
       </c>
@@ -7108,10 +7682,10 @@
         <v>45912</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D13" s="1">
         <v>5104.0400000000018</v>
@@ -7119,7 +7693,7 @@
       <c r="E13" s="1">
         <v>220</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
         <v>170.13466666666673</v>
       </c>
@@ -7129,10 +7703,10 @@
         <v>45913</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D14" s="1">
         <v>5040.8310000000038</v>
@@ -7140,7 +7714,7 @@
       <c r="E14" s="1">
         <v>174</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
         <v>168.02770000000012</v>
       </c>
@@ -7150,10 +7724,10 @@
         <v>45914</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D15" s="1">
         <v>4951.6849999999986</v>
@@ -7161,7 +7735,7 @@
       <c r="E15" s="1">
         <v>213</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="18">
         <f t="shared" si="0"/>
         <v>165.05616666666663</v>
       </c>
@@ -7171,10 +7745,10 @@
         <v>45915</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D16" s="1">
         <v>4908.7199999999975</v>
@@ -7182,7 +7756,7 @@
       <c r="E16" s="1">
         <v>194</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
         <v>163.62399999999991</v>
       </c>
@@ -7192,10 +7766,10 @@
         <v>45916</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D17" s="1">
         <v>4863.0689999999995</v>
@@ -7203,7 +7777,7 @@
       <c r="E17" s="1">
         <v>201</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="18">
         <f t="shared" si="0"/>
         <v>162.10229999999999</v>
       </c>
@@ -7213,10 +7787,10 @@
         <v>45917</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D18" s="1">
         <v>4694.4699999999975</v>
@@ -7224,7 +7798,7 @@
       <c r="E18" s="1">
         <v>205</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="18">
         <f t="shared" si="0"/>
         <v>156.48233333333326</v>
       </c>
@@ -7234,10 +7808,10 @@
         <v>45918</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D19" s="1">
         <v>4657.5870000000014</v>
@@ -7245,7 +7819,7 @@
       <c r="E19" s="1">
         <v>176</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="18">
         <f t="shared" si="0"/>
         <v>155.25290000000004</v>
       </c>
@@ -7255,10 +7829,10 @@
         <v>45919</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D20" s="1">
         <v>4653.7999999999956</v>
@@ -7266,7 +7840,7 @@
       <c r="E20" s="1">
         <v>198</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="18">
         <f t="shared" si="0"/>
         <v>155.12666666666652</v>
       </c>
@@ -7276,10 +7850,10 @@
         <v>45920</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1">
         <v>4589.1600000000017</v>
@@ -7287,7 +7861,7 @@
       <c r="E21" s="1">
         <v>175</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="18">
         <f t="shared" si="0"/>
         <v>152.97200000000007</v>
       </c>
@@ -7297,10 +7871,10 @@
         <v>45890</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1">
         <v>7774.1670000000004</v>
@@ -7308,7 +7882,7 @@
       <c r="E22" s="1">
         <v>320</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="19">
         <f>D22/31</f>
         <v>250.7795806451613</v>
       </c>
@@ -7318,10 +7892,10 @@
         <v>45891</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1">
         <v>7509.2669999999989</v>
@@ -7329,7 +7903,7 @@
       <c r="E23" s="1">
         <v>226</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="19">
         <f t="shared" ref="F23:F31" si="1">D23/31</f>
         <v>242.23441935483868</v>
       </c>
@@ -7339,10 +7913,10 @@
         <v>45892</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D24" s="1">
         <v>6529.8100000000031</v>
@@ -7350,7 +7924,7 @@
       <c r="E24" s="1">
         <v>240</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="19">
         <f t="shared" si="1"/>
         <v>210.63903225806462</v>
       </c>
@@ -7360,10 +7934,10 @@
         <v>45893</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1">
         <v>6392.5540000000001</v>
@@ -7371,7 +7945,7 @@
       <c r="E25" s="1">
         <v>245</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="19">
         <f t="shared" si="1"/>
         <v>206.21141935483871</v>
       </c>
@@ -7381,10 +7955,10 @@
         <v>45894</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D26" s="1">
         <v>6240.3350000000037</v>
@@ -7392,7 +7966,7 @@
       <c r="E26" s="1">
         <v>235</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="19">
         <f t="shared" si="1"/>
         <v>201.30112903225819</v>
       </c>
@@ -7402,10 +7976,10 @@
         <v>45895</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D27" s="1">
         <v>5933.8999999999978</v>
@@ -7413,7 +7987,7 @@
       <c r="E27" s="1">
         <v>224</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="19">
         <f t="shared" si="1"/>
         <v>191.416129032258</v>
       </c>
@@ -7423,10 +7997,10 @@
         <v>45896</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D28" s="1">
         <v>5899.6409999999996</v>
@@ -7434,7 +8008,7 @@
       <c r="E28" s="1">
         <v>214</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="19">
         <f t="shared" si="1"/>
         <v>190.31099999999998</v>
       </c>
@@ -7444,10 +8018,10 @@
         <v>45897</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D29" s="1">
         <v>5845.5980000000009</v>
@@ -7455,7 +8029,7 @@
       <c r="E29" s="1">
         <v>199</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="19">
         <f t="shared" si="1"/>
         <v>188.56767741935488</v>
       </c>
@@ -7465,10 +8039,10 @@
         <v>45898</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D30" s="1">
         <v>5765.8460000000032</v>
@@ -7476,7 +8050,7 @@
       <c r="E30" s="1">
         <v>243</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="19">
         <f t="shared" si="1"/>
         <v>185.99503225806461</v>
       </c>
@@ -7486,10 +8060,10 @@
         <v>45899</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D31" s="1">
         <v>5692.0220000000008</v>
@@ -7497,9 +8071,1185 @@
       <c r="E31" s="1">
         <v>232</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="19">
         <f t="shared" si="1"/>
         <v>183.61361290322583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <v>45841</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8279.7780000000039</v>
+      </c>
+      <c r="E32" s="1">
+        <v>291</v>
+      </c>
+      <c r="F32" s="19">
+        <f>D32/31</f>
+        <v>267.08961290322594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <v>45842</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7966.2190000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>299</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" ref="F33:F39" si="2">D33/31</f>
+        <v>256.97480645161289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <v>45843</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6972.8280000000004</v>
+      </c>
+      <c r="E34" s="1">
+        <v>214</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="2"/>
+        <v>224.92993548387099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
+        <v>45844</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6769.8060000000005</v>
+      </c>
+      <c r="E35" s="1">
+        <v>247</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="2"/>
+        <v>218.38083870967745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="8">
+        <v>45845</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6470.1500000000024</v>
+      </c>
+      <c r="E36" s="1">
+        <v>251</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="2"/>
+        <v>208.71451612903235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
+        <v>45846</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6329.952000000003</v>
+      </c>
+      <c r="E37" s="1">
+        <v>203</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="2"/>
+        <v>204.19200000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="8">
+        <v>45847</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6295.9800000000005</v>
+      </c>
+      <c r="E38" s="1">
+        <v>252</v>
+      </c>
+      <c r="F38" s="19">
+        <f t="shared" si="2"/>
+        <v>203.09612903225809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="8">
+        <v>45848</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6262.3699999999981</v>
+      </c>
+      <c r="E39" s="1">
+        <v>191</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="2"/>
+        <v>202.0119354838709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
+        <v>45819</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="7">
+        <v>7228.9719999999998</v>
+      </c>
+      <c r="E40" s="7">
+        <v>286</v>
+      </c>
+      <c r="F40" s="18">
+        <f>D40/30</f>
+        <v>240.96573333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
+        <v>45820</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="7">
+        <v>6946.9370000000017</v>
+      </c>
+      <c r="E41" s="7">
+        <v>251</v>
+      </c>
+      <c r="F41" s="18">
+        <f t="shared" ref="F41:F47" si="3">D41/30</f>
+        <v>231.56456666666674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
+        <v>45821</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="7">
+        <v>6167.3450000000039</v>
+      </c>
+      <c r="E42" s="7">
+        <v>250</v>
+      </c>
+      <c r="F42" s="18">
+        <f t="shared" si="3"/>
+        <v>205.57816666666679</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <v>45822</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="7">
+        <v>5895.784999999998</v>
+      </c>
+      <c r="E43" s="7">
+        <v>217</v>
+      </c>
+      <c r="F43" s="18">
+        <f t="shared" si="3"/>
+        <v>196.5261666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
+        <v>45823</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="7">
+        <v>5832.107</v>
+      </c>
+      <c r="E44" s="7">
+        <v>158</v>
+      </c>
+      <c r="F44" s="18">
+        <f t="shared" si="3"/>
+        <v>194.40356666666668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
+        <v>45824</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="7">
+        <v>5675.9550000000017</v>
+      </c>
+      <c r="E45" s="7">
+        <v>226</v>
+      </c>
+      <c r="F45" s="18">
+        <f t="shared" si="3"/>
+        <v>189.19850000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <v>45825</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="7">
+        <v>5550.420000000001</v>
+      </c>
+      <c r="E46" s="7">
+        <v>228</v>
+      </c>
+      <c r="F46" s="18">
+        <f t="shared" si="3"/>
+        <v>185.01400000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="8">
+        <v>45826</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="7">
+        <v>5405.474000000002</v>
+      </c>
+      <c r="E47" s="7">
+        <v>209</v>
+      </c>
+      <c r="F47" s="18">
+        <f t="shared" si="3"/>
+        <v>180.18246666666673</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="8">
+        <v>45796</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="7">
+        <v>8876.9879999999957</v>
+      </c>
+      <c r="E48" s="7">
+        <v>292</v>
+      </c>
+      <c r="F48" s="18">
+        <f>D48/31</f>
+        <v>286.35445161290306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
+        <v>45797</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="7">
+        <v>7881.9819999999972</v>
+      </c>
+      <c r="E49" s="7">
+        <v>305</v>
+      </c>
+      <c r="F49" s="18">
+        <f t="shared" ref="F49:F55" si="4">D49/31</f>
+        <v>254.25748387096766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <v>45798</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="7">
+        <v>7502.072000000001</v>
+      </c>
+      <c r="E50" s="7">
+        <v>272</v>
+      </c>
+      <c r="F50" s="18">
+        <f t="shared" si="4"/>
+        <v>242.0023225806452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <v>45799</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="7">
+        <v>7333.8789999999999</v>
+      </c>
+      <c r="E51" s="7">
+        <v>271</v>
+      </c>
+      <c r="F51" s="18">
+        <f t="shared" si="4"/>
+        <v>236.57674193548388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <v>45800</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="7">
+        <v>6472.2400000000007</v>
+      </c>
+      <c r="E52" s="7">
+        <v>223</v>
+      </c>
+      <c r="F52" s="18">
+        <f t="shared" si="4"/>
+        <v>208.781935483871</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>45801</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="7">
+        <v>5638.5669999999991</v>
+      </c>
+      <c r="E53" s="7">
+        <v>178</v>
+      </c>
+      <c r="F53" s="18">
+        <f t="shared" si="4"/>
+        <v>181.8892580645161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>45802</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="7">
+        <v>5343.9630000000025</v>
+      </c>
+      <c r="E54" s="7">
+        <v>155</v>
+      </c>
+      <c r="F54" s="18">
+        <f t="shared" si="4"/>
+        <v>172.38590322580654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>45803</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="7">
+        <v>5343.7000000000035</v>
+      </c>
+      <c r="E55" s="7">
+        <v>222</v>
+      </c>
+      <c r="F55" s="18">
+        <f t="shared" si="4"/>
+        <v>172.37741935483882</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <v>45754</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="7">
+        <v>6997.0160000000024</v>
+      </c>
+      <c r="E56" s="7">
+        <v>240</v>
+      </c>
+      <c r="F56" s="18">
+        <f>D56/30</f>
+        <v>233.23386666666676</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <v>45754</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="7">
+        <v>6692.0239999999958</v>
+      </c>
+      <c r="E57" s="7">
+        <v>239</v>
+      </c>
+      <c r="F57" s="18">
+        <f t="shared" ref="F57:F63" si="5">D57/30</f>
+        <v>223.06746666666652</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <v>45754</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="7">
+        <v>6508.0019999999995</v>
+      </c>
+      <c r="E58" s="7">
+        <v>234</v>
+      </c>
+      <c r="F58" s="18">
+        <f t="shared" si="5"/>
+        <v>216.93339999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <v>45754</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="7">
+        <v>6049.5960000000005</v>
+      </c>
+      <c r="E59" s="7">
+        <v>219</v>
+      </c>
+      <c r="F59" s="18">
+        <f t="shared" si="5"/>
+        <v>201.65320000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="8">
+        <v>45754</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="7">
+        <v>6002.58</v>
+      </c>
+      <c r="E60" s="7">
+        <v>237</v>
+      </c>
+      <c r="F60" s="18">
+        <f t="shared" si="5"/>
+        <v>200.08599999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="8">
+        <v>45754</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="7">
+        <v>5260.849000000002</v>
+      </c>
+      <c r="E61" s="7">
+        <v>160</v>
+      </c>
+      <c r="F61" s="18">
+        <f t="shared" si="5"/>
+        <v>175.3616333333334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
+        <v>45754</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="7">
+        <v>5014.5709999999972</v>
+      </c>
+      <c r="E62" s="7">
+        <v>185</v>
+      </c>
+      <c r="F62" s="18">
+        <f t="shared" si="5"/>
+        <v>167.15236666666658</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="8">
+        <v>45754</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="7">
+        <v>4837.1960000000008</v>
+      </c>
+      <c r="E63" s="7">
+        <v>152</v>
+      </c>
+      <c r="F63" s="18">
+        <f t="shared" si="5"/>
+        <v>161.2398666666667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="8">
+        <v>45724</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="7">
+        <v>7549.9179999999978</v>
+      </c>
+      <c r="E64" s="7">
+        <v>249</v>
+      </c>
+      <c r="F64" s="18">
+        <f>D64/31</f>
+        <v>243.54574193548379</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="8">
+        <v>45724</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="7">
+        <v>6864.1479999999992</v>
+      </c>
+      <c r="E65" s="7">
+        <v>190</v>
+      </c>
+      <c r="F65" s="18">
+        <f t="shared" ref="F65:F71" si="6">D65/31</f>
+        <v>221.42412903225804</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="8">
+        <v>45724</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="7">
+        <v>6814.5869999999968</v>
+      </c>
+      <c r="E66" s="7">
+        <v>247</v>
+      </c>
+      <c r="F66" s="18">
+        <f t="shared" si="6"/>
+        <v>219.82538709677408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="8">
+        <v>45724</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="7">
+        <v>6771.3449999999957</v>
+      </c>
+      <c r="E67" s="7">
+        <v>240</v>
+      </c>
+      <c r="F67" s="18">
+        <f t="shared" si="6"/>
+        <v>218.43048387096761</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="8">
+        <v>45724</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="7">
+        <v>6247.6099999999951</v>
+      </c>
+      <c r="E68" s="7">
+        <v>175</v>
+      </c>
+      <c r="F68" s="18">
+        <f t="shared" si="6"/>
+        <v>201.53580645161276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="8">
+        <v>45724</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="7">
+        <v>6122.2339999999949</v>
+      </c>
+      <c r="E69" s="7">
+        <v>217</v>
+      </c>
+      <c r="F69" s="18">
+        <f t="shared" si="6"/>
+        <v>197.49141935483854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="8">
+        <v>45724</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="7">
+        <v>6118.02</v>
+      </c>
+      <c r="E70" s="7">
+        <v>237</v>
+      </c>
+      <c r="F70" s="18">
+        <f t="shared" si="6"/>
+        <v>197.35548387096776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="8">
+        <v>45724</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="7">
+        <v>5879.9939999999979</v>
+      </c>
+      <c r="E71" s="7">
+        <v>206</v>
+      </c>
+      <c r="F71" s="18">
+        <f t="shared" si="6"/>
+        <v>189.67722580645153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="8">
+        <v>45697</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="7">
+        <v>6623.4480000000003</v>
+      </c>
+      <c r="E72" s="7">
+        <v>159</v>
+      </c>
+      <c r="F72" s="18">
+        <f>D72/28</f>
+        <v>236.5517142857143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="8">
+        <v>45698</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="7">
+        <v>6096.9990000000007</v>
+      </c>
+      <c r="E73" s="7">
+        <v>159</v>
+      </c>
+      <c r="F73" s="18">
+        <f t="shared" ref="F73:F79" si="7">D73/28</f>
+        <v>217.7499642857143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="8">
+        <v>45699</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="7">
+        <v>5951.6709999999985</v>
+      </c>
+      <c r="E74" s="7">
+        <v>204</v>
+      </c>
+      <c r="F74" s="18">
+        <f t="shared" si="7"/>
+        <v>212.55967857142852</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="8">
+        <v>45700</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="7">
+        <v>5919.3840000000027</v>
+      </c>
+      <c r="E75" s="7">
+        <v>198</v>
+      </c>
+      <c r="F75" s="18">
+        <f t="shared" si="7"/>
+        <v>211.40657142857154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="8">
+        <v>45701</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="7">
+        <v>5528.0690000000013</v>
+      </c>
+      <c r="E76" s="7">
+        <v>184</v>
+      </c>
+      <c r="F76" s="18">
+        <f t="shared" si="7"/>
+        <v>197.43103571428577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="8">
+        <v>45702</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="7">
+        <v>5470.9070000000002</v>
+      </c>
+      <c r="E77" s="7">
+        <v>150</v>
+      </c>
+      <c r="F77" s="18">
+        <f t="shared" si="7"/>
+        <v>195.38953571428573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="8">
+        <v>45703</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="7">
+        <v>5445.0800000000027</v>
+      </c>
+      <c r="E78" s="7">
+        <v>176</v>
+      </c>
+      <c r="F78" s="18">
+        <f t="shared" si="7"/>
+        <v>194.46714285714296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="8">
+        <v>45704</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="7">
+        <v>5385.9720000000007</v>
+      </c>
+      <c r="E79" s="7">
+        <v>184</v>
+      </c>
+      <c r="F79" s="18">
+        <f t="shared" si="7"/>
+        <v>192.35614285714288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="8">
+        <v>45674</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="7">
+        <v>6027.4990000000016</v>
+      </c>
+      <c r="E80" s="7">
+        <v>195</v>
+      </c>
+      <c r="F80" s="18">
+        <f>D80/31</f>
+        <v>194.43545161290328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="8">
+        <v>45675</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="7">
+        <v>5907.101999999999</v>
+      </c>
+      <c r="E81" s="7">
+        <v>193</v>
+      </c>
+      <c r="F81" s="18">
+        <f t="shared" ref="F81:F87" si="8">D81/31</f>
+        <v>190.5516774193548</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="8">
+        <v>45676</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="7">
+        <v>5903.7110000000021</v>
+      </c>
+      <c r="E82" s="7">
+        <v>180</v>
+      </c>
+      <c r="F82" s="18">
+        <f t="shared" si="8"/>
+        <v>190.4422903225807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="8">
+        <v>45677</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="7">
+        <v>5687.555000000003</v>
+      </c>
+      <c r="E83" s="7">
+        <v>182</v>
+      </c>
+      <c r="F83" s="18">
+        <f t="shared" si="8"/>
+        <v>183.46951612903234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="8">
+        <v>45678</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="7">
+        <v>5609.2339999999967</v>
+      </c>
+      <c r="E84" s="7">
+        <v>181</v>
+      </c>
+      <c r="F84" s="18">
+        <f t="shared" si="8"/>
+        <v>180.94303225806442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="8">
+        <v>45679</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" s="7">
+        <v>5462.347999999999</v>
+      </c>
+      <c r="E85" s="7">
+        <v>132</v>
+      </c>
+      <c r="F85" s="18">
+        <f t="shared" si="8"/>
+        <v>176.20477419354836</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="8">
+        <v>45680</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="7">
+        <v>5446.4840000000031</v>
+      </c>
+      <c r="E86" s="7">
+        <v>145</v>
+      </c>
+      <c r="F86" s="18">
+        <f t="shared" si="8"/>
+        <v>175.69303225806462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="8">
+        <v>45681</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="7">
+        <v>5360.3080000000009</v>
+      </c>
+      <c r="E87" s="7">
+        <v>162</v>
+      </c>
+      <c r="F87" s="18">
+        <f t="shared" si="8"/>
+        <v>172.91316129032262</v>
       </c>
     </row>
   </sheetData>
@@ -7511,17 +9261,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -7529,10 +9279,10 @@
         <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -7540,9 +9290,9 @@
         <v>45901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="1">
+        <v>117</v>
+      </c>
+      <c r="C2" s="16">
         <v>54939.295000000013</v>
       </c>
     </row>
@@ -7551,9 +9301,9 @@
         <v>45902</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="1">
+        <v>118</v>
+      </c>
+      <c r="C3" s="16">
         <v>24536.197000000018</v>
       </c>
     </row>
@@ -7562,9 +9312,9 @@
         <v>45903</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="1">
+        <v>120</v>
+      </c>
+      <c r="C4" s="16">
         <v>28528.709999999988</v>
       </c>
     </row>
@@ -7573,9 +9323,9 @@
         <v>45904</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="1">
+        <v>119</v>
+      </c>
+      <c r="C5" s="16">
         <v>10725.66499999999</v>
       </c>
     </row>
@@ -7584,9 +9334,9 @@
         <v>45905</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="1">
+        <v>109</v>
+      </c>
+      <c r="C6" s="16">
         <v>68032.578000000038</v>
       </c>
     </row>
@@ -7595,9 +9345,9 @@
         <v>45907</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="1">
+        <v>112</v>
+      </c>
+      <c r="C7" s="16">
         <v>66778.129000000015</v>
       </c>
     </row>
@@ -7606,9 +9356,9 @@
         <v>45908</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="1">
+        <v>157</v>
+      </c>
+      <c r="C8" s="16">
         <v>178412.28999999992</v>
       </c>
     </row>
@@ -7617,9 +9367,9 @@
         <v>45909</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="1">
+        <v>113</v>
+      </c>
+      <c r="C9" s="16">
         <v>4885.5640000000021</v>
       </c>
     </row>
@@ -7628,9 +9378,9 @@
         <v>45910</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="1">
+        <v>111</v>
+      </c>
+      <c r="C10" s="16">
         <v>404.01500000000004</v>
       </c>
     </row>
@@ -7639,9 +9389,9 @@
         <v>45911</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="7">
+        <v>110</v>
+      </c>
+      <c r="C11" s="14">
         <v>10031.285000000007</v>
       </c>
     </row>
@@ -7650,9 +9400,9 @@
         <v>45912</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="7">
+        <v>107</v>
+      </c>
+      <c r="C12" s="14">
         <v>556.14099999999996</v>
       </c>
     </row>
@@ -7661,9 +9411,9 @@
         <v>45913</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="7">
+        <v>108</v>
+      </c>
+      <c r="C13" s="14">
         <v>50.697999999999993</v>
       </c>
     </row>
@@ -7672,9 +9422,9 @@
         <v>45883</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="13">
+        <v>117</v>
+      </c>
+      <c r="C14" s="21">
         <v>75524.076000000205</v>
       </c>
     </row>
@@ -7683,9 +9433,9 @@
         <v>45884</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="13">
+        <v>118</v>
+      </c>
+      <c r="C15" s="21">
         <v>28101.525999999994</v>
       </c>
     </row>
@@ -7694,9 +9444,9 @@
         <v>45885</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="13">
+        <v>158</v>
+      </c>
+      <c r="C16" s="21">
         <v>34219.557000000008</v>
       </c>
     </row>
@@ -7705,9 +9455,9 @@
         <v>45886</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="1">
+        <v>119</v>
+      </c>
+      <c r="C17" s="16">
         <v>11258.058999999999</v>
       </c>
     </row>
@@ -7716,9 +9466,9 @@
         <v>45887</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="1">
+        <v>109</v>
+      </c>
+      <c r="C18" s="16">
         <v>86036.677999999796</v>
       </c>
     </row>
@@ -7727,9 +9477,9 @@
         <v>45888</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="1">
+        <v>112</v>
+      </c>
+      <c r="C19" s="16">
         <v>60828.45600000002</v>
       </c>
     </row>
@@ -7738,9 +9488,9 @@
         <v>45889</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="1">
+        <v>111</v>
+      </c>
+      <c r="C20" s="16">
         <v>10574.231000000002</v>
       </c>
     </row>
@@ -7749,9 +9499,9 @@
         <v>45890</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="1">
+        <v>159</v>
+      </c>
+      <c r="C21" s="16">
         <v>137126.10099999967</v>
       </c>
     </row>
@@ -7760,9 +9510,9 @@
         <v>45891</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="1">
+        <v>113</v>
+      </c>
+      <c r="C22" s="16">
         <v>6191.416000000002</v>
       </c>
     </row>
@@ -7771,9 +9521,9 @@
         <v>45892</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="1">
+        <v>160</v>
+      </c>
+      <c r="C23" s="16">
         <v>60487.229999999967</v>
       </c>
     </row>
@@ -7782,9 +9532,9 @@
         <v>45893</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="1">
+        <v>110</v>
+      </c>
+      <c r="C24" s="16">
         <v>11403.327999999996</v>
       </c>
     </row>
@@ -7793,9 +9543,9 @@
         <v>45894</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="1">
+        <v>107</v>
+      </c>
+      <c r="C25" s="16">
         <v>547.15800000000002</v>
       </c>
     </row>
@@ -7804,9 +9554,9 @@
         <v>45895</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="1">
+        <v>108</v>
+      </c>
+      <c r="C26" s="16">
         <v>118.032</v>
       </c>
     </row>
@@ -7815,10 +9565,1055 @@
         <v>45896</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="1">
+        <v>161</v>
+      </c>
+      <c r="C27" s="16">
         <v>19.899000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="16">
+        <v>82285.824999999837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="16">
+        <v>34842.363000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="16">
+        <v>38487.192999999948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="16">
+        <v>14677.756999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="16">
+        <v>139046.67800000022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="16">
+        <v>47605.84699999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="16">
+        <v>85729.513999999908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="16">
+        <v>59763.048999999912</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="16">
+        <v>30963.34499999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="16">
+        <v>6672.4420000000055</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="16">
+        <v>5270.327000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1514.5620000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="16">
+        <v>167.74100000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="16">
+        <v>39.795000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="16">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="16">
+        <v>74735.879000000044</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="16">
+        <v>28853.434000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="16">
+        <v>21278.684999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="16">
+        <v>12208.985000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="16">
+        <v>1131.3730000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="16">
+        <v>70434.532000000079</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="16">
+        <v>127205.59499999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="16">
+        <v>4115.4610000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="16">
+        <v>6092.369999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="16">
+        <v>57548.287000000048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="16">
+        <v>54305.242999999937</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="16">
+        <v>2399.8160000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="16">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="9">
+        <v>45837</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="16">
+        <v>207.59899999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="23">
+        <v>45780</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="14">
+        <v>82561.000000000029</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="23">
+        <v>45781</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="14">
+        <v>26997.302999999964</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="23">
+        <v>45782</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="14">
+        <v>19158.298000000024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="23">
+        <v>45783</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="14">
+        <v>12829.644</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="23">
+        <v>45784</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="14">
+        <v>59672.267999999887</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="23">
+        <v>45785</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="14">
+        <v>1694.8080000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="23">
+        <v>45786</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="14">
+        <v>80509.540000000037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="23">
+        <v>45787</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="14">
+        <v>122973.11900000028</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="23">
+        <v>45788</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="14">
+        <v>49760.569999999963</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="23">
+        <v>45789</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="14">
+        <v>6391.4669999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="23">
+        <v>45790</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="14">
+        <v>4119.3390000000018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="23">
+        <v>45791</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="14">
+        <v>586.06499999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="23">
+        <v>45792</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="14">
+        <v>2343.2399999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="14">
+        <v>77323.399000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="14">
+        <v>26811.640999999974</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="14">
+        <v>17376.701000000012</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="14">
+        <v>11892.883000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="14">
+        <v>60037.924999999967</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="14">
+        <v>62652.252000000015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="14">
+        <v>118933.97500000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="14">
+        <v>52076.847999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="14">
+        <v>7854.1919999999991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="14">
+        <v>1076.9669999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="14">
+        <v>4204.3939999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="14">
+        <v>332.9969999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="23">
+        <v>45763</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="14">
+        <v>694.59800000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="14">
+        <v>81087.636999999857</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="14">
+        <v>30293.000999999975</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="14">
+        <v>20508.054000000018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="14">
+        <v>12886.388999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="14">
+        <v>47808.189000000028</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="14">
+        <v>63484.444000000156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="14">
+        <v>74947.046999999991</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="14">
+        <v>139402.62799999976</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="14">
+        <v>820.74800000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="14">
+        <v>4958.9290000000028</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="14">
+        <v>18362.708999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="14">
+        <v>376.26999999999992</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="23">
+        <v>45733</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="14">
+        <v>127.97399999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="14">
+        <v>85175.902999999831</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="14">
+        <v>24725.937999999966</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="14">
+        <v>13398.610000000013</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="14">
+        <v>13592.306999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="14">
+        <v>116665.62099999991</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="14">
+        <v>49292.963999999964</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="14">
+        <v>71581.923999999955</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="14">
+        <v>51016.440000000075</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="14">
+        <v>3946.0460000000012</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="14">
+        <v>410.91100000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="14">
+        <v>176.02900000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="14">
+        <v>18183.478999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="23">
+        <v>45706</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="14">
+        <v>735.39400000000012</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="23">
+        <v>45676</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" s="14">
+        <v>95155.333999999755</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="23">
+        <v>45677</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="14">
+        <v>23549.002999999986</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="23">
+        <v>45678</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111" s="14">
+        <v>19990.507000000016</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="23">
+        <v>45679</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="14">
+        <v>13440.823000000009</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="23">
+        <v>45680</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="14">
+        <v>122879.18799999973</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" s="23">
+        <v>45681</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114" s="14">
+        <v>71410.504999999961</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" s="23">
+        <v>45682</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" s="14">
+        <v>5113.0519999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="23">
+        <v>45683</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="14">
+        <v>31043.732999999989</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="23">
+        <v>45684</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="14">
+        <v>53867.410999999956</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="23">
+        <v>45685</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118" s="14">
+        <v>25461.305999999975</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="23">
+        <v>45686</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" s="14">
+        <v>227.227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" s="23">
+        <v>45687</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120" s="14">
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="23">
+        <v>45688</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="14">
+        <v>481.72199999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="23">
+        <v>45689</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C122" s="14">
+        <v>207.97399999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7830,10 +10625,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7849,19 +10644,19 @@
         <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7869,7 +10664,7 @@
         <v>45901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1">
         <v>317071.95499999891</v>
@@ -7889,7 +10684,7 @@
         <v>45902</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1">
         <v>130808.61199999967</v>
@@ -7909,7 +10704,7 @@
         <v>45872</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1">
         <v>381919.94700000284</v>
@@ -7929,7 +10724,7 @@
         <v>45873</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C5" s="13">
         <v>140515.79999999973</v>
@@ -7942,6 +10737,286 @@
       </c>
       <c r="F5" s="13">
         <v>5459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>45843</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="1">
+        <v>429027.57500000059</v>
+      </c>
+      <c r="D6" s="1">
+        <v>126871.63999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>248614.05999999901</v>
+      </c>
+      <c r="F6" s="1">
+        <v>16549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>45844</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="1">
+        <v>118053.08299999978</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32316.920000000009</v>
+      </c>
+      <c r="E7" s="1">
+        <v>70839.999999999913</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>45815</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="7">
+        <v>336926.99200000026</v>
+      </c>
+      <c r="D8" s="7">
+        <v>99290.249999999942</v>
+      </c>
+      <c r="E8" s="7">
+        <v>284642.22999999922</v>
+      </c>
+      <c r="F8" s="7">
+        <v>13180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>45816</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="7">
+        <v>123672.86699999981</v>
+      </c>
+      <c r="D9" s="7">
+        <v>36912.420000000122</v>
+      </c>
+      <c r="E9" s="7">
+        <v>106442.92000000009</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1">
+        <v>314969.8940000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>90923.869999999981</v>
+      </c>
+      <c r="E10" s="1">
+        <v>259724.15000000058</v>
+      </c>
+      <c r="F10" s="1">
+        <v>12333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>45787</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1">
+        <v>154626.76700000002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43695.119999999901</v>
+      </c>
+      <c r="E11" s="1">
+        <v>131535.76999999993</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>45758</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="1">
+        <v>313215.11499999987</v>
+      </c>
+      <c r="D12" s="1">
+        <v>85807.760000000038</v>
+      </c>
+      <c r="E12" s="1">
+        <v>257640.30999999965</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>45759</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="1">
+        <v>128053.6569999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>34229.400000000031</v>
+      </c>
+      <c r="E13" s="1">
+        <v>108729.24999999996</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>45729</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1">
+        <v>378034.97900000116</v>
+      </c>
+      <c r="D14" s="1">
+        <v>103864.86000000066</v>
+      </c>
+      <c r="E14" s="1">
+        <v>313077.83999999956</v>
+      </c>
+      <c r="F14" s="1">
+        <v>14620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>45730</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="1">
+        <v>117029.04000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>32598.449999999822</v>
+      </c>
+      <c r="E15" s="1">
+        <v>96855.749999999985</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>45703</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1">
+        <v>331528.76800000243</v>
+      </c>
+      <c r="D16" s="1">
+        <v>91405.359999999753</v>
+      </c>
+      <c r="E16" s="1">
+        <v>282724.03000000207</v>
+      </c>
+      <c r="F16" s="1">
+        <v>12453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>45704</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1">
+        <v>117372.79800000023</v>
+      </c>
+      <c r="D17" s="1">
+        <v>33138.799999999981</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100410.06999999996</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>45674</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="1">
+        <v>357204.47300000227</v>
+      </c>
+      <c r="D18" s="1">
+        <v>100310.05999999963</v>
+      </c>
+      <c r="E18" s="1">
+        <v>309264.79999999842</v>
+      </c>
+      <c r="F18" s="1">
+        <v>13530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>45675</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="1">
+        <v>105640.95199999987</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30164.00999999998</v>
+      </c>
+      <c r="E19" s="1">
+        <v>90101.239999999947</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3698</v>
       </c>
     </row>
   </sheetData>
@@ -7973,19 +11048,19 @@
         <v>101</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7993,10 +11068,10 @@
         <v>45901</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D2" s="15">
         <v>792.95999999999981</v>
@@ -8014,10 +11089,10 @@
         <v>45902</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D3" s="15">
         <v>688.84000000000015</v>
@@ -8035,10 +11110,10 @@
         <v>45903</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D4" s="15">
         <v>656.00000000000011</v>
@@ -8056,10 +11131,10 @@
         <v>45904</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D5" s="15">
         <v>605.67999999999995</v>
@@ -8077,10 +11152,10 @@
         <v>45905</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D6" s="15">
         <v>547.22</v>
@@ -8098,10 +11173,10 @@
         <v>45906</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D7" s="15">
         <v>436.32</v>
@@ -8119,10 +11194,10 @@
         <v>45907</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D8" s="15">
         <v>319.36</v>
@@ -8140,10 +11215,10 @@
         <v>45908</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D9" s="15">
         <v>177.94000000000003</v>
@@ -8161,10 +11236,10 @@
         <v>45909</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D10" s="15">
         <v>139.08000000000001</v>
@@ -8182,10 +11257,10 @@
         <v>45910</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D11" s="15">
         <v>73.34</v>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -12,14 +12,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="163">
   <si>
     <t>充电时间</t>
   </si>
@@ -455,38 +454,12 @@
     <t>504号直流</t>
   </si>
   <si>
-    <t>充电电量(度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均日充电电量(度)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>702号直流</t>
-  </si>
-  <si>
     <t>201号直流</t>
   </si>
   <si>
-    <t>406号直流</t>
-  </si>
-  <si>
-    <t>502号直流</t>
-  </si>
-  <si>
-    <t>603号直流</t>
-  </si>
-  <si>
     <t>101号直流</t>
   </si>
   <si>
-    <t>701号直流</t>
-  </si>
-  <si>
-    <t>402号直流</t>
-  </si>
-  <si>
     <t>东区充电站</t>
   </si>
   <si>
@@ -494,9 +467,6 @@
   </si>
   <si>
     <t>高岭充电站</t>
-  </si>
-  <si>
-    <t>西区充电站</t>
   </si>
   <si>
     <t>充电电量(kw)</t>
@@ -640,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,9 +648,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1010,8 +977,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G440"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6649,17 +6616,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6667,15 +6634,15 @@
         <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -6687,15 +6654,15 @@
         <v>45658</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="16">
+        <v>159</v>
+      </c>
+      <c r="C2" s="15">
         <v>120213.94599999956</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>25724.940000000024</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>100294.46000000009</v>
       </c>
       <c r="F2" s="1">
@@ -6707,15 +6674,15 @@
         <v>45659</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="16">
+        <v>160</v>
+      </c>
+      <c r="C3" s="15">
         <v>144284.73899999997</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>44069.95</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>124745.59000000008</v>
       </c>
       <c r="F3" s="1">
@@ -6727,15 +6694,15 @@
         <v>45660</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="16">
+        <v>161</v>
+      </c>
+      <c r="C4" s="15">
         <v>54241.24</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>16240.510000000042</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>47572.150000000031</v>
       </c>
       <c r="F4" s="1">
@@ -6747,15 +6714,15 @@
         <v>45661</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="16">
+        <v>162</v>
+      </c>
+      <c r="C5" s="15">
         <v>144105.49999999965</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>44438.669999999955</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>126753.83999999987</v>
       </c>
       <c r="F5" s="1">
@@ -6767,15 +6734,15 @@
         <v>45901</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="16">
+        <v>159</v>
+      </c>
+      <c r="C6" s="15">
         <v>145618.50499999963</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>36711.489999999991</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>116024.98000000003</v>
       </c>
       <c r="F6" s="1">
@@ -6787,15 +6754,15 @@
         <v>45901</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="16">
+        <v>160</v>
+      </c>
+      <c r="C7" s="15">
         <v>142199.90199999968</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>49346.029999999977</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>115294.21</v>
       </c>
       <c r="F7" s="1">
@@ -6807,15 +6774,15 @@
         <v>45901</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="16">
+        <v>161</v>
+      </c>
+      <c r="C8" s="15">
         <v>46497.199999999953</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>15923.649999999991</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>37870.589999999967</v>
       </c>
       <c r="F8" s="1">
@@ -6827,15 +6794,15 @@
         <v>45901</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="16">
+        <v>162</v>
+      </c>
+      <c r="C9" s="15">
         <v>113564.96000000006</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>39255.289999999943</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>93101.410000000047</v>
       </c>
       <c r="F9" s="1">
@@ -6847,15 +6814,15 @@
         <v>45871</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="16">
+        <v>159</v>
+      </c>
+      <c r="C10" s="15">
         <v>152879.68699999916</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>38264.369999999908</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>128630.50000000022</v>
       </c>
       <c r="F10" s="1">
@@ -6867,15 +6834,15 @@
         <v>45872</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="16">
+        <v>160</v>
+      </c>
+      <c r="C11" s="15">
         <v>169036.11999999965</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>58538.309999999794</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>144554.87999999968</v>
       </c>
       <c r="F11" s="1">
@@ -6887,15 +6854,15 @@
         <v>45873</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="16">
+        <v>161</v>
+      </c>
+      <c r="C12" s="15">
         <v>60594.68000000008</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>20357.979999999981</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>52378.310000000034</v>
       </c>
       <c r="F12" s="1">
@@ -6907,15 +6874,15 @@
         <v>45874</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="16">
+        <v>162</v>
+      </c>
+      <c r="C13" s="15">
         <v>139925.25999999983</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>48192.829999999987</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>122444.86</v>
       </c>
       <c r="F13" s="1">
@@ -6927,15 +6894,15 @@
         <v>45694</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="16">
+        <v>159</v>
+      </c>
+      <c r="C14" s="15">
         <v>130899.43399999969</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>28051.24</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>108144.12999999987</v>
       </c>
       <c r="F14" s="1">
@@ -6947,15 +6914,15 @@
         <v>45694</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="16">
+        <v>160</v>
+      </c>
+      <c r="C15" s="15">
         <v>138713.27200000023</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>42210.570000000291</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>118591.51999999974</v>
       </c>
       <c r="F15" s="1">
@@ -6967,15 +6934,15 @@
         <v>45694</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="16">
+        <v>161</v>
+      </c>
+      <c r="C16" s="15">
         <v>53889.840000000055</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>15998.460000000019</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>46512.210000000123</v>
       </c>
       <c r="F16" s="1">
@@ -6987,15 +6954,15 @@
         <v>45694</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="16">
+        <v>162</v>
+      </c>
+      <c r="C17" s="15">
         <v>125399.01999999999</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>38283.890000000101</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>109886.24000000009</v>
       </c>
       <c r="F17" s="1">
@@ -7007,15 +6974,15 @@
         <v>45722</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="16">
+        <v>159</v>
+      </c>
+      <c r="C18" s="15">
         <v>141804.27099999969</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>30256.539999999899</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>113696.42999999998</v>
       </c>
       <c r="F18" s="1">
@@ -7027,15 +6994,15 @@
         <v>45722</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="16">
+        <v>160</v>
+      </c>
+      <c r="C19" s="15">
         <v>156933.24800000002</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>47367.189999999908</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>130058.93999999983</v>
       </c>
       <c r="F19" s="1">
@@ -7047,15 +7014,15 @@
         <v>45722</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="16">
+        <v>161</v>
+      </c>
+      <c r="C20" s="15">
         <v>55724.920000000078</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>16438.139999999959</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>47466.680000000029</v>
       </c>
       <c r="F20" s="1">
@@ -7067,15 +7034,15 @@
         <v>45722</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="16">
+        <v>162</v>
+      </c>
+      <c r="C21" s="15">
         <v>140601.58000000002</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>42401.440000000053</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>118711.53999999998</v>
       </c>
       <c r="F21" s="1">
@@ -7087,15 +7054,15 @@
         <v>45753</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="16">
+        <v>159</v>
+      </c>
+      <c r="C22" s="15">
         <v>104547.96199999975</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>22245.890000000076</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>84023.609999999841</v>
       </c>
       <c r="F22" s="1">
@@ -7107,15 +7074,15 @@
         <v>45753</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="16">
+        <v>160</v>
+      </c>
+      <c r="C23" s="15">
         <v>148225.34999999928</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>43418.879999999874</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>122758.71000000018</v>
       </c>
       <c r="F23" s="1">
@@ -7127,15 +7094,15 @@
         <v>45753</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="16">
+        <v>161</v>
+      </c>
+      <c r="C24" s="15">
         <v>54411.500000000022</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>15483.160000000002</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>46438.960000000072</v>
       </c>
       <c r="F24" s="1">
@@ -7147,15 +7114,15 @@
         <v>45753</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="16">
+        <v>162</v>
+      </c>
+      <c r="C25" s="15">
         <v>134083.96000000034</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <v>38889.230000000025</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>113148.28000000004</v>
       </c>
       <c r="F25" s="1">
@@ -7167,15 +7134,15 @@
         <v>45783</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="16">
+        <v>159</v>
+      </c>
+      <c r="C26" s="15">
         <v>110586.98200000005</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <v>23536.710000000003</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>88398.86999999985</v>
       </c>
       <c r="F26" s="1">
@@ -7187,15 +7154,15 @@
         <v>45784</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="16">
+        <v>160</v>
+      </c>
+      <c r="C27" s="15">
         <v>165003.35900000029</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <v>51368.109999999877</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <v>138533.13999999987</v>
       </c>
       <c r="F27" s="1">
@@ -7207,15 +7174,15 @@
         <v>45785</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="16">
+        <v>161</v>
+      </c>
+      <c r="C28" s="15">
         <v>56749.460000000028</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>17489.209999999985</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>48185.260000000053</v>
       </c>
       <c r="F28" s="1">
@@ -7227,15 +7194,15 @@
         <v>45786</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="16">
+        <v>162</v>
+      </c>
+      <c r="C29" s="15">
         <v>137256.86000000002</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>42224.959999999926</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>116142.64999999947</v>
       </c>
       <c r="F29" s="1">
@@ -7247,15 +7214,15 @@
         <v>45817</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="16">
+        <v>159</v>
+      </c>
+      <c r="C30" s="15">
         <v>114030.86799999975</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <v>24081.519999999993</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>92458.010000000126</v>
       </c>
       <c r="F30" s="1">
@@ -7267,15 +7234,15 @@
         <v>45818</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="16">
+        <v>160</v>
+      </c>
+      <c r="C31" s="15">
         <v>158644.23099999933</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <v>51694.65000000006</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>136553.14000000004</v>
       </c>
       <c r="F31" s="1">
@@ -7287,15 +7254,15 @@
         <v>45819</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="16">
+        <v>161</v>
+      </c>
+      <c r="C32" s="15">
         <v>55061.939999999981</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <v>17546.240000000013</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>47841.949999999975</v>
       </c>
       <c r="F32" s="1">
@@ -7307,15 +7274,15 @@
         <v>45820</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="16">
+        <v>162</v>
+      </c>
+      <c r="C33" s="15">
         <v>132862.82000000012</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <v>42880.259999999907</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>114232.04999999989</v>
       </c>
       <c r="F33" s="1">
@@ -7327,15 +7294,15 @@
         <v>45850</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="16">
+        <v>159</v>
+      </c>
+      <c r="C34" s="15">
         <v>154879.25199999931</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>33879.160000000105</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>131209.27000000022</v>
       </c>
       <c r="F34" s="1">
@@ -7347,15 +7314,15 @@
         <v>45851</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="16">
+        <v>160</v>
+      </c>
+      <c r="C35" s="15">
         <v>180126.72599999953</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>57428.41</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>158934.90000000029</v>
       </c>
       <c r="F35" s="1">
@@ -7367,15 +7334,15 @@
         <v>45852</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="16">
+        <v>161</v>
+      </c>
+      <c r="C36" s="15">
         <v>63801.56000000007</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <v>20257.800000000061</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>56648.209999999912</v>
       </c>
       <c r="F36" s="1">
@@ -7387,15 +7354,15 @@
         <v>45853</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="16">
+        <v>162</v>
+      </c>
+      <c r="C37" s="15">
         <v>148273.12000000002</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="15">
         <v>47623.190000000031</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="15">
         <v>131850.23999999993</v>
       </c>
       <c r="F37" s="1">
@@ -7414,7 +7381,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7423,7 +7390,7 @@
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -7437,13 +7404,13 @@
         <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>156</v>
+      <c r="F1" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7451,7 +7418,7 @@
         <v>45901</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>123</v>
@@ -7462,7 +7429,7 @@
       <c r="E2" s="1">
         <v>243</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <f>D2/30</f>
         <v>228.22753333333353</v>
       </c>
@@ -7472,7 +7439,7 @@
         <v>45902</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>124</v>
@@ -7483,7 +7450,7 @@
       <c r="E3" s="1">
         <v>283</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <f>D3/30</f>
         <v>224.60286666666653</v>
       </c>
@@ -7493,7 +7460,7 @@
         <v>45903</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>125</v>
@@ -7504,7 +7471,7 @@
       <c r="E4" s="1">
         <v>221</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <f t="shared" ref="F4:F21" si="0">D4/30</f>
         <v>214.25206666666676</v>
       </c>
@@ -7514,7 +7481,7 @@
         <v>45904</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>126</v>
@@ -7525,7 +7492,7 @@
       <c r="E5" s="1">
         <v>199</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
         <v>199.23343333333338</v>
       </c>
@@ -7535,7 +7502,7 @@
         <v>45905</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>127</v>
@@ -7546,7 +7513,7 @@
       <c r="E6" s="1">
         <v>225</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>188.50666666666669</v>
       </c>
@@ -7556,7 +7523,7 @@
         <v>45906</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>128</v>
@@ -7567,7 +7534,7 @@
       <c r="E7" s="1">
         <v>206</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>186.24046666666663</v>
       </c>
@@ -7577,7 +7544,7 @@
         <v>45907</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>129</v>
@@ -7588,7 +7555,7 @@
       <c r="E8" s="1">
         <v>198</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>181.54753333333338</v>
       </c>
@@ -7598,7 +7565,7 @@
         <v>45908</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>130</v>
@@ -7609,7 +7576,7 @@
       <c r="E9" s="1">
         <v>164</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>179.84126666666668</v>
       </c>
@@ -7619,7 +7586,7 @@
         <v>45909</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>124</v>
@@ -7630,7 +7597,7 @@
       <c r="E10" s="1">
         <v>181</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>179.61546666666669</v>
       </c>
@@ -7640,7 +7607,7 @@
         <v>45910</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>131</v>
@@ -7651,7 +7618,7 @@
       <c r="E11" s="1">
         <v>167</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <f t="shared" si="0"/>
         <v>177.65443333333332</v>
       </c>
@@ -7661,7 +7628,7 @@
         <v>45911</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>132</v>
@@ -7672,7 +7639,7 @@
       <c r="E12" s="1">
         <v>200</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <f t="shared" si="0"/>
         <v>170.83103333333332</v>
       </c>
@@ -7682,7 +7649,7 @@
         <v>45912</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>133</v>
@@ -7693,7 +7660,7 @@
       <c r="E13" s="1">
         <v>220</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>170.13466666666673</v>
       </c>
@@ -7703,7 +7670,7 @@
         <v>45913</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>134</v>
@@ -7714,7 +7681,7 @@
       <c r="E14" s="1">
         <v>174</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <f t="shared" si="0"/>
         <v>168.02770000000012</v>
       </c>
@@ -7724,7 +7691,7 @@
         <v>45914</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>135</v>
@@ -7735,7 +7702,7 @@
       <c r="E15" s="1">
         <v>213</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <f t="shared" si="0"/>
         <v>165.05616666666663</v>
       </c>
@@ -7745,7 +7712,7 @@
         <v>45915</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>135</v>
@@ -7756,7 +7723,7 @@
       <c r="E16" s="1">
         <v>194</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <f t="shared" si="0"/>
         <v>163.62399999999991</v>
       </c>
@@ -7766,7 +7733,7 @@
         <v>45916</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>136</v>
@@ -7777,7 +7744,7 @@
       <c r="E17" s="1">
         <v>201</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <f t="shared" si="0"/>
         <v>162.10229999999999</v>
       </c>
@@ -7787,7 +7754,7 @@
         <v>45917</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>137</v>
@@ -7798,7 +7765,7 @@
       <c r="E18" s="1">
         <v>205</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <f t="shared" si="0"/>
         <v>156.48233333333326</v>
       </c>
@@ -7808,7 +7775,7 @@
         <v>45918</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>138</v>
@@ -7819,7 +7786,7 @@
       <c r="E19" s="1">
         <v>176</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <f t="shared" si="0"/>
         <v>155.25290000000004</v>
       </c>
@@ -7829,7 +7796,7 @@
         <v>45919</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>139</v>
@@ -7840,7 +7807,7 @@
       <c r="E20" s="1">
         <v>198</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f t="shared" si="0"/>
         <v>155.12666666666652</v>
       </c>
@@ -7850,7 +7817,7 @@
         <v>45920</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>140</v>
@@ -7861,7 +7828,7 @@
       <c r="E21" s="1">
         <v>175</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <f t="shared" si="0"/>
         <v>152.97200000000007</v>
       </c>
@@ -7871,7 +7838,7 @@
         <v>45890</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>124</v>
@@ -7882,7 +7849,7 @@
       <c r="E22" s="1">
         <v>320</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <f>D22/31</f>
         <v>250.7795806451613</v>
       </c>
@@ -7892,7 +7859,7 @@
         <v>45891</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>124</v>
@@ -7903,7 +7870,7 @@
       <c r="E23" s="1">
         <v>226</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <f t="shared" ref="F23:F31" si="1">D23/31</f>
         <v>242.23441935483868</v>
       </c>
@@ -7913,7 +7880,7 @@
         <v>45892</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>125</v>
@@ -7924,7 +7891,7 @@
       <c r="E24" s="1">
         <v>240</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <f t="shared" si="1"/>
         <v>210.63903225806462</v>
       </c>
@@ -7934,7 +7901,7 @@
         <v>45893</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>135</v>
@@ -7945,7 +7912,7 @@
       <c r="E25" s="1">
         <v>245</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <f t="shared" si="1"/>
         <v>206.21141935483871</v>
       </c>
@@ -7955,7 +7922,7 @@
         <v>45894</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>132</v>
@@ -7966,7 +7933,7 @@
       <c r="E26" s="1">
         <v>235</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <f t="shared" si="1"/>
         <v>201.30112903225819</v>
       </c>
@@ -7976,7 +7943,7 @@
         <v>45895</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>139</v>
@@ -7987,7 +7954,7 @@
       <c r="E27" s="1">
         <v>224</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <f t="shared" si="1"/>
         <v>191.416129032258</v>
       </c>
@@ -7997,7 +7964,7 @@
         <v>45896</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>126</v>
@@ -8008,7 +7975,7 @@
       <c r="E28" s="1">
         <v>214</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <f t="shared" si="1"/>
         <v>190.31099999999998</v>
       </c>
@@ -8018,7 +7985,7 @@
         <v>45897</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>138</v>
@@ -8029,7 +7996,7 @@
       <c r="E29" s="1">
         <v>199</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <f t="shared" si="1"/>
         <v>188.56767741935488</v>
       </c>
@@ -8039,7 +8006,7 @@
         <v>45898</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>127</v>
@@ -8050,7 +8017,7 @@
       <c r="E30" s="1">
         <v>243</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <f t="shared" si="1"/>
         <v>185.99503225806461</v>
       </c>
@@ -8060,7 +8027,7 @@
         <v>45899</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>136</v>
@@ -8071,7 +8038,7 @@
       <c r="E31" s="1">
         <v>232</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <f t="shared" si="1"/>
         <v>183.61361290322583</v>
       </c>
@@ -8081,7 +8048,7 @@
         <v>45841</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>135</v>
@@ -8092,7 +8059,7 @@
       <c r="E32" s="1">
         <v>291</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <f>D32/31</f>
         <v>267.08961290322594</v>
       </c>
@@ -8102,7 +8069,7 @@
         <v>45842</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>124</v>
@@ -8113,7 +8080,7 @@
       <c r="E33" s="1">
         <v>299</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <f t="shared" ref="F33:F39" si="2">D33/31</f>
         <v>256.97480645161289</v>
       </c>
@@ -8123,7 +8090,7 @@
         <v>45843</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>124</v>
@@ -8134,7 +8101,7 @@
       <c r="E34" s="1">
         <v>214</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="18">
         <f t="shared" si="2"/>
         <v>224.92993548387099</v>
       </c>
@@ -8144,7 +8111,7 @@
         <v>45844</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>136</v>
@@ -8155,7 +8122,7 @@
       <c r="E35" s="1">
         <v>247</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <f t="shared" si="2"/>
         <v>218.38083870967745</v>
       </c>
@@ -8165,7 +8132,7 @@
         <v>45845</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>127</v>
@@ -8176,7 +8143,7 @@
       <c r="E36" s="1">
         <v>251</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <f t="shared" si="2"/>
         <v>208.71451612903235</v>
       </c>
@@ -8186,7 +8153,7 @@
         <v>45846</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>131</v>
@@ -8197,7 +8164,7 @@
       <c r="E37" s="1">
         <v>203</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <f t="shared" si="2"/>
         <v>204.19200000000009</v>
       </c>
@@ -8207,7 +8174,7 @@
         <v>45847</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>135</v>
@@ -8218,7 +8185,7 @@
       <c r="E38" s="1">
         <v>252</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="18">
         <f t="shared" si="2"/>
         <v>203.09612903225809</v>
       </c>
@@ -8228,10 +8195,10 @@
         <v>45848</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1">
         <v>6262.3699999999981</v>
@@ -8239,7 +8206,7 @@
       <c r="E39" s="1">
         <v>191</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="18">
         <f t="shared" si="2"/>
         <v>202.0119354838709</v>
       </c>
@@ -8249,7 +8216,7 @@
         <v>45819</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>124</v>
@@ -8260,7 +8227,7 @@
       <c r="E40" s="7">
         <v>286</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="17">
         <f>D40/30</f>
         <v>240.96573333333333</v>
       </c>
@@ -8270,7 +8237,7 @@
         <v>45820</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>127</v>
@@ -8281,7 +8248,7 @@
       <c r="E41" s="7">
         <v>251</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="17">
         <f t="shared" ref="F41:F47" si="3">D41/30</f>
         <v>231.56456666666674</v>
       </c>
@@ -8291,7 +8258,7 @@
         <v>45821</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>135</v>
@@ -8302,7 +8269,7 @@
       <c r="E42" s="7">
         <v>250</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="17">
         <f t="shared" si="3"/>
         <v>205.57816666666679</v>
       </c>
@@ -8312,7 +8279,7 @@
         <v>45822</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>136</v>
@@ -8323,7 +8290,7 @@
       <c r="E43" s="7">
         <v>217</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="17">
         <f t="shared" si="3"/>
         <v>196.5261666666666</v>
       </c>
@@ -8333,10 +8300,10 @@
         <v>45823</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D44" s="7">
         <v>5832.107</v>
@@ -8344,7 +8311,7 @@
       <c r="E44" s="7">
         <v>158</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="17">
         <f t="shared" si="3"/>
         <v>194.40356666666668</v>
       </c>
@@ -8354,7 +8321,7 @@
         <v>45824</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>131</v>
@@ -8365,7 +8332,7 @@
       <c r="E45" s="7">
         <v>226</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="17">
         <f t="shared" si="3"/>
         <v>189.19850000000005</v>
       </c>
@@ -8375,10 +8342,10 @@
         <v>45825</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D46" s="7">
         <v>5550.420000000001</v>
@@ -8386,7 +8353,7 @@
       <c r="E46" s="7">
         <v>228</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="17">
         <f t="shared" si="3"/>
         <v>185.01400000000004</v>
       </c>
@@ -8396,7 +8363,7 @@
         <v>45826</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>123</v>
@@ -8407,7 +8374,7 @@
       <c r="E47" s="7">
         <v>209</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="17">
         <f t="shared" si="3"/>
         <v>180.18246666666673</v>
       </c>
@@ -8417,7 +8384,7 @@
         <v>45796</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>135</v>
@@ -8428,7 +8395,7 @@
       <c r="E48" s="7">
         <v>292</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="17">
         <f>D48/31</f>
         <v>286.35445161290306</v>
       </c>
@@ -8438,7 +8405,7 @@
         <v>45797</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>124</v>
@@ -8449,7 +8416,7 @@
       <c r="E49" s="7">
         <v>305</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="17">
         <f t="shared" ref="F49:F55" si="4">D49/31</f>
         <v>254.25748387096766</v>
       </c>
@@ -8459,7 +8426,7 @@
         <v>45798</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>136</v>
@@ -8470,7 +8437,7 @@
       <c r="E50" s="7">
         <v>272</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="17">
         <f t="shared" si="4"/>
         <v>242.0023225806452</v>
       </c>
@@ -8480,7 +8447,7 @@
         <v>45799</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>131</v>
@@ -8491,7 +8458,7 @@
       <c r="E51" s="7">
         <v>271</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="17">
         <f t="shared" si="4"/>
         <v>236.57674193548388</v>
       </c>
@@ -8501,7 +8468,7 @@
         <v>45800</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>127</v>
@@ -8512,7 +8479,7 @@
       <c r="E52" s="7">
         <v>223</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="17">
         <f t="shared" si="4"/>
         <v>208.781935483871</v>
       </c>
@@ -8522,10 +8489,10 @@
         <v>45801</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D53" s="7">
         <v>5638.5669999999991</v>
@@ -8533,7 +8500,7 @@
       <c r="E53" s="7">
         <v>178</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="17">
         <f t="shared" si="4"/>
         <v>181.8892580645161</v>
       </c>
@@ -8543,7 +8510,7 @@
         <v>45802</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>130</v>
@@ -8554,7 +8521,7 @@
       <c r="E54" s="7">
         <v>155</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="17">
         <f t="shared" si="4"/>
         <v>172.38590322580654</v>
       </c>
@@ -8564,10 +8531,10 @@
         <v>45803</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D55" s="7">
         <v>5343.7000000000035</v>
@@ -8575,7 +8542,7 @@
       <c r="E55" s="7">
         <v>222</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="17">
         <f t="shared" si="4"/>
         <v>172.37741935483882</v>
       </c>
@@ -8585,7 +8552,7 @@
         <v>45754</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>135</v>
@@ -8596,7 +8563,7 @@
       <c r="E56" s="7">
         <v>240</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="17">
         <f>D56/30</f>
         <v>233.23386666666676</v>
       </c>
@@ -8606,7 +8573,7 @@
         <v>45754</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>131</v>
@@ -8617,7 +8584,7 @@
       <c r="E57" s="7">
         <v>239</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="17">
         <f t="shared" ref="F57:F63" si="5">D57/30</f>
         <v>223.06746666666652</v>
       </c>
@@ -8627,7 +8594,7 @@
         <v>45754</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>136</v>
@@ -8638,7 +8605,7 @@
       <c r="E58" s="7">
         <v>234</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="17">
         <f t="shared" si="5"/>
         <v>216.93339999999998</v>
       </c>
@@ -8648,7 +8615,7 @@
         <v>45754</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>124</v>
@@ -8659,7 +8626,7 @@
       <c r="E59" s="7">
         <v>219</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="17">
         <f t="shared" si="5"/>
         <v>201.65320000000003</v>
       </c>
@@ -8669,10 +8636,10 @@
         <v>45754</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D60" s="7">
         <v>6002.58</v>
@@ -8680,7 +8647,7 @@
       <c r="E60" s="7">
         <v>237</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="17">
         <f t="shared" si="5"/>
         <v>200.08599999999998</v>
       </c>
@@ -8690,7 +8657,7 @@
         <v>45754</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>130</v>
@@ -8701,7 +8668,7 @@
       <c r="E61" s="7">
         <v>160</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="17">
         <f t="shared" si="5"/>
         <v>175.3616333333334</v>
       </c>
@@ -8711,7 +8678,7 @@
         <v>45754</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>127</v>
@@ -8722,7 +8689,7 @@
       <c r="E62" s="7">
         <v>185</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="17">
         <f t="shared" si="5"/>
         <v>167.15236666666658</v>
       </c>
@@ -8732,10 +8699,10 @@
         <v>45754</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D63" s="7">
         <v>4837.1960000000008</v>
@@ -8743,7 +8710,7 @@
       <c r="E63" s="7">
         <v>152</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="17">
         <f t="shared" si="5"/>
         <v>161.2398666666667</v>
       </c>
@@ -8753,7 +8720,7 @@
         <v>45724</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>135</v>
@@ -8764,7 +8731,7 @@
       <c r="E64" s="7">
         <v>249</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="17">
         <f>D64/31</f>
         <v>243.54574193548379</v>
       </c>
@@ -8774,7 +8741,7 @@
         <v>45724</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>124</v>
@@ -8785,7 +8752,7 @@
       <c r="E65" s="7">
         <v>190</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="17">
         <f t="shared" ref="F65:F71" si="6">D65/31</f>
         <v>221.42412903225804</v>
       </c>
@@ -8795,7 +8762,7 @@
         <v>45724</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>127</v>
@@ -8806,7 +8773,7 @@
       <c r="E66" s="7">
         <v>247</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="17">
         <f t="shared" si="6"/>
         <v>219.82538709677408</v>
       </c>
@@ -8816,7 +8783,7 @@
         <v>45724</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>124</v>
@@ -8827,7 +8794,7 @@
       <c r="E67" s="7">
         <v>240</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="17">
         <f t="shared" si="6"/>
         <v>218.43048387096761</v>
       </c>
@@ -8837,7 +8804,7 @@
         <v>45724</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>131</v>
@@ -8848,7 +8815,7 @@
       <c r="E68" s="7">
         <v>175</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="17">
         <f t="shared" si="6"/>
         <v>201.53580645161276</v>
       </c>
@@ -8858,7 +8825,7 @@
         <v>45724</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>131</v>
@@ -8869,7 +8836,7 @@
       <c r="E69" s="7">
         <v>217</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="17">
         <f t="shared" si="6"/>
         <v>197.49141935483854</v>
       </c>
@@ -8879,7 +8846,7 @@
         <v>45724</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>140</v>
@@ -8890,7 +8857,7 @@
       <c r="E70" s="7">
         <v>237</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="17">
         <f t="shared" si="6"/>
         <v>197.35548387096776</v>
       </c>
@@ -8900,7 +8867,7 @@
         <v>45724</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>136</v>
@@ -8911,7 +8878,7 @@
       <c r="E71" s="7">
         <v>206</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="17">
         <f t="shared" si="6"/>
         <v>189.67722580645153</v>
       </c>
@@ -8921,7 +8888,7 @@
         <v>45697</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>131</v>
@@ -8932,7 +8899,7 @@
       <c r="E72" s="7">
         <v>159</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="17">
         <f>D72/28</f>
         <v>236.5517142857143</v>
       </c>
@@ -8942,7 +8909,7 @@
         <v>45698</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>124</v>
@@ -8953,7 +8920,7 @@
       <c r="E73" s="7">
         <v>159</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="17">
         <f t="shared" ref="F73:F79" si="7">D73/28</f>
         <v>217.7499642857143</v>
       </c>
@@ -8963,7 +8930,7 @@
         <v>45699</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>135</v>
@@ -8974,7 +8941,7 @@
       <c r="E74" s="7">
         <v>204</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="17">
         <f t="shared" si="7"/>
         <v>212.55967857142852</v>
       </c>
@@ -8984,7 +8951,7 @@
         <v>45700</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>131</v>
@@ -8995,7 +8962,7 @@
       <c r="E75" s="7">
         <v>198</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="17">
         <f t="shared" si="7"/>
         <v>211.40657142857154</v>
       </c>
@@ -9005,7 +8972,7 @@
         <v>45701</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>127</v>
@@ -9016,7 +8983,7 @@
       <c r="E76" s="7">
         <v>184</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="17">
         <f t="shared" si="7"/>
         <v>197.43103571428577</v>
       </c>
@@ -9026,10 +8993,10 @@
         <v>45702</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D77" s="7">
         <v>5470.9070000000002</v>
@@ -9037,7 +9004,7 @@
       <c r="E77" s="7">
         <v>150</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="17">
         <f t="shared" si="7"/>
         <v>195.38953571428573</v>
       </c>
@@ -9047,7 +9014,7 @@
         <v>45703</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>124</v>
@@ -9058,7 +9025,7 @@
       <c r="E78" s="7">
         <v>176</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="17">
         <f t="shared" si="7"/>
         <v>194.46714285714296</v>
       </c>
@@ -9068,7 +9035,7 @@
         <v>45704</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>123</v>
@@ -9079,7 +9046,7 @@
       <c r="E79" s="7">
         <v>184</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="17">
         <f t="shared" si="7"/>
         <v>192.35614285714288</v>
       </c>
@@ -9089,7 +9056,7 @@
         <v>45674</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>135</v>
@@ -9100,7 +9067,7 @@
       <c r="E80" s="7">
         <v>195</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="17">
         <f>D80/31</f>
         <v>194.43545161290328</v>
       </c>
@@ -9110,7 +9077,7 @@
         <v>45675</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>129</v>
@@ -9121,7 +9088,7 @@
       <c r="E81" s="7">
         <v>193</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="17">
         <f t="shared" ref="F81:F87" si="8">D81/31</f>
         <v>190.5516774193548</v>
       </c>
@@ -9131,7 +9098,7 @@
         <v>45676</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>126</v>
@@ -9142,7 +9109,7 @@
       <c r="E82" s="7">
         <v>180</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="17">
         <f t="shared" si="8"/>
         <v>190.4422903225807</v>
       </c>
@@ -9152,7 +9119,7 @@
         <v>45677</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>131</v>
@@ -9163,7 +9130,7 @@
       <c r="E83" s="7">
         <v>182</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="17">
         <f t="shared" si="8"/>
         <v>183.46951612903234</v>
       </c>
@@ -9173,7 +9140,7 @@
         <v>45678</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>124</v>
@@ -9184,7 +9151,7 @@
       <c r="E84" s="7">
         <v>181</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="17">
         <f t="shared" si="8"/>
         <v>180.94303225806442</v>
       </c>
@@ -9194,7 +9161,7 @@
         <v>45679</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>124</v>
@@ -9205,7 +9172,7 @@
       <c r="E85" s="7">
         <v>132</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="17">
         <f t="shared" si="8"/>
         <v>176.20477419354836</v>
       </c>
@@ -9215,7 +9182,7 @@
         <v>45680</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>131</v>
@@ -9226,7 +9193,7 @@
       <c r="E86" s="7">
         <v>145</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="17">
         <f t="shared" si="8"/>
         <v>175.69303225806462</v>
       </c>
@@ -9236,7 +9203,7 @@
         <v>45681</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>128</v>
@@ -9247,7 +9214,7 @@
       <c r="E87" s="7">
         <v>162</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="17">
         <f t="shared" si="8"/>
         <v>172.91316129032262</v>
       </c>
@@ -9264,14 +9231,14 @@
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C122"/>
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -9281,7 +9248,7 @@
       <c r="B1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9292,7 +9259,7 @@
       <c r="B2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>54939.295000000013</v>
       </c>
     </row>
@@ -9303,7 +9270,7 @@
       <c r="B3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>24536.197000000018</v>
       </c>
     </row>
@@ -9314,7 +9281,7 @@
       <c r="B4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>28528.709999999988</v>
       </c>
     </row>
@@ -9325,7 +9292,7 @@
       <c r="B5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>10725.66499999999</v>
       </c>
     </row>
@@ -9336,7 +9303,7 @@
       <c r="B6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>68032.578000000038</v>
       </c>
     </row>
@@ -9347,7 +9314,7 @@
       <c r="B7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>66778.129000000015</v>
       </c>
     </row>
@@ -9356,9 +9323,9 @@
         <v>45908</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="16">
+        <v>148</v>
+      </c>
+      <c r="C8" s="15">
         <v>178412.28999999992</v>
       </c>
     </row>
@@ -9369,7 +9336,7 @@
       <c r="B9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>4885.5640000000021</v>
       </c>
     </row>
@@ -9380,7 +9347,7 @@
       <c r="B10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>404.01500000000004</v>
       </c>
     </row>
@@ -9424,7 +9391,7 @@
       <c r="B14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>75524.076000000205</v>
       </c>
     </row>
@@ -9435,7 +9402,7 @@
       <c r="B15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>28101.525999999994</v>
       </c>
     </row>
@@ -9444,9 +9411,9 @@
         <v>45885</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="21">
+        <v>149</v>
+      </c>
+      <c r="C16" s="20">
         <v>34219.557000000008</v>
       </c>
     </row>
@@ -9457,7 +9424,7 @@
       <c r="B17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>11258.058999999999</v>
       </c>
     </row>
@@ -9468,7 +9435,7 @@
       <c r="B18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>86036.677999999796</v>
       </c>
     </row>
@@ -9479,7 +9446,7 @@
       <c r="B19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>60828.45600000002</v>
       </c>
     </row>
@@ -9490,7 +9457,7 @@
       <c r="B20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>10574.231000000002</v>
       </c>
     </row>
@@ -9499,9 +9466,9 @@
         <v>45890</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="16">
+        <v>150</v>
+      </c>
+      <c r="C21" s="15">
         <v>137126.10099999967</v>
       </c>
     </row>
@@ -9512,7 +9479,7 @@
       <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>6191.416000000002</v>
       </c>
     </row>
@@ -9521,9 +9488,9 @@
         <v>45892</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="16">
+        <v>151</v>
+      </c>
+      <c r="C23" s="15">
         <v>60487.229999999967</v>
       </c>
     </row>
@@ -9534,7 +9501,7 @@
       <c r="B24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>11403.327999999996</v>
       </c>
     </row>
@@ -9545,7 +9512,7 @@
       <c r="B25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>547.15800000000002</v>
       </c>
     </row>
@@ -9556,7 +9523,7 @@
       <c r="B26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>118.032</v>
       </c>
     </row>
@@ -9565,9 +9532,9 @@
         <v>45896</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="16">
+        <v>152</v>
+      </c>
+      <c r="C27" s="15">
         <v>19.899000000000001</v>
       </c>
     </row>
@@ -9578,7 +9545,7 @@
       <c r="B28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>82285.824999999837</v>
       </c>
     </row>
@@ -9589,7 +9556,7 @@
       <c r="B29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>34842.363000000005</v>
       </c>
     </row>
@@ -9598,9 +9565,9 @@
         <v>45866</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="16">
+        <v>149</v>
+      </c>
+      <c r="C30" s="15">
         <v>38487.192999999948</v>
       </c>
     </row>
@@ -9611,7 +9578,7 @@
       <c r="B31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>14677.756999999994</v>
       </c>
     </row>
@@ -9620,9 +9587,9 @@
         <v>45866</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" s="16">
+        <v>150</v>
+      </c>
+      <c r="C32" s="15">
         <v>139046.67800000022</v>
       </c>
     </row>
@@ -9631,9 +9598,9 @@
         <v>45866</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="16">
+        <v>151</v>
+      </c>
+      <c r="C33" s="15">
         <v>47605.84699999998</v>
       </c>
     </row>
@@ -9644,7 +9611,7 @@
       <c r="B34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>85729.513999999908</v>
       </c>
     </row>
@@ -9655,7 +9622,7 @@
       <c r="B35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>59763.048999999912</v>
       </c>
     </row>
@@ -9666,7 +9633,7 @@
       <c r="B36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>30963.34499999999</v>
       </c>
     </row>
@@ -9677,7 +9644,7 @@
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>6672.4420000000055</v>
       </c>
     </row>
@@ -9688,7 +9655,7 @@
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>5270.327000000002</v>
       </c>
     </row>
@@ -9699,7 +9666,7 @@
       <c r="B39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>1514.5620000000006</v>
       </c>
     </row>
@@ -9710,7 +9677,7 @@
       <c r="B40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>167.74100000000001</v>
       </c>
     </row>
@@ -9719,9 +9686,9 @@
         <v>45866</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="16">
+        <v>152</v>
+      </c>
+      <c r="C41" s="15">
         <v>39.795000000000002</v>
       </c>
     </row>
@@ -9730,9 +9697,9 @@
         <v>45866</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="16">
+        <v>153</v>
+      </c>
+      <c r="C42" s="15">
         <v>14.22</v>
       </c>
     </row>
@@ -9743,7 +9710,7 @@
       <c r="B43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="15">
         <v>74735.879000000044</v>
       </c>
     </row>
@@ -9754,7 +9721,7 @@
       <c r="B44" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="15">
         <v>28853.434000000001</v>
       </c>
     </row>
@@ -9763,9 +9730,9 @@
         <v>45837</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="16">
+        <v>149</v>
+      </c>
+      <c r="C45" s="15">
         <v>21278.684999999998</v>
       </c>
     </row>
@@ -9776,7 +9743,7 @@
       <c r="B46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="15">
         <v>12208.985000000002</v>
       </c>
     </row>
@@ -9787,7 +9754,7 @@
       <c r="B47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="15">
         <v>1131.3730000000003</v>
       </c>
     </row>
@@ -9798,7 +9765,7 @@
       <c r="B48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="15">
         <v>70434.532000000079</v>
       </c>
     </row>
@@ -9807,9 +9774,9 @@
         <v>45837</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="16">
+        <v>150</v>
+      </c>
+      <c r="C49" s="15">
         <v>127205.59499999997</v>
       </c>
     </row>
@@ -9820,7 +9787,7 @@
       <c r="B50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="15">
         <v>4115.4610000000002</v>
       </c>
     </row>
@@ -9831,7 +9798,7 @@
       <c r="B51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <v>6092.369999999999</v>
       </c>
     </row>
@@ -9840,9 +9807,9 @@
         <v>45837</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="16">
+        <v>151</v>
+      </c>
+      <c r="C52" s="15">
         <v>57548.287000000048</v>
       </c>
     </row>
@@ -9853,7 +9820,7 @@
       <c r="B53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="15">
         <v>54305.242999999937</v>
       </c>
     </row>
@@ -9864,7 +9831,7 @@
       <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="15">
         <v>2399.8160000000003</v>
       </c>
     </row>
@@ -9873,9 +9840,9 @@
         <v>45837</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="16">
+        <v>155</v>
+      </c>
+      <c r="C55" s="15">
         <v>82.6</v>
       </c>
     </row>
@@ -9886,12 +9853,12 @@
       <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="15">
         <v>207.59899999999999</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="23">
+      <c r="A57" s="22">
         <v>45780</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -9902,7 +9869,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="23">
+      <c r="A58" s="22">
         <v>45781</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -9913,18 +9880,18 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="23">
+      <c r="A59" s="22">
         <v>45782</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C59" s="14">
         <v>19158.298000000024</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="23">
+      <c r="A60" s="22">
         <v>45783</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -9935,7 +9902,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>45784</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -9946,7 +9913,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="23">
+      <c r="A62" s="22">
         <v>45785</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -9957,29 +9924,29 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="23">
+      <c r="A63" s="22">
         <v>45786</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C63" s="14">
         <v>80509.540000000037</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="23">
+      <c r="A64" s="22">
         <v>45787</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C64" s="14">
         <v>122973.11900000028</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="23">
+      <c r="A65" s="22">
         <v>45788</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -9990,7 +9957,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="23">
+      <c r="A66" s="22">
         <v>45789</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -10001,7 +9968,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="23">
+      <c r="A67" s="22">
         <v>45790</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -10012,7 +9979,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="23">
+      <c r="A68" s="22">
         <v>45791</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -10023,7 +9990,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="23">
+      <c r="A69" s="22">
         <v>45792</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -10034,7 +10001,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="23">
+      <c r="A70" s="22">
         <v>45763</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -10045,7 +10012,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="23">
+      <c r="A71" s="22">
         <v>45763</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -10056,18 +10023,18 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="23">
+      <c r="A72" s="22">
         <v>45763</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C72" s="14">
         <v>17376.701000000012</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="23">
+      <c r="A73" s="22">
         <v>45763</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -10078,7 +10045,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="23">
+      <c r="A74" s="22">
         <v>45763</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -10089,29 +10056,29 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="23">
+      <c r="A75" s="22">
         <v>45763</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C75" s="14">
         <v>62652.252000000015</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="23">
+      <c r="A76" s="22">
         <v>45763</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C76" s="14">
         <v>118933.97500000003</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="23">
+      <c r="A77" s="22">
         <v>45763</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -10122,7 +10089,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="23">
+      <c r="A78" s="22">
         <v>45763</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -10133,7 +10100,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="23">
+      <c r="A79" s="22">
         <v>45763</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -10144,7 +10111,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="23">
+      <c r="A80" s="22">
         <v>45763</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -10155,7 +10122,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="23">
+      <c r="A81" s="22">
         <v>45763</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -10166,7 +10133,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="23">
+      <c r="A82" s="22">
         <v>45763</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -10177,7 +10144,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="23">
+      <c r="A83" s="22">
         <v>45733</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -10188,7 +10155,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="23">
+      <c r="A84" s="22">
         <v>45733</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -10199,18 +10166,18 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="23">
+      <c r="A85" s="22">
         <v>45733</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C85" s="14">
         <v>20508.054000000018</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="23">
+      <c r="A86" s="22">
         <v>45733</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -10221,18 +10188,18 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="23">
+      <c r="A87" s="22">
         <v>45733</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C87" s="14">
         <v>47808.189000000028</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="23">
+      <c r="A88" s="22">
         <v>45733</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -10243,7 +10210,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="23">
+      <c r="A89" s="22">
         <v>45733</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -10254,18 +10221,18 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="23">
+      <c r="A90" s="22">
         <v>45733</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C90" s="14">
         <v>139402.62799999976</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="23">
+      <c r="A91" s="22">
         <v>45733</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -10276,7 +10243,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="23">
+      <c r="A92" s="22">
         <v>45733</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -10287,7 +10254,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="23">
+      <c r="A93" s="22">
         <v>45733</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -10298,7 +10265,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="23">
+      <c r="A94" s="22">
         <v>45733</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -10309,7 +10276,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="23">
+      <c r="A95" s="22">
         <v>45733</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -10320,7 +10287,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="23">
+      <c r="A96" s="22">
         <v>45706</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -10331,7 +10298,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="23">
+      <c r="A97" s="22">
         <v>45706</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -10342,18 +10309,18 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="23">
+      <c r="A98" s="22">
         <v>45706</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C98" s="14">
         <v>13398.610000000013</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="23">
+      <c r="A99" s="22">
         <v>45706</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -10364,18 +10331,18 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="23">
+      <c r="A100" s="22">
         <v>45706</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C100" s="14">
         <v>116665.62099999991</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="23">
+      <c r="A101" s="22">
         <v>45706</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -10386,7 +10353,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="23">
+      <c r="A102" s="22">
         <v>45706</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -10397,18 +10364,18 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="23">
+      <c r="A103" s="22">
         <v>45706</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C103" s="14">
         <v>51016.440000000075</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="23">
+      <c r="A104" s="22">
         <v>45706</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -10419,7 +10386,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="23">
+      <c r="A105" s="22">
         <v>45706</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -10430,7 +10397,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="23">
+      <c r="A106" s="22">
         <v>45706</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -10441,7 +10408,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="23">
+      <c r="A107" s="22">
         <v>45706</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -10452,7 +10419,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="23">
+      <c r="A108" s="22">
         <v>45706</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -10463,7 +10430,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="23">
+      <c r="A109" s="22">
         <v>45676</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -10474,7 +10441,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" s="23">
+      <c r="A110" s="22">
         <v>45677</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -10485,18 +10452,18 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="23">
+      <c r="A111" s="22">
         <v>45678</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C111" s="14">
         <v>19990.507000000016</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112" s="23">
+      <c r="A112" s="22">
         <v>45679</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -10507,18 +10474,18 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A113" s="23">
+      <c r="A113" s="22">
         <v>45680</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C113" s="14">
         <v>122879.18799999973</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" s="23">
+      <c r="A114" s="22">
         <v>45681</v>
       </c>
       <c r="B114" s="7" t="s">
@@ -10529,7 +10496,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A115" s="23">
+      <c r="A115" s="22">
         <v>45682</v>
       </c>
       <c r="B115" s="7" t="s">
@@ -10540,18 +10507,18 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A116" s="23">
+      <c r="A116" s="22">
         <v>45683</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C116" s="14">
         <v>31043.732999999989</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" s="23">
+      <c r="A117" s="22">
         <v>45684</v>
       </c>
       <c r="B117" s="7" t="s">
@@ -10562,7 +10529,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A118" s="23">
+      <c r="A118" s="22">
         <v>45685</v>
       </c>
       <c r="B118" s="7" t="s">
@@ -10573,7 +10540,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="23">
+      <c r="A119" s="22">
         <v>45686</v>
       </c>
       <c r="B119" s="7" t="s">
@@ -10584,18 +10551,18 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A120" s="23">
+      <c r="A120" s="22">
         <v>45687</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C120" s="14">
         <v>17.64</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A121" s="23">
+      <c r="A121" s="22">
         <v>45688</v>
       </c>
       <c r="B121" s="7" t="s">
@@ -10606,7 +10573,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A122" s="23">
+      <c r="A122" s="22">
         <v>45689</v>
       </c>
       <c r="B122" s="7" t="s">
@@ -10628,7 +10595,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11023,258 +10990,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>45901</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="15">
-        <v>792.95999999999981</v>
-      </c>
-      <c r="E2" s="7">
-        <v>32</v>
-      </c>
-      <c r="F2" s="14">
-        <f>D2/30</f>
-        <v>26.431999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
-        <v>45902</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="15">
-        <v>688.84000000000015</v>
-      </c>
-      <c r="E3" s="7">
-        <v>37</v>
-      </c>
-      <c r="F3" s="14">
-        <f t="shared" ref="F3:F11" si="0">D3/30</f>
-        <v>22.961333333333339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>45903</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="15">
-        <v>656.00000000000011</v>
-      </c>
-      <c r="E4" s="7">
-        <v>30</v>
-      </c>
-      <c r="F4" s="14">
-        <f t="shared" si="0"/>
-        <v>21.866666666666671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
-        <v>45904</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="15">
-        <v>605.67999999999995</v>
-      </c>
-      <c r="E5" s="7">
-        <v>24</v>
-      </c>
-      <c r="F5" s="14">
-        <f t="shared" si="0"/>
-        <v>20.18933333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>45905</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="15">
-        <v>547.22</v>
-      </c>
-      <c r="E6" s="7">
-        <v>29</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>18.240666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>45906</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="15">
-        <v>436.32</v>
-      </c>
-      <c r="E7" s="7">
-        <v>17</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>14.544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
-        <v>45907</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="15">
-        <v>319.36</v>
-      </c>
-      <c r="E8" s="7">
-        <v>11</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>10.645333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <v>45908</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="15">
-        <v>177.94000000000003</v>
-      </c>
-      <c r="E9" s="7">
-        <v>10</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="0"/>
-        <v>5.9313333333333338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>45909</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="15">
-        <v>139.08000000000001</v>
-      </c>
-      <c r="E10" s="7">
-        <v>10</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" si="0"/>
-        <v>4.6360000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>45910</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="15">
-        <v>73.34</v>
-      </c>
-      <c r="E11" s="7">
-        <v>7</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="0"/>
-        <v>2.444666666666667</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="166">
   <si>
     <t>充电时间</t>
   </si>
@@ -521,6 +521,17 @@
   </si>
   <si>
     <t>四方坪西区</t>
+  </si>
+  <si>
+    <t>2025-10</t>
+  </si>
+  <si>
+    <t>高岭充电站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东区充电站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -977,8 +988,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G440"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K122" sqref="K122"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3636,22 +3647,50 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" s="1">
+        <v>292085.53999999998</v>
+      </c>
+      <c r="D111" s="1">
+        <v>140183.54</v>
+      </c>
+      <c r="E111" s="1">
+        <v>100836.96</v>
+      </c>
+      <c r="F111" s="1">
+        <v>241020.5</v>
+      </c>
+      <c r="G111" s="1">
+        <v>12267</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" s="1">
+        <v>137042.18</v>
+      </c>
+      <c r="D112" s="1">
+        <v>75721.490000000005</v>
+      </c>
+      <c r="E112" s="1">
+        <v>35525.25</v>
+      </c>
+      <c r="F112" s="1">
+        <v>111246.74</v>
+      </c>
+      <c r="G112" s="1">
+        <v>4940</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
@@ -6614,10 +6653,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7369,6 +7408,86 @@
         <v>5900</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>45946</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="15">
+        <v>137042.18099999876</v>
+      </c>
+      <c r="D38" s="15">
+        <v>35525.250000000073</v>
+      </c>
+      <c r="E38" s="15">
+        <v>111246.73999999982</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>45947</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="15">
+        <v>137521.64100000018</v>
+      </c>
+      <c r="D39" s="15">
+        <v>47780.27999999997</v>
+      </c>
+      <c r="E39" s="15">
+        <v>112639.51000000015</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>45948</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="15">
+        <v>44139.899999999987</v>
+      </c>
+      <c r="D40" s="15">
+        <v>14894.859999999984</v>
+      </c>
+      <c r="E40" s="15">
+        <v>36355.979999999967</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>45949</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="15">
+        <v>110423.99999999983</v>
+      </c>
+      <c r="D41" s="15">
+        <v>38161.819999999869</v>
+      </c>
+      <c r="E41" s="15">
+        <v>92025.010000000169</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4627</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7378,10 +7497,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9140,7 +9259,7 @@
         <v>45678</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>124</v>
@@ -9203,7 +9322,7 @@
         <v>45681</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>128</v>
@@ -9215,8 +9334,218 @@
         <v>162</v>
       </c>
       <c r="F87" s="17">
-        <f t="shared" si="8"/>
+        <f>D87/31</f>
         <v>172.91316129032262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="8">
+        <v>45932</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="1">
+        <v>6464.2200000000012</v>
+      </c>
+      <c r="E88" s="1">
+        <v>237</v>
+      </c>
+      <c r="F88" s="18">
+        <f>D88/31</f>
+        <v>208.52322580645165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="8">
+        <v>45933</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="1">
+        <v>6029.7140000000045</v>
+      </c>
+      <c r="E89" s="1">
+        <v>223</v>
+      </c>
+      <c r="F89" s="18">
+        <f t="shared" ref="F89:F97" si="9">D89/31</f>
+        <v>194.50690322580661</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="8">
+        <v>45934</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6017.4929999999995</v>
+      </c>
+      <c r="E90" s="1">
+        <v>273</v>
+      </c>
+      <c r="F90" s="18">
+        <f t="shared" si="9"/>
+        <v>194.11267741935481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="8">
+        <v>45935</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="1">
+        <v>5987.6540000000005</v>
+      </c>
+      <c r="E91" s="1">
+        <v>233</v>
+      </c>
+      <c r="F91" s="18">
+        <f t="shared" si="9"/>
+        <v>193.15012903225809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="8">
+        <v>45936</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92" s="1">
+        <v>5841.3279999999995</v>
+      </c>
+      <c r="E92" s="1">
+        <v>232</v>
+      </c>
+      <c r="F92" s="18">
+        <f t="shared" si="9"/>
+        <v>188.42993548387096</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="8">
+        <v>45937</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="1">
+        <v>5537.5310000000018</v>
+      </c>
+      <c r="E93" s="1">
+        <v>215</v>
+      </c>
+      <c r="F93" s="18">
+        <f t="shared" si="9"/>
+        <v>178.63003225806457</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="8">
+        <v>45938</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="1">
+        <v>5528.3860000000013</v>
+      </c>
+      <c r="E94" s="1">
+        <v>234</v>
+      </c>
+      <c r="F94" s="18">
+        <f t="shared" si="9"/>
+        <v>178.33503225806456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="8">
+        <v>45939</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="1">
+        <v>5506.4829999999984</v>
+      </c>
+      <c r="E95" s="1">
+        <v>172</v>
+      </c>
+      <c r="F95" s="18">
+        <f t="shared" si="9"/>
+        <v>177.6284838709677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="8">
+        <v>45940</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="1">
+        <v>5282.5069999999996</v>
+      </c>
+      <c r="E96" s="1">
+        <v>160</v>
+      </c>
+      <c r="F96" s="18">
+        <f t="shared" si="9"/>
+        <v>170.40345161290321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="8">
+        <v>45941</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="1">
+        <v>5247.6970000000028</v>
+      </c>
+      <c r="E97" s="1">
+        <v>186</v>
+      </c>
+      <c r="F97" s="18">
+        <f t="shared" si="9"/>
+        <v>169.28054838709687</v>
       </c>
     </row>
   </sheetData>
@@ -9228,10 +9557,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10563,7 +10892,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="22">
-        <v>45688</v>
+        <v>45660</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>107</v>
@@ -10574,13 +10903,156 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="22">
-        <v>45689</v>
+        <v>45661</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C122" s="14">
         <v>207.97399999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" s="9">
+        <v>45935</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C123" s="15">
+        <v>54456.730999999963</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="9">
+        <v>45936</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C124" s="15">
+        <v>24655.316999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="9">
+        <v>45937</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" s="15">
+        <v>29006.10300000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" s="9">
+        <v>45938</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" s="15">
+        <v>9313.190000000006</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="9">
+        <v>45939</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C127" s="15">
+        <v>60563.448000000019</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" s="9">
+        <v>45940</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C128" s="15">
+        <v>111316.73399999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="9">
+        <v>45941</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C129" s="15">
+        <v>68208.707999999955</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" s="9">
+        <v>45942</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" s="15">
+        <v>1242.0840000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" s="9">
+        <v>45943</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" s="15">
+        <v>57400.995999999963</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" s="9">
+        <v>45944</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" s="15">
+        <v>4929.6319999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" s="9">
+        <v>45945</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C133" s="15">
+        <v>135.39400000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" s="9">
+        <v>45946</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C134" s="15">
+        <v>6551.229000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="9">
+        <v>45947</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" s="15">
+        <v>1348.1559999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10592,10 +11064,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10986,6 +11458,46 @@
         <v>3698</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>45949</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="1">
+        <v>301582.70200000016</v>
+      </c>
+      <c r="D20" s="1">
+        <v>97902.569999999643</v>
+      </c>
+      <c r="E20" s="1">
+        <v>247239.2900000003</v>
+      </c>
+      <c r="F20" s="1">
+        <v>12069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>45950</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="1">
+        <v>127545.01999999973</v>
+      </c>
+      <c r="D21" s="1">
+        <v>38459.639999999927</v>
+      </c>
+      <c r="E21" s="1">
+        <v>105027.9499999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,11 +538,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="00.00%"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0.0000000000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -621,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,6 +681,12 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,10 +993,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G440"/>
+  <dimension ref="A1:N440"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1001,15 +1008,14 @@
     <col min="5" max="5" width="16.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="24" customWidth="1"/>
+    <col min="9" max="9" width="25" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="13" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="11" max="14" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1133,13 @@
       <c r="G5" s="1">
         <v>3418</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1163,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1175,8 +1186,10 @@
       <c r="G7" s="1">
         <v>4606</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1213,7 @@
         <v>5730</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1237,7 @@
         <v>5459</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1261,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1285,7 @@
         <v>4993</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1309,7 @@
         <v>7362</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1320,7 +1333,7 @@
         <v>8046</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1344,7 +1357,7 @@
         <v>7605</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1368,7 +1381,7 @@
         <v>7980</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1495,18 +1508,21 @@
       <c r="B21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="1">
-        <v>324029.81999999989</v>
+      <c r="C21" s="18">
+        <f>324029.82+57.22</f>
+        <v>324087.03999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>197844.56</v>
+        <f>197844.56+40.46</f>
+        <v>197885.02</v>
       </c>
       <c r="E21" s="1">
-        <v>135800.85</v>
+        <f>135800.85+13.13</f>
+        <v>135813.98000000001</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>333645.41000000003</v>
+        <f>D21+E21</f>
+        <v>333699</v>
       </c>
       <c r="G21" s="1">
         <v>12238</v>
@@ -1533,7 +1549,8 @@
         <v>77398.350000000006</v>
       </c>
       <c r="G22" s="1">
-        <v>2757</v>
+        <f>2757+3</f>
+        <v>2760</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1688,7 +1705,7 @@
         <v>92</v>
       </c>
       <c r="C29" s="1">
-        <v>327347.20000000013</v>
+        <v>327347.20000000001</v>
       </c>
       <c r="D29" s="1">
         <v>194019.39</v>
@@ -3056,20 +3073,20 @@
         <v>92</v>
       </c>
       <c r="C86" s="1">
-        <v>347115.73799999978</v>
+        <v>347102.27</v>
       </c>
       <c r="D86" s="1">
-        <v>186700.05</v>
+        <v>186695.34</v>
       </c>
       <c r="E86" s="1">
-        <v>112312.57</v>
+        <v>112308.05</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="1"/>
-        <v>299012.62</v>
+        <v>299003.39</v>
       </c>
       <c r="G86" s="1">
-        <v>14109</v>
+        <v>14108</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -9208,7 +9225,7 @@
         <v>193</v>
       </c>
       <c r="F81" s="17">
-        <f t="shared" ref="F81:F87" si="8">D81/31</f>
+        <f t="shared" ref="F81:F86" si="8">D81/31</f>
         <v>190.5516774193548</v>
       </c>
     </row>
@@ -11066,7 +11083,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -543,7 +543,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="#,##0.0000000000_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0000000000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -682,7 +682,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -995,8 +995,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1509,20 +1509,20 @@
         <v>92</v>
       </c>
       <c r="C21" s="18">
-        <f>324029.82+57.22</f>
-        <v>324087.03999999998</v>
+        <f>324029.82</f>
+        <v>324029.82</v>
       </c>
       <c r="D21" s="1">
-        <f>197844.56+40.46</f>
-        <v>197885.02</v>
+        <f>197844.56</f>
+        <v>197844.56</v>
       </c>
       <c r="E21" s="1">
-        <f>135800.85+13.13</f>
-        <v>135813.98000000001</v>
-      </c>
-      <c r="F21" s="1">
+        <f>135800.85</f>
+        <v>135800.85</v>
+      </c>
+      <c r="F21" s="18">
         <f>D21+E21</f>
-        <v>333699</v>
+        <v>333645.41000000003</v>
       </c>
       <c r="G21" s="1">
         <v>12238</v>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:N440"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1010,7 +1010,7 @@
     <col min="7" max="7" width="15.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="22.75" style="24" customWidth="1"/>
     <col min="9" max="9" width="25" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="2" customWidth="1"/>
     <col min="11" max="14" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
@@ -1793,7 +1793,7 @@
         <v>21112</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1801,23 +1801,27 @@
         <v>92</v>
       </c>
       <c r="C33" s="1">
-        <v>538319.98599999794</v>
+        <f>538319.98+57.2</f>
+        <v>538377.17999999993</v>
       </c>
       <c r="D33" s="1">
-        <v>325643.48</v>
+        <f>325643.48+40.48</f>
+        <v>325683.95999999996</v>
       </c>
       <c r="E33" s="1">
-        <v>188861.26</v>
+        <f>188861.26+13.16</f>
+        <v>188874.42</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>514504.74</v>
+        <f>D33+E33</f>
+        <v>514558.38</v>
       </c>
       <c r="G33" s="1">
         <v>20319</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -1840,8 +1844,9 @@
       <c r="G34" s="1">
         <v>13929</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>13575</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -1888,8 +1893,10 @@
       <c r="G36" s="1">
         <v>11004</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -1913,7 +1920,7 @@
         <v>12912</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
@@ -1937,7 +1944,7 @@
         <v>19835</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
@@ -1961,7 +1968,7 @@
         <v>26254</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
@@ -1985,7 +1992,7 @@
         <v>15986</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
@@ -2009,7 +2016,7 @@
         <v>15793</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
@@ -2033,7 +2040,7 @@
         <v>13532</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
@@ -2057,7 +2064,7 @@
         <v>13455</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -2081,7 +2088,7 @@
         <v>16372</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
@@ -2105,7 +2112,7 @@
         <v>18083</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -2129,7 +2136,7 @@
         <v>14295</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -2153,7 +2160,7 @@
         <v>16318</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="170">
   <si>
     <t>充电时间</t>
   </si>
@@ -531,6 +531,20 @@
   </si>
   <si>
     <t>东区充电站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-11</t>
+  </si>
+  <si>
+    <t>212号直流</t>
+  </si>
+  <si>
+    <t>高岭充电站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南区充电站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,8 +1009,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3717,22 +3731,50 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="1">
+        <v>270495.69</v>
+      </c>
+      <c r="D113" s="1">
+        <v>149822.98000000001</v>
+      </c>
+      <c r="E113" s="1">
+        <v>89747.37</v>
+      </c>
+      <c r="F113" s="1">
+        <v>239570.35</v>
+      </c>
+      <c r="G113" s="1">
+        <v>11530</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" s="1">
+        <v>135965.66</v>
+      </c>
+      <c r="D114" s="1">
+        <v>83456.25</v>
+      </c>
+      <c r="E114" s="1">
+        <v>35249.68</v>
+      </c>
+      <c r="F114" s="1">
+        <v>118705.93</v>
+      </c>
+      <c r="G114" s="1">
+        <v>4970</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
@@ -6677,10 +6719,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7512,6 +7554,86 @@
         <v>4627</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>45981</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="14">
+        <v>135965.66</v>
+      </c>
+      <c r="D42" s="14">
+        <v>35249.68</v>
+      </c>
+      <c r="E42" s="14">
+        <v>118705.93</v>
+      </c>
+      <c r="F42" s="7">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>45982</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="14">
+        <v>128261.47</v>
+      </c>
+      <c r="D43" s="14">
+        <v>43216.3</v>
+      </c>
+      <c r="E43" s="14">
+        <v>112376.85</v>
+      </c>
+      <c r="F43" s="7">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>45983</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="14">
+        <v>42835.4</v>
+      </c>
+      <c r="D44" s="14">
+        <v>13769.94</v>
+      </c>
+      <c r="E44" s="14">
+        <v>38148.19</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>45984</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="14">
+        <v>99398.82</v>
+      </c>
+      <c r="D45" s="14">
+        <v>32761.13</v>
+      </c>
+      <c r="E45" s="14">
+        <v>89045.31</v>
+      </c>
+      <c r="F45" s="7">
+        <v>4262</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7521,16 +7643,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="35.375" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" style="19" customWidth="1"/>
@@ -9400,7 +9522,7 @@
         <v>223</v>
       </c>
       <c r="F89" s="18">
-        <f t="shared" ref="F89:F97" si="9">D89/31</f>
+        <f t="shared" ref="F89:F98" si="9">D89/31</f>
         <v>194.50690322580661</v>
       </c>
     </row>
@@ -9556,7 +9678,7 @@
         <v>45941</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>125</v>
@@ -9570,6 +9692,426 @@
       <c r="F97" s="18">
         <f t="shared" si="9"/>
         <v>169.28054838709687</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="8">
+        <v>45973</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" s="7">
+        <v>5896.2929999999997</v>
+      </c>
+      <c r="E98" s="7">
+        <v>229</v>
+      </c>
+      <c r="F98" s="18">
+        <f>D98/30</f>
+        <v>196.54309999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="8">
+        <v>45974</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" s="7">
+        <v>5730.5070000000014</v>
+      </c>
+      <c r="E99" s="7">
+        <v>243</v>
+      </c>
+      <c r="F99" s="18">
+        <f>D99/30</f>
+        <v>191.01690000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="8">
+        <v>45975</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" s="7">
+        <v>5716.6359999999986</v>
+      </c>
+      <c r="E100" s="7">
+        <v>261</v>
+      </c>
+      <c r="F100" s="18">
+        <f t="shared" ref="F99:F117" si="10">D100/30</f>
+        <v>190.5545333333333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="8">
+        <v>45976</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" s="7">
+        <v>5457.9930000000013</v>
+      </c>
+      <c r="E101" s="7">
+        <v>213</v>
+      </c>
+      <c r="F101" s="18">
+        <f t="shared" si="10"/>
+        <v>181.93310000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="8">
+        <v>45977</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D102" s="7">
+        <v>5428.4710000000005</v>
+      </c>
+      <c r="E102" s="7">
+        <v>184</v>
+      </c>
+      <c r="F102" s="18">
+        <f t="shared" si="10"/>
+        <v>180.94903333333335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="8">
+        <v>45978</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="7">
+        <v>5357.2280000000019</v>
+      </c>
+      <c r="E103" s="7">
+        <v>213</v>
+      </c>
+      <c r="F103" s="18">
+        <f t="shared" si="10"/>
+        <v>178.57426666666672</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="8">
+        <v>45979</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D104" s="7">
+        <v>5346.1090000000013</v>
+      </c>
+      <c r="E104" s="7">
+        <v>208</v>
+      </c>
+      <c r="F104" s="18">
+        <f t="shared" si="10"/>
+        <v>178.20363333333339</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="8">
+        <v>45980</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="7">
+        <v>5072.5409999999993</v>
+      </c>
+      <c r="E105" s="7">
+        <v>186</v>
+      </c>
+      <c r="F105" s="18">
+        <f t="shared" si="10"/>
+        <v>169.08469999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="8">
+        <v>45981</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106" s="7">
+        <v>5040.6410000000014</v>
+      </c>
+      <c r="E106" s="7">
+        <v>196</v>
+      </c>
+      <c r="F106" s="18">
+        <f t="shared" si="10"/>
+        <v>168.02136666666672</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="7">
+        <v>4977.1459999999961</v>
+      </c>
+      <c r="E107" s="7">
+        <v>199</v>
+      </c>
+      <c r="F107" s="18">
+        <f t="shared" si="10"/>
+        <v>165.90486666666655</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="8">
+        <v>45983</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="7">
+        <v>4926.3350000000009</v>
+      </c>
+      <c r="E108" s="7">
+        <v>208</v>
+      </c>
+      <c r="F108" s="18">
+        <f t="shared" si="10"/>
+        <v>164.21116666666668</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="8">
+        <v>45984</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="7">
+        <v>4865.5689999999995</v>
+      </c>
+      <c r="E109" s="7">
+        <v>175</v>
+      </c>
+      <c r="F109" s="18">
+        <f t="shared" si="10"/>
+        <v>162.18563333333333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="8">
+        <v>45985</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110" s="7">
+        <v>4853.6980000000021</v>
+      </c>
+      <c r="E110" s="7">
+        <v>190</v>
+      </c>
+      <c r="F110" s="18">
+        <f t="shared" si="10"/>
+        <v>161.78993333333341</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="8">
+        <v>45986</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" s="7">
+        <v>4829.3449999999993</v>
+      </c>
+      <c r="E111" s="7">
+        <v>154</v>
+      </c>
+      <c r="F111" s="18">
+        <f t="shared" si="10"/>
+        <v>160.97816666666665</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="8">
+        <v>45987</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="7">
+        <v>4741.9499999999962</v>
+      </c>
+      <c r="E112" s="7">
+        <v>150</v>
+      </c>
+      <c r="F112" s="18">
+        <f t="shared" si="10"/>
+        <v>158.06499999999988</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="8">
+        <v>45988</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D113" s="7">
+        <v>4618.4680000000008</v>
+      </c>
+      <c r="E113" s="7">
+        <v>137</v>
+      </c>
+      <c r="F113" s="18">
+        <f t="shared" si="10"/>
+        <v>153.94893333333337</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="8">
+        <v>45989</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" s="7">
+        <v>4542.9400000000023</v>
+      </c>
+      <c r="E114" s="7">
+        <v>189</v>
+      </c>
+      <c r="F114" s="18">
+        <f t="shared" si="10"/>
+        <v>151.43133333333341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="8">
+        <v>45990</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="7">
+        <v>4398.166000000002</v>
+      </c>
+      <c r="E115" s="7">
+        <v>170</v>
+      </c>
+      <c r="F115" s="18">
+        <f t="shared" si="10"/>
+        <v>146.6055333333334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="8">
+        <v>45991</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D116" s="7">
+        <v>4293.5199999999995</v>
+      </c>
+      <c r="E116" s="7">
+        <v>167</v>
+      </c>
+      <c r="F116" s="18">
+        <f t="shared" si="10"/>
+        <v>143.11733333333331</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D117" s="7">
+        <v>4191.5629999999992</v>
+      </c>
+      <c r="E117" s="7">
+        <v>122</v>
+      </c>
+      <c r="F117" s="18">
+        <f t="shared" si="10"/>
+        <v>139.71876666666665</v>
       </c>
     </row>
   </sheetData>
@@ -9581,10 +10123,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11079,6 +11621,160 @@
         <v>1348.1559999999999</v>
       </c>
     </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" s="9">
+        <v>45979</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="14">
+        <v>46672.725000000013</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" s="9">
+        <v>45980</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" s="14">
+        <v>26550.827000000016</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" s="9">
+        <v>45981</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" s="14">
+        <v>29960.102999999977</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" s="9">
+        <v>45982</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C139" s="14">
+        <v>8209.368000000004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="9">
+        <v>45983</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C140" s="14">
+        <v>103808.00500000028</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="9">
+        <v>45984</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C141" s="14">
+        <v>64079.183999999979</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="9">
+        <v>45985</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142" s="14">
+        <v>54001.30999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="9">
+        <v>45986</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C143" s="14">
+        <v>61041.626999999957</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" s="9">
+        <v>45987</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C144" s="14">
+        <v>3520.4360000000011</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" s="9">
+        <v>45988</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="14">
+        <v>5509.1930000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="9">
+        <v>45989</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C146" s="14">
+        <v>621.23699999999985</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="9">
+        <v>45990</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C147" s="14">
+        <v>2326.9060000000009</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="9">
+        <v>45991</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C148" s="14">
+        <v>146.976</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" s="9">
+        <v>45992</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C149" s="14">
+        <v>13.464</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11088,10 +11784,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11522,6 +12218,46 @@
         <v>5138</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>45982</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="7">
+        <v>287248.82700000174</v>
+      </c>
+      <c r="D22" s="7">
+        <v>90177.16999999978</v>
+      </c>
+      <c r="E22" s="7">
+        <v>253681.00999999809</v>
+      </c>
+      <c r="F22" s="7">
+        <v>11557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>45983</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="7">
+        <v>119212.53399999966</v>
+      </c>
+      <c r="D23" s="7">
+        <v>34819.880000000092</v>
+      </c>
+      <c r="E23" s="7">
+        <v>104595.2699999998</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4943</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="171">
   <si>
     <t>充电时间</t>
   </si>
@@ -546,6 +546,9 @@
   <si>
     <t>南区充电站</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-12</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1012,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N440"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
@@ -3777,22 +3780,50 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C115" s="1">
+        <v>276668.06</v>
+      </c>
+      <c r="D115" s="1">
+        <v>146857.99</v>
+      </c>
+      <c r="E115" s="1">
+        <v>90586.93</v>
+      </c>
+      <c r="F115" s="1">
+        <v>237444.92</v>
+      </c>
+      <c r="G115" s="1">
+        <v>11964</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116" s="1">
+        <v>156495.57</v>
+      </c>
+      <c r="D116" s="1">
+        <v>91371.74</v>
+      </c>
+      <c r="E116" s="1">
+        <v>41548.01</v>
+      </c>
+      <c r="F116" s="1">
+        <v>132919.75</v>
+      </c>
+      <c r="G116" s="1">
+        <v>5606</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
@@ -6719,10 +6750,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7634,6 +7665,86 @@
         <v>4262</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>46015</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="15">
+        <v>156495.56499999922</v>
+      </c>
+      <c r="D46" s="15">
+        <v>41548.01000000006</v>
+      </c>
+      <c r="E46" s="15">
+        <v>132919.74999999997</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>46016</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="15">
+        <v>124703.38900000002</v>
+      </c>
+      <c r="D47" s="15">
+        <v>41768.059999999954</v>
+      </c>
+      <c r="E47" s="15">
+        <v>105883.79999999983</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>46017</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="15">
+        <v>44799.039999999928</v>
+      </c>
+      <c r="D48" s="15">
+        <v>14560.300000000007</v>
+      </c>
+      <c r="E48" s="15">
+        <v>38799.94</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>46018</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="15">
+        <v>100038.0000000001</v>
+      </c>
+      <c r="D49" s="15">
+        <v>32458.149999999991</v>
+      </c>
+      <c r="E49" s="15">
+        <v>86861.199999999852</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4267</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7645,7 +7756,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
@@ -9522,7 +9633,7 @@
         <v>223</v>
       </c>
       <c r="F89" s="18">
-        <f t="shared" ref="F89:F98" si="9">D89/31</f>
+        <f t="shared" ref="F89:F97" si="9">D89/31</f>
         <v>194.50690322580661</v>
       </c>
     </row>
@@ -9753,7 +9864,7 @@
         <v>261</v>
       </c>
       <c r="F100" s="18">
-        <f t="shared" ref="F99:F117" si="10">D100/30</f>
+        <f t="shared" ref="F100:F117" si="10">D100/30</f>
         <v>190.5545333333333</v>
       </c>
     </row>
@@ -10125,8 +10236,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="I151" sqref="I151"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="P147" sqref="P147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11786,7 +11897,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="171">
   <si>
     <t>充电时间</t>
   </si>
@@ -639,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,6 +704,9 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,8 +1015,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N440"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3826,22 +3829,50 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="A117" s="9">
+        <v>46023</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C117" s="1">
+        <v>419557.75</v>
+      </c>
+      <c r="D117" s="1">
+        <v>196768.98</v>
+      </c>
+      <c r="E117" s="1">
+        <v>120867.02</v>
+      </c>
+      <c r="F117" s="1">
+        <v>317636</v>
+      </c>
+      <c r="G117" s="1">
+        <v>17783</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="A118" s="9">
+        <v>46023</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" s="1">
+        <v>160938.26999999999</v>
+      </c>
+      <c r="D118" s="1">
+        <v>91508.68</v>
+      </c>
+      <c r="E118" s="1">
+        <v>43542.5</v>
+      </c>
+      <c r="F118" s="1">
+        <v>135051.18</v>
+      </c>
+      <c r="G118" s="1">
+        <v>5690</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
@@ -6750,10 +6781,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7745,6 +7776,86 @@
         <v>4267</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
+        <v>46042</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="15">
+        <v>160938.26999999999</v>
+      </c>
+      <c r="D50" s="15">
+        <v>43542.5</v>
+      </c>
+      <c r="E50" s="15">
+        <v>135051.18</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
+        <v>46043</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="25">
+        <v>176147.41699999999</v>
+      </c>
+      <c r="D51" s="25">
+        <v>40019.360000000001</v>
+      </c>
+      <c r="E51" s="25">
+        <v>122993.16</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="9">
+        <v>46044</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="25">
+        <v>79815.808999999994</v>
+      </c>
+      <c r="D52" s="25">
+        <v>17622.43</v>
+      </c>
+      <c r="E52" s="25">
+        <v>52758.62</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="9">
+        <v>46045</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="25">
+        <v>162845.88800000001</v>
+      </c>
+      <c r="D53" s="25">
+        <v>37150.18</v>
+      </c>
+      <c r="E53" s="25">
+        <v>115578.67</v>
+      </c>
+      <c r="F53" s="1">
+        <v>6811</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7756,7 +7867,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
@@ -10236,7 +10347,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+    <sheetView topLeftCell="A128" workbookViewId="0">
       <selection activeCell="P147" sqref="P147"/>
     </sheetView>
   </sheetViews>
@@ -11897,7 +12008,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="80">
   <si>
     <t>充电时间</t>
   </si>
@@ -30,267 +30,6 @@
   </si>
   <si>
     <t>充电服务费(元)</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>2022-01</t>
-  </si>
-  <si>
-    <t>2022-02</t>
-  </si>
-  <si>
-    <t>2022-03</t>
-  </si>
-  <si>
-    <t>2022-04</t>
-  </si>
-  <si>
-    <t>2022-05</t>
-  </si>
-  <si>
-    <t>2022-06</t>
-  </si>
-  <si>
-    <t>2022-07</t>
-  </si>
-  <si>
-    <t>2022-08</t>
-  </si>
-  <si>
-    <t>2022-09</t>
-  </si>
-  <si>
-    <t>2022-10</t>
-  </si>
-  <si>
-    <t>2022-11</t>
-  </si>
-  <si>
-    <t>2022-12</t>
-  </si>
-  <si>
-    <t>2023-01</t>
-  </si>
-  <si>
-    <t>2023-02</t>
-  </si>
-  <si>
-    <t>2023-03</t>
-  </si>
-  <si>
-    <t>2023-04</t>
-  </si>
-  <si>
-    <t>2023-05</t>
-  </si>
-  <si>
-    <t>2023-06</t>
-  </si>
-  <si>
-    <t>2023-07</t>
-  </si>
-  <si>
-    <t>2023-08</t>
-  </si>
-  <si>
-    <t>2023-09</t>
-  </si>
-  <si>
-    <t>2023-10</t>
-  </si>
-  <si>
-    <t>2023-11</t>
-  </si>
-  <si>
-    <t>2023-12</t>
-  </si>
-  <si>
-    <t>2024-01</t>
-  </si>
-  <si>
-    <t>2024-02</t>
-  </si>
-  <si>
-    <t>2024-03</t>
-  </si>
-  <si>
-    <t>2024-04</t>
-  </si>
-  <si>
-    <t>2024-05</t>
-  </si>
-  <si>
-    <t>2024-06</t>
-  </si>
-  <si>
-    <t>2024-07</t>
-  </si>
-  <si>
-    <t>2024-08</t>
-  </si>
-  <si>
-    <t>2024-09</t>
-  </si>
-  <si>
-    <t>2024-10</t>
-  </si>
-  <si>
-    <t>2024-11</t>
-  </si>
-  <si>
-    <t>2024-12</t>
-  </si>
-  <si>
-    <t>2025-01</t>
-  </si>
-  <si>
-    <t>2025-02</t>
-  </si>
-  <si>
-    <t>2025-03</t>
-  </si>
-  <si>
-    <t>2025-04</t>
-  </si>
-  <si>
-    <t>2025-05</t>
-  </si>
-  <si>
-    <t>2025-06</t>
-  </si>
-  <si>
-    <t>2025-07</t>
-  </si>
-  <si>
-    <t>2025-08</t>
   </si>
   <si>
     <t>站点</t>
@@ -311,9 +50,6 @@
   <si>
     <t>高岭站</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-09</t>
   </si>
   <si>
     <t>四方坪站</t>
@@ -523,18 +259,12 @@
     <t>四方坪西区</t>
   </si>
   <si>
-    <t>2025-10</t>
-  </si>
-  <si>
     <t>高岭充电站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>东区充电站</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-11</t>
   </si>
   <si>
     <t>212号直流</t>
@@ -546,9 +276,6 @@
   <si>
     <t>南区充电站</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-12</t>
   </si>
 </sst>
 </file>
@@ -639,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,6 +434,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,13 +745,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N440"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" style="2" bestFit="1" customWidth="1"/>
@@ -1036,11 +766,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1052,18 +782,18 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
+      <c r="A2" s="9">
+        <v>43252</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>276.08</v>
@@ -1083,11 +813,11 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9">
+        <v>43282</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="C3" s="1">
         <v>60171.720000000074</v>
@@ -1107,11 +837,11 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
+      <c r="A4" s="9">
+        <v>43313</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>61781.849999999962</v>
@@ -1131,11 +861,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
+      <c r="A5" s="9">
+        <v>43344</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>94676.269999999713</v>
@@ -1160,11 +890,11 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
+      <c r="A6" s="9">
+        <v>43374</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>120954.96999999981</v>
@@ -1184,11 +914,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
+      <c r="A7" s="9">
+        <v>43405</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>133453.96999999997</v>
@@ -1210,11 +940,11 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
+      <c r="A8" s="9">
+        <v>43435</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>155310.13000000009</v>
@@ -1234,11 +964,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
+      <c r="A9" s="9">
+        <v>43466</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>140296.57000000015</v>
@@ -1258,11 +988,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
+      <c r="A10" s="9">
+        <v>43497</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>90221.229999999938</v>
@@ -1282,11 +1012,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
+      <c r="A11" s="9">
+        <v>43525</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>128259.44000000009</v>
@@ -1306,11 +1036,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
+      <c r="A12" s="9">
+        <v>43556</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>186518.22000000032</v>
@@ -1330,11 +1060,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
+      <c r="A13" s="9">
+        <v>43586</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>208195.52000000005</v>
@@ -1354,11 +1084,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
+      <c r="A14" s="9">
+        <v>43617</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>207321.07999999955</v>
@@ -1378,11 +1108,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
+      <c r="A15" s="9">
+        <v>43647</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>223550.75999999975</v>
@@ -1402,11 +1132,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
+      <c r="A16" s="9">
+        <v>43678</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>223592.69999999914</v>
@@ -1426,11 +1156,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
+      <c r="A17" s="9">
+        <v>43709</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>188241.87999999995</v>
@@ -1450,11 +1180,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
+      <c r="A18" s="9">
+        <v>43739</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>238037.90999999945</v>
@@ -1474,11 +1204,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
+      <c r="A19" s="9">
+        <v>43770</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>291934.4999999986</v>
@@ -1498,11 +1228,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
+      <c r="A20" s="9">
+        <v>43800</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>361481.67000000144</v>
@@ -1522,11 +1252,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
+      <c r="A21" s="9">
+        <v>43831</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C21" s="18">
         <f>324029.82</f>
@@ -1549,11 +1279,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
+      <c r="A22" s="9">
+        <v>43862</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1">
         <v>71232.629999999859</v>
@@ -1574,11 +1304,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
-        <v>25</v>
+      <c r="A23" s="9">
+        <v>43891</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
         <v>171210.18000000034</v>
@@ -1598,11 +1328,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
+      <c r="A24" s="9">
+        <v>43922</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>221773.39000000004</v>
@@ -1622,11 +1352,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
+      <c r="A25" s="9">
+        <v>43952</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
         <v>209015.27000000031</v>
@@ -1646,11 +1376,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>28</v>
+      <c r="A26" s="9">
+        <v>43983</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1">
         <v>266563.71000000072</v>
@@ -1670,11 +1400,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
+      <c r="A27" s="9">
+        <v>44013</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
         <v>277446.12999999971</v>
@@ -1694,11 +1424,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
+      <c r="A28" s="9">
+        <v>44044</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1">
         <v>388725.31999999826</v>
@@ -1718,11 +1448,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
+      <c r="A29" s="9">
+        <v>44075</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1">
         <v>327347.20000000001</v>
@@ -1742,11 +1472,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
+      <c r="A30" s="9">
+        <v>44105</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
         <v>337917.21000000183</v>
@@ -1766,11 +1496,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>33</v>
+      <c r="A31" s="9">
+        <v>44136</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>416971.15000000142</v>
@@ -1790,11 +1520,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>34</v>
+      <c r="A32" s="9">
+        <v>44166</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>568188.53900000243</v>
@@ -1814,11 +1544,11 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>35</v>
+      <c r="A33" s="9">
+        <v>44197</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
         <f>538319.98+57.2</f>
@@ -1842,11 +1572,11 @@
       <c r="J33" s="24"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>36</v>
+      <c r="A34" s="9">
+        <v>44228</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1">
         <v>350926.49400000152</v>
@@ -1867,11 +1597,11 @@
       <c r="K34" s="24"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
-        <v>37</v>
+      <c r="A35" s="9">
+        <v>44256</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1">
         <v>353745.77899999841</v>
@@ -1891,11 +1621,11 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
+      <c r="A36" s="9">
+        <v>44287</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1">
         <v>284140.44400000083</v>
@@ -1917,11 +1647,11 @@
       <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>39</v>
+      <c r="A37" s="9">
+        <v>44317</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1">
         <v>329970.87800000008</v>
@@ -1941,11 +1671,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>40</v>
+      <c r="A38" s="9">
+        <v>44348</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>521034.7840000001</v>
@@ -1965,11 +1695,11 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>41</v>
+      <c r="A39" s="9">
+        <v>44378</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1">
         <v>667085.79699999967</v>
@@ -1989,11 +1719,11 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>42</v>
+      <c r="A40" s="9">
+        <v>44409</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1">
         <v>370120.30400000105</v>
@@ -2013,11 +1743,11 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>43</v>
+      <c r="A41" s="9">
+        <v>44440</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1">
         <v>390662.89099999919</v>
@@ -2037,11 +1767,11 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>44</v>
+      <c r="A42" s="9">
+        <v>44470</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1">
         <v>328815.68100000039</v>
@@ -2061,11 +1791,11 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>45</v>
+      <c r="A43" s="9">
+        <v>44501</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
         <v>328662.25099999987</v>
@@ -2085,11 +1815,11 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>46</v>
+      <c r="A44" s="9">
+        <v>44531</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1">
         <v>419732.66699999961</v>
@@ -2109,11 +1839,11 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>47</v>
+      <c r="A45" s="9">
+        <v>44562</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1">
         <v>466563.12699999998</v>
@@ -2133,11 +1863,11 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>48</v>
+      <c r="A46" s="9">
+        <v>44593</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1">
         <v>369842.09899999981</v>
@@ -2157,11 +1887,11 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>49</v>
+      <c r="A47" s="9">
+        <v>44621</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>390410.73700000125</v>
@@ -2181,11 +1911,11 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>50</v>
+      <c r="A48" s="9">
+        <v>44652</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1">
         <v>384633.24399999896</v>
@@ -2205,11 +1935,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>51</v>
+      <c r="A49" s="9">
+        <v>44682</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1">
         <v>432236.52799999912</v>
@@ -2229,11 +1959,11 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>52</v>
+      <c r="A50" s="9">
+        <v>44713</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1">
         <v>480696.82300000201</v>
@@ -2253,11 +1983,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>53</v>
+      <c r="A51" s="9">
+        <v>44743</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1">
         <v>540693.31500000332</v>
@@ -2277,11 +2007,11 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>54</v>
+      <c r="A52" s="9">
+        <v>44774</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1">
         <v>550673.11999999988</v>
@@ -2301,11 +2031,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>55</v>
+      <c r="A53" s="9">
+        <v>44805</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1">
         <v>416275.09300000145</v>
@@ -2325,11 +2055,11 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
-        <v>56</v>
+      <c r="A54" s="9">
+        <v>44835</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1">
         <v>373518.10800000158</v>
@@ -2349,11 +2079,11 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>57</v>
+      <c r="A55" s="9">
+        <v>44866</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1">
         <v>367617.62999999966</v>
@@ -2373,11 +2103,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
-        <v>58</v>
+      <c r="A56" s="9">
+        <v>44896</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1">
         <v>363429.61099999945</v>
@@ -2397,11 +2127,11 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
-        <v>59</v>
+      <c r="A57" s="9">
+        <v>44927</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1">
         <v>308208.74899999989</v>
@@ -2421,11 +2151,11 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
-        <v>60</v>
+      <c r="A58" s="9">
+        <v>44958</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1">
         <v>421405.62000000081</v>
@@ -2445,11 +2175,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
-        <v>61</v>
+      <c r="A59" s="9">
+        <v>44986</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1">
         <v>449170.92499999941</v>
@@ -2469,11 +2199,11 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
-        <v>62</v>
+      <c r="A60" s="9">
+        <v>45017</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1">
         <v>431602.59000000008</v>
@@ -2493,11 +2223,11 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>63</v>
+      <c r="A61" s="9">
+        <v>45047</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1">
         <v>432741.64299999847</v>
@@ -2517,11 +2247,11 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
-        <v>64</v>
+      <c r="A62" s="9">
+        <v>45078</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1">
         <v>430446.36099999736</v>
@@ -2541,11 +2271,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
-        <v>65</v>
+      <c r="A63" s="9">
+        <v>45108</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>500972.23800000071</v>
@@ -2565,11 +2295,11 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
-        <v>66</v>
+      <c r="A64" s="9">
+        <v>45139</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1">
         <v>489071.34400000138</v>
@@ -2589,11 +2319,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
-        <v>67</v>
+      <c r="A65" s="9">
+        <v>45170</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C65" s="1">
         <v>395557.42599999788</v>
@@ -2613,11 +2343,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="4" t="s">
-        <v>68</v>
+      <c r="A66" s="9">
+        <v>45200</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1">
         <v>359924.54199999914</v>
@@ -2637,11 +2367,11 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
-        <v>69</v>
+      <c r="A67" s="9">
+        <v>45231</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1">
         <v>401043.42400000076</v>
@@ -2661,11 +2391,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
-        <v>70</v>
+      <c r="A68" s="9">
+        <v>45261</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1">
         <v>455952.43099999928</v>
@@ -2685,11 +2415,11 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
-        <v>71</v>
+      <c r="A69" s="9">
+        <v>45292</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1">
         <v>486138.51200000383</v>
@@ -2709,11 +2439,11 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
-        <v>72</v>
+      <c r="A70" s="9">
+        <v>45323</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C70" s="1">
         <v>393714.60999999876</v>
@@ -2733,11 +2463,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
-        <v>73</v>
+      <c r="A71" s="9">
+        <v>45352</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1">
         <v>454076.01800000225</v>
@@ -2757,11 +2487,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
-        <v>74</v>
+      <c r="A72" s="9">
+        <v>45383</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C72" s="1">
         <v>412115.89000000339</v>
@@ -2781,11 +2511,11 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
-        <v>75</v>
+      <c r="A73" s="9">
+        <v>45413</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1">
         <v>454351.75999999943</v>
@@ -2805,11 +2535,11 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
-        <v>76</v>
+      <c r="A74" s="9">
+        <v>45444</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C74" s="1">
         <v>469512.21199999721</v>
@@ -2829,11 +2559,11 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
-        <v>77</v>
+      <c r="A75" s="9">
+        <v>45474</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1">
         <v>590679.42099999997</v>
@@ -2853,11 +2583,11 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
-        <v>78</v>
+      <c r="A76" s="9">
+        <v>45505</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>572501.16000000085</v>
@@ -2877,11 +2607,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
-        <v>79</v>
+      <c r="A77" s="9">
+        <v>45536</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C77" s="1">
         <v>478145.82499999902</v>
@@ -2901,11 +2631,11 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="4" t="s">
-        <v>80</v>
+      <c r="A78" s="9">
+        <v>45566</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C78" s="1">
         <v>409208.91099999961</v>
@@ -2925,11 +2655,11 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
-        <v>81</v>
+      <c r="A79" s="9">
+        <v>45597</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1">
         <v>389860.41600000142</v>
@@ -2949,11 +2679,11 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="4" t="s">
-        <v>82</v>
+      <c r="A80" s="9">
+        <v>45627</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C80" s="1">
         <v>415888.10000000073</v>
@@ -2973,11 +2703,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
-        <v>83</v>
+      <c r="A81" s="9">
+        <v>45658</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>359353.55699999986</v>
@@ -2997,11 +2727,11 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="4" t="s">
-        <v>84</v>
+      <c r="A82" s="9">
+        <v>45689</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1">
         <v>333239.72800000024</v>
@@ -3021,11 +2751,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="4" t="s">
-        <v>85</v>
+      <c r="A83" s="9">
+        <v>45717</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
         <v>370662.16199999995</v>
@@ -3045,11 +2775,11 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
-        <v>86</v>
+      <c r="A84" s="9">
+        <v>45748</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C84" s="1">
         <v>352885.06299999851</v>
@@ -3069,11 +2799,11 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
-        <v>87</v>
+      <c r="A85" s="9">
+        <v>45778</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1">
         <v>359974.39199999953</v>
@@ -3093,11 +2823,11 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="4" t="s">
-        <v>88</v>
+      <c r="A86" s="9">
+        <v>45809</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1">
         <v>347102.27</v>
@@ -3117,11 +2847,11 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="4" t="s">
-        <v>89</v>
+      <c r="A87" s="9">
+        <v>45839</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1">
         <v>393120.00899999798</v>
@@ -3141,11 +2871,11 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="4" t="s">
-        <v>90</v>
+      <c r="A88" s="9">
+        <v>45870</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
         <v>370346.40000000125</v>
@@ -3165,11 +2895,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>71</v>
+      <c r="A89" s="9">
+        <v>45292</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C89" s="1">
         <v>32624.94</v>
@@ -3189,11 +2919,11 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>72</v>
+      <c r="A90" s="9">
+        <v>45323</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1">
         <v>42533.06</v>
@@ -3213,11 +2943,11 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>73</v>
+      <c r="A91" s="9">
+        <v>45352</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C91" s="1">
         <v>123846.48</v>
@@ -3237,11 +2967,11 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>74</v>
+      <c r="A92" s="9">
+        <v>45383</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C92" s="1">
         <v>110084.38</v>
@@ -3261,11 +2991,11 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
-        <v>75</v>
+      <c r="A93" s="9">
+        <v>45413</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C93" s="1">
         <v>114575.17</v>
@@ -3285,11 +3015,11 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>76</v>
+      <c r="A94" s="9">
+        <v>45444</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C94" s="1">
         <v>88227.65</v>
@@ -3309,11 +3039,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>77</v>
+      <c r="A95" s="9">
+        <v>45474</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C95" s="1">
         <v>113359.26</v>
@@ -3333,11 +3063,11 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>78</v>
+      <c r="A96" s="9">
+        <v>45505</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C96" s="1">
         <v>116919.03</v>
@@ -3357,11 +3087,11 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>79</v>
+      <c r="A97" s="9">
+        <v>45536</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C97" s="1">
         <v>99918.5</v>
@@ -3381,11 +3111,11 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>80</v>
+      <c r="A98" s="9">
+        <v>45566</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1">
         <v>93083.08</v>
@@ -3405,11 +3135,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>81</v>
+      <c r="A99" s="9">
+        <v>45597</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1">
         <v>97247.07</v>
@@ -3429,11 +3159,11 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>82</v>
+      <c r="A100" s="9">
+        <v>45627</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C100" s="1">
         <v>116110.63</v>
@@ -3453,11 +3183,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>83</v>
+      <c r="A101" s="9">
+        <v>45658</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C101" s="1">
         <v>120379.6</v>
@@ -3477,11 +3207,11 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>84</v>
+      <c r="A102" s="9">
+        <v>45689</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C102" s="1">
         <v>131023.95</v>
@@ -3501,11 +3231,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>85</v>
+      <c r="A103" s="9">
+        <v>45717</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C103" s="1">
         <v>142329.75</v>
@@ -3525,11 +3255,11 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>86</v>
+      <c r="A104" s="9">
+        <v>45748</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C104" s="1">
         <v>104999.88</v>
@@ -3549,11 +3279,11 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>87</v>
+      <c r="A105" s="9">
+        <v>45778</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C105" s="1">
         <v>110916.35</v>
@@ -3573,11 +3303,11 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>88</v>
+      <c r="A106" s="9">
+        <v>45809</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C106" s="1">
         <v>114309.06</v>
@@ -3597,11 +3327,11 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>89</v>
+      <c r="A107" s="9">
+        <v>45839</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C107" s="1">
         <v>155319.34</v>
@@ -3621,11 +3351,11 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>90</v>
+      <c r="A108" s="9">
+        <v>45870</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C108" s="1">
         <v>153275.94</v>
@@ -3645,11 +3375,11 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>96</v>
+      <c r="A109" s="9">
+        <v>45901</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C109" s="1">
         <v>302262.06</v>
@@ -3668,11 +3398,11 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>96</v>
+      <c r="A110" s="9">
+        <v>45901</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C110" s="1">
         <v>145618.5</v>
@@ -3691,11 +3421,11 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>163</v>
+      <c r="A111" s="9">
+        <v>45931</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C111" s="1">
         <v>292085.53999999998</v>
@@ -3714,11 +3444,11 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>163</v>
+      <c r="A112" s="9">
+        <v>45931</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1">
         <v>137042.18</v>
@@ -3737,11 +3467,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>166</v>
+      <c r="A113" s="9">
+        <v>45962</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C113" s="1">
         <v>270495.69</v>
@@ -3760,11 +3490,11 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>166</v>
+      <c r="A114" s="9">
+        <v>45962</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C114" s="1">
         <v>135965.66</v>
@@ -3783,11 +3513,11 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>170</v>
+      <c r="A115" s="9">
+        <v>45992</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C115" s="1">
         <v>276668.06</v>
@@ -3806,11 +3536,11 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>170</v>
+      <c r="A116" s="9">
+        <v>45992</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C116" s="1">
         <v>156495.57</v>
@@ -3833,7 +3563,7 @@
         <v>46023</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C117" s="1">
         <v>419557.75</v>
@@ -3856,7 +3586,7 @@
         <v>46023</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C118" s="1">
         <v>160938.26999999999</v>
@@ -3875,7 +3605,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119" s="4"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3884,7 +3614,7 @@
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="4"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3893,7 +3623,7 @@
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121" s="4"/>
+      <c r="A121" s="9"/>
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3902,7 +3632,7 @@
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="4"/>
+      <c r="A122" s="9"/>
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3911,7 +3641,7 @@
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123" s="4"/>
+      <c r="A123" s="9"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3920,7 +3650,7 @@
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" s="4"/>
+      <c r="A124" s="9"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3929,7 +3659,7 @@
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="4"/>
+      <c r="A125" s="9"/>
       <c r="B125" s="4"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3938,7 +3668,7 @@
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" s="4"/>
+      <c r="A126" s="9"/>
       <c r="B126" s="4"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3947,7 +3677,7 @@
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" s="4"/>
+      <c r="A127" s="9"/>
       <c r="B127" s="4"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3956,7 +3686,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128" s="4"/>
+      <c r="A128" s="9"/>
       <c r="B128" s="4"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3965,7 +3695,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="4"/>
+      <c r="A129" s="9"/>
       <c r="B129" s="4"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3974,7 +3704,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="4"/>
+      <c r="A130" s="9"/>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3983,7 +3713,7 @@
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A131" s="4"/>
+      <c r="A131" s="9"/>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3992,7 +3722,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A132" s="4"/>
+      <c r="A132" s="9"/>
       <c r="B132" s="4"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4001,7 +3731,7 @@
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="4"/>
+      <c r="A133" s="9"/>
       <c r="B133" s="4"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4010,7 +3740,7 @@
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="4"/>
+      <c r="A134" s="9"/>
       <c r="B134" s="4"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4019,7 +3749,7 @@
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="4"/>
+      <c r="A135" s="9"/>
       <c r="B135" s="4"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4028,7 +3758,7 @@
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="4"/>
+      <c r="A136" s="9"/>
       <c r="B136" s="4"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4037,7 +3767,7 @@
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A137" s="4"/>
+      <c r="A137" s="9"/>
       <c r="B137" s="4"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4046,7 +3776,7 @@
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A138" s="4"/>
+      <c r="A138" s="9"/>
       <c r="B138" s="4"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4055,7 +3785,7 @@
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A139" s="4"/>
+      <c r="A139" s="9"/>
       <c r="B139" s="4"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4064,7 +3794,7 @@
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A140" s="4"/>
+      <c r="A140" s="9"/>
       <c r="B140" s="4"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4073,7 +3803,7 @@
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A141" s="4"/>
+      <c r="A141" s="9"/>
       <c r="B141" s="4"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4082,7 +3812,7 @@
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A142" s="4"/>
+      <c r="A142" s="9"/>
       <c r="B142" s="4"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4091,7 +3821,7 @@
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A143" s="4"/>
+      <c r="A143" s="9"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4100,7 +3830,7 @@
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A144" s="4"/>
+      <c r="A144" s="9"/>
       <c r="B144" s="4"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4109,7 +3839,7 @@
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A145" s="4"/>
+      <c r="A145" s="9"/>
       <c r="B145" s="4"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4118,7 +3848,7 @@
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A146" s="4"/>
+      <c r="A146" s="9"/>
       <c r="B146" s="4"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4127,7 +3857,7 @@
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A147" s="4"/>
+      <c r="A147" s="9"/>
       <c r="B147" s="4"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4136,7 +3866,7 @@
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A148" s="4"/>
+      <c r="A148" s="9"/>
       <c r="B148" s="4"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4145,7 +3875,7 @@
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A149" s="4"/>
+      <c r="A149" s="9"/>
       <c r="B149" s="4"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -4154,7 +3884,7 @@
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A150" s="4"/>
+      <c r="A150" s="9"/>
       <c r="B150" s="4"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -4163,7 +3893,7 @@
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A151" s="4"/>
+      <c r="A151" s="9"/>
       <c r="B151" s="4"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -4172,7 +3902,7 @@
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A152" s="4"/>
+      <c r="A152" s="9"/>
       <c r="B152" s="4"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -4181,7 +3911,7 @@
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A153" s="4"/>
+      <c r="A153" s="9"/>
       <c r="B153" s="4"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -4190,7 +3920,7 @@
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A154" s="4"/>
+      <c r="A154" s="9"/>
       <c r="B154" s="4"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -4199,7 +3929,7 @@
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A155" s="4"/>
+      <c r="A155" s="9"/>
       <c r="B155" s="4"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -4208,7 +3938,7 @@
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A156" s="4"/>
+      <c r="A156" s="9"/>
       <c r="B156" s="4"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -4217,7 +3947,7 @@
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A157" s="4"/>
+      <c r="A157" s="9"/>
       <c r="B157" s="4"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -4226,7 +3956,7 @@
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A158" s="4"/>
+      <c r="A158" s="9"/>
       <c r="B158" s="4"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -4235,7 +3965,7 @@
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A159" s="4"/>
+      <c r="A159" s="9"/>
       <c r="B159" s="4"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -4244,7 +3974,7 @@
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A160" s="4"/>
+      <c r="A160" s="9"/>
       <c r="B160" s="4"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -4253,7 +3983,7 @@
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A161" s="4"/>
+      <c r="A161" s="9"/>
       <c r="B161" s="4"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -4262,7 +3992,7 @@
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A162" s="4"/>
+      <c r="A162" s="9"/>
       <c r="B162" s="4"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -4271,7 +4001,7 @@
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A163" s="4"/>
+      <c r="A163" s="9"/>
       <c r="B163" s="4"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -4280,7 +4010,7 @@
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A164" s="4"/>
+      <c r="A164" s="9"/>
       <c r="B164" s="4"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4289,7 +4019,7 @@
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A165" s="4"/>
+      <c r="A165" s="9"/>
       <c r="B165" s="4"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -4298,7 +4028,7 @@
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A166" s="4"/>
+      <c r="A166" s="9"/>
       <c r="B166" s="4"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4307,7 +4037,7 @@
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A167" s="4"/>
+      <c r="A167" s="9"/>
       <c r="B167" s="4"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4316,7 +4046,7 @@
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A168" s="4"/>
+      <c r="A168" s="9"/>
       <c r="B168" s="4"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4325,7 +4055,7 @@
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A169" s="4"/>
+      <c r="A169" s="9"/>
       <c r="B169" s="4"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4334,7 +4064,7 @@
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A170" s="4"/>
+      <c r="A170" s="9"/>
       <c r="B170" s="4"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4343,7 +4073,7 @@
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A171" s="4"/>
+      <c r="A171" s="9"/>
       <c r="B171" s="4"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4352,7 +4082,7 @@
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A172" s="4"/>
+      <c r="A172" s="9"/>
       <c r="B172" s="4"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4361,7 +4091,7 @@
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A173" s="4"/>
+      <c r="A173" s="9"/>
       <c r="B173" s="4"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4370,7 +4100,7 @@
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A174" s="4"/>
+      <c r="A174" s="9"/>
       <c r="B174" s="4"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4379,7 +4109,7 @@
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A175" s="4"/>
+      <c r="A175" s="9"/>
       <c r="B175" s="4"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4388,7 +4118,7 @@
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A176" s="4"/>
+      <c r="A176" s="9"/>
       <c r="B176" s="4"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4397,7 +4127,7 @@
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A177" s="4"/>
+      <c r="A177" s="9"/>
       <c r="B177" s="4"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4406,7 +4136,7 @@
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A178" s="4"/>
+      <c r="A178" s="9"/>
       <c r="B178" s="4"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4415,7 +4145,7 @@
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A179" s="4"/>
+      <c r="A179" s="9"/>
       <c r="B179" s="4"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4424,7 +4154,7 @@
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A180" s="4"/>
+      <c r="A180" s="9"/>
       <c r="B180" s="4"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4433,7 +4163,7 @@
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A181" s="4"/>
+      <c r="A181" s="9"/>
       <c r="B181" s="4"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4442,7 +4172,7 @@
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A182" s="4"/>
+      <c r="A182" s="9"/>
       <c r="B182" s="4"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4451,7 +4181,7 @@
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A183" s="4"/>
+      <c r="A183" s="9"/>
       <c r="B183" s="4"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4460,7 +4190,7 @@
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A184" s="4"/>
+      <c r="A184" s="9"/>
       <c r="B184" s="4"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4469,7 +4199,7 @@
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A185" s="4"/>
+      <c r="A185" s="9"/>
       <c r="B185" s="4"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4478,7 +4208,7 @@
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A186" s="4"/>
+      <c r="A186" s="9"/>
       <c r="B186" s="4"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4487,7 +4217,7 @@
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A187" s="4"/>
+      <c r="A187" s="9"/>
       <c r="B187" s="4"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4496,7 +4226,7 @@
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A188" s="4"/>
+      <c r="A188" s="9"/>
       <c r="B188" s="4"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4505,7 +4235,7 @@
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A189" s="4"/>
+      <c r="A189" s="9"/>
       <c r="B189" s="4"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4514,7 +4244,7 @@
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A190" s="4"/>
+      <c r="A190" s="9"/>
       <c r="B190" s="4"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4523,7 +4253,7 @@
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="4"/>
+      <c r="A191" s="9"/>
       <c r="B191" s="4"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4532,7 +4262,7 @@
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" s="4"/>
+      <c r="A192" s="9"/>
       <c r="B192" s="4"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4541,7 +4271,7 @@
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A193" s="4"/>
+      <c r="A193" s="9"/>
       <c r="B193" s="4"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4550,7 +4280,7 @@
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A194" s="4"/>
+      <c r="A194" s="9"/>
       <c r="B194" s="4"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4559,7 +4289,7 @@
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A195" s="4"/>
+      <c r="A195" s="9"/>
       <c r="B195" s="4"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -4568,7 +4298,7 @@
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A196" s="4"/>
+      <c r="A196" s="9"/>
       <c r="B196" s="4"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4577,7 +4307,7 @@
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A197" s="4"/>
+      <c r="A197" s="9"/>
       <c r="B197" s="4"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -4586,7 +4316,7 @@
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A198" s="4"/>
+      <c r="A198" s="9"/>
       <c r="B198" s="4"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -4595,7 +4325,7 @@
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A199" s="4"/>
+      <c r="A199" s="9"/>
       <c r="B199" s="4"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -4604,7 +4334,7 @@
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A200" s="4"/>
+      <c r="A200" s="9"/>
       <c r="B200" s="4"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4613,7 +4343,7 @@
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A201" s="4"/>
+      <c r="A201" s="9"/>
       <c r="B201" s="4"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -4622,7 +4352,7 @@
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A202" s="4"/>
+      <c r="A202" s="9"/>
       <c r="B202" s="4"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -4631,7 +4361,7 @@
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A203" s="4"/>
+      <c r="A203" s="9"/>
       <c r="B203" s="4"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -4640,7 +4370,7 @@
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A204" s="4"/>
+      <c r="A204" s="9"/>
       <c r="B204" s="4"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4649,7 +4379,7 @@
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A205" s="4"/>
+      <c r="A205" s="9"/>
       <c r="B205" s="4"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -4658,7 +4388,7 @@
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A206" s="4"/>
+      <c r="A206" s="9"/>
       <c r="B206" s="4"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -4667,7 +4397,7 @@
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A207" s="4"/>
+      <c r="A207" s="9"/>
       <c r="B207" s="4"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -4676,7 +4406,7 @@
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A208" s="4"/>
+      <c r="A208" s="9"/>
       <c r="B208" s="4"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -4685,7 +4415,7 @@
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A209" s="4"/>
+      <c r="A209" s="9"/>
       <c r="B209" s="4"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -4694,7 +4424,7 @@
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A210" s="4"/>
+      <c r="A210" s="9"/>
       <c r="B210" s="4"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -4703,7 +4433,7 @@
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A211" s="4"/>
+      <c r="A211" s="9"/>
       <c r="B211" s="4"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -4712,7 +4442,7 @@
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A212" s="4"/>
+      <c r="A212" s="9"/>
       <c r="B212" s="4"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4721,7 +4451,7 @@
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A213" s="4"/>
+      <c r="A213" s="9"/>
       <c r="B213" s="4"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -4730,7 +4460,7 @@
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A214" s="4"/>
+      <c r="A214" s="9"/>
       <c r="B214" s="4"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -4739,7 +4469,7 @@
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A215" s="4"/>
+      <c r="A215" s="9"/>
       <c r="B215" s="4"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -4748,7 +4478,7 @@
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A216" s="4"/>
+      <c r="A216" s="9"/>
       <c r="B216" s="4"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -4757,7 +4487,7 @@
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A217" s="4"/>
+      <c r="A217" s="9"/>
       <c r="B217" s="4"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -4766,7 +4496,7 @@
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A218" s="4"/>
+      <c r="A218" s="9"/>
       <c r="B218" s="4"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -4775,7 +4505,7 @@
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A219" s="4"/>
+      <c r="A219" s="9"/>
       <c r="B219" s="4"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -4784,7 +4514,7 @@
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A220" s="4"/>
+      <c r="A220" s="9"/>
       <c r="B220" s="4"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -4793,7 +4523,7 @@
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A221" s="4"/>
+      <c r="A221" s="9"/>
       <c r="B221" s="4"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -4802,7 +4532,7 @@
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A222" s="4"/>
+      <c r="A222" s="9"/>
       <c r="B222" s="4"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -4811,7 +4541,7 @@
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A223" s="4"/>
+      <c r="A223" s="9"/>
       <c r="B223" s="4"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -4820,7 +4550,7 @@
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A224" s="4"/>
+      <c r="A224" s="9"/>
       <c r="B224" s="4"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -4829,7 +4559,7 @@
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A225" s="4"/>
+      <c r="A225" s="9"/>
       <c r="B225" s="4"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -4838,7 +4568,7 @@
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A226" s="4"/>
+      <c r="A226" s="9"/>
       <c r="B226" s="4"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -4847,7 +4577,7 @@
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A227" s="4"/>
+      <c r="A227" s="9"/>
       <c r="B227" s="4"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -4856,7 +4586,7 @@
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A228" s="4"/>
+      <c r="A228" s="9"/>
       <c r="B228" s="4"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -4865,7 +4595,7 @@
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A229" s="4"/>
+      <c r="A229" s="9"/>
       <c r="B229" s="4"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -4874,7 +4604,7 @@
       <c r="G229" s="1"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A230" s="4"/>
+      <c r="A230" s="9"/>
       <c r="B230" s="4"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -4883,7 +4613,7 @@
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A231" s="4"/>
+      <c r="A231" s="9"/>
       <c r="B231" s="4"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -4892,7 +4622,7 @@
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A232" s="4"/>
+      <c r="A232" s="9"/>
       <c r="B232" s="4"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -4901,7 +4631,7 @@
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A233" s="4"/>
+      <c r="A233" s="9"/>
       <c r="B233" s="4"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -4910,7 +4640,7 @@
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A234" s="4"/>
+      <c r="A234" s="9"/>
       <c r="B234" s="4"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -4919,7 +4649,7 @@
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A235" s="4"/>
+      <c r="A235" s="9"/>
       <c r="B235" s="4"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -4928,7 +4658,7 @@
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A236" s="4"/>
+      <c r="A236" s="9"/>
       <c r="B236" s="4"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -4937,7 +4667,7 @@
       <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A237" s="4"/>
+      <c r="A237" s="9"/>
       <c r="B237" s="4"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -4946,7 +4676,7 @@
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A238" s="4"/>
+      <c r="A238" s="9"/>
       <c r="B238" s="4"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -4955,7 +4685,7 @@
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A239" s="4"/>
+      <c r="A239" s="9"/>
       <c r="B239" s="4"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -4964,7 +4694,7 @@
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A240" s="4"/>
+      <c r="A240" s="9"/>
       <c r="B240" s="4"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -4973,7 +4703,7 @@
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A241" s="4"/>
+      <c r="A241" s="9"/>
       <c r="B241" s="4"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -4982,7 +4712,7 @@
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A242" s="4"/>
+      <c r="A242" s="9"/>
       <c r="B242" s="4"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -4991,7 +4721,7 @@
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A243" s="4"/>
+      <c r="A243" s="9"/>
       <c r="B243" s="4"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -5000,7 +4730,7 @@
       <c r="G243" s="1"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A244" s="4"/>
+      <c r="A244" s="9"/>
       <c r="B244" s="4"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -5009,7 +4739,7 @@
       <c r="G244" s="1"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A245" s="4"/>
+      <c r="A245" s="9"/>
       <c r="B245" s="4"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -5018,7 +4748,7 @@
       <c r="G245" s="1"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A246" s="4"/>
+      <c r="A246" s="9"/>
       <c r="B246" s="4"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -5027,7 +4757,7 @@
       <c r="G246" s="1"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A247" s="4"/>
+      <c r="A247" s="9"/>
       <c r="B247" s="4"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -5036,7 +4766,7 @@
       <c r="G247" s="1"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A248" s="4"/>
+      <c r="A248" s="9"/>
       <c r="B248" s="4"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -5045,7 +4775,7 @@
       <c r="G248" s="1"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A249" s="4"/>
+      <c r="A249" s="9"/>
       <c r="B249" s="4"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -5054,7 +4784,7 @@
       <c r="G249" s="1"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A250" s="4"/>
+      <c r="A250" s="9"/>
       <c r="B250" s="4"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -5063,7 +4793,7 @@
       <c r="G250" s="1"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A251" s="4"/>
+      <c r="A251" s="9"/>
       <c r="B251" s="4"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -5072,7 +4802,7 @@
       <c r="G251" s="1"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A252" s="4"/>
+      <c r="A252" s="9"/>
       <c r="B252" s="4"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -5081,7 +4811,7 @@
       <c r="G252" s="1"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A253" s="4"/>
+      <c r="A253" s="9"/>
       <c r="B253" s="4"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -5090,7 +4820,7 @@
       <c r="G253" s="1"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A254" s="4"/>
+      <c r="A254" s="9"/>
       <c r="B254" s="4"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -5099,7 +4829,7 @@
       <c r="G254" s="1"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A255" s="4"/>
+      <c r="A255" s="9"/>
       <c r="B255" s="4"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -5108,7 +4838,7 @@
       <c r="G255" s="1"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A256" s="4"/>
+      <c r="A256" s="9"/>
       <c r="B256" s="4"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -5117,7 +4847,7 @@
       <c r="G256" s="1"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A257" s="4"/>
+      <c r="A257" s="9"/>
       <c r="B257" s="4"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -5126,7 +4856,7 @@
       <c r="G257" s="1"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A258" s="4"/>
+      <c r="A258" s="9"/>
       <c r="B258" s="4"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -5135,7 +4865,7 @@
       <c r="G258" s="1"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A259" s="4"/>
+      <c r="A259" s="9"/>
       <c r="B259" s="4"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -5144,7 +4874,7 @@
       <c r="G259" s="1"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A260" s="4"/>
+      <c r="A260" s="9"/>
       <c r="B260" s="4"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -5153,7 +4883,7 @@
       <c r="G260" s="1"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A261" s="4"/>
+      <c r="A261" s="9"/>
       <c r="B261" s="4"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -5162,7 +4892,7 @@
       <c r="G261" s="1"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A262" s="4"/>
+      <c r="A262" s="9"/>
       <c r="B262" s="4"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -5171,7 +4901,7 @@
       <c r="G262" s="1"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A263" s="4"/>
+      <c r="A263" s="9"/>
       <c r="B263" s="4"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -5180,7 +4910,7 @@
       <c r="G263" s="1"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A264" s="4"/>
+      <c r="A264" s="9"/>
       <c r="B264" s="4"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -5189,7 +4919,7 @@
       <c r="G264" s="1"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A265" s="4"/>
+      <c r="A265" s="9"/>
       <c r="B265" s="4"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -5198,7 +4928,7 @@
       <c r="G265" s="1"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A266" s="4"/>
+      <c r="A266" s="9"/>
       <c r="B266" s="4"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -5207,7 +4937,7 @@
       <c r="G266" s="1"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A267" s="4"/>
+      <c r="A267" s="9"/>
       <c r="B267" s="4"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -5216,7 +4946,7 @@
       <c r="G267" s="1"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A268" s="4"/>
+      <c r="A268" s="9"/>
       <c r="B268" s="4"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -5225,7 +4955,7 @@
       <c r="G268" s="1"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A269" s="4"/>
+      <c r="A269" s="9"/>
       <c r="B269" s="4"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -5234,7 +4964,7 @@
       <c r="G269" s="1"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A270" s="4"/>
+      <c r="A270" s="9"/>
       <c r="B270" s="4"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -5243,7 +4973,7 @@
       <c r="G270" s="1"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A271" s="4"/>
+      <c r="A271" s="9"/>
       <c r="B271" s="4"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -5252,7 +4982,7 @@
       <c r="G271" s="1"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A272" s="4"/>
+      <c r="A272" s="9"/>
       <c r="B272" s="4"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -5261,7 +4991,7 @@
       <c r="G272" s="1"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A273" s="4"/>
+      <c r="A273" s="9"/>
       <c r="B273" s="4"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -5270,7 +5000,7 @@
       <c r="G273" s="1"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A274" s="4"/>
+      <c r="A274" s="9"/>
       <c r="B274" s="4"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -5279,7 +5009,7 @@
       <c r="G274" s="1"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A275" s="4"/>
+      <c r="A275" s="9"/>
       <c r="B275" s="4"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -5288,7 +5018,7 @@
       <c r="G275" s="1"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A276" s="4"/>
+      <c r="A276" s="9"/>
       <c r="B276" s="4"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -5297,7 +5027,7 @@
       <c r="G276" s="1"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A277" s="4"/>
+      <c r="A277" s="9"/>
       <c r="B277" s="4"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -5306,7 +5036,7 @@
       <c r="G277" s="1"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A278" s="4"/>
+      <c r="A278" s="9"/>
       <c r="B278" s="4"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -5315,7 +5045,7 @@
       <c r="G278" s="1"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A279" s="4"/>
+      <c r="A279" s="9"/>
       <c r="B279" s="4"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -5324,7 +5054,7 @@
       <c r="G279" s="1"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A280" s="4"/>
+      <c r="A280" s="9"/>
       <c r="B280" s="4"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -5333,7 +5063,7 @@
       <c r="G280" s="1"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A281" s="4"/>
+      <c r="A281" s="9"/>
       <c r="B281" s="4"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -5342,7 +5072,7 @@
       <c r="G281" s="1"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A282" s="4"/>
+      <c r="A282" s="9"/>
       <c r="B282" s="4"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -5351,7 +5081,7 @@
       <c r="G282" s="1"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A283" s="4"/>
+      <c r="A283" s="9"/>
       <c r="B283" s="4"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -5360,7 +5090,7 @@
       <c r="G283" s="1"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A284" s="4"/>
+      <c r="A284" s="9"/>
       <c r="B284" s="4"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -5369,7 +5099,7 @@
       <c r="G284" s="1"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A285" s="4"/>
+      <c r="A285" s="9"/>
       <c r="B285" s="4"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -5378,7 +5108,7 @@
       <c r="G285" s="1"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A286" s="4"/>
+      <c r="A286" s="9"/>
       <c r="B286" s="4"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -5387,7 +5117,7 @@
       <c r="G286" s="1"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A287" s="4"/>
+      <c r="A287" s="9"/>
       <c r="B287" s="4"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -5396,7 +5126,7 @@
       <c r="G287" s="1"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A288" s="4"/>
+      <c r="A288" s="9"/>
       <c r="B288" s="4"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -5405,7 +5135,7 @@
       <c r="G288" s="1"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A289" s="4"/>
+      <c r="A289" s="9"/>
       <c r="B289" s="4"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -5414,7 +5144,7 @@
       <c r="G289" s="1"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A290" s="4"/>
+      <c r="A290" s="9"/>
       <c r="B290" s="4"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -5423,7 +5153,7 @@
       <c r="G290" s="1"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A291" s="4"/>
+      <c r="A291" s="9"/>
       <c r="B291" s="4"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -5432,7 +5162,7 @@
       <c r="G291" s="1"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A292" s="4"/>
+      <c r="A292" s="9"/>
       <c r="B292" s="4"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -5441,7 +5171,7 @@
       <c r="G292" s="1"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A293" s="4"/>
+      <c r="A293" s="9"/>
       <c r="B293" s="4"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -5450,7 +5180,7 @@
       <c r="G293" s="1"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A294" s="4"/>
+      <c r="A294" s="9"/>
       <c r="B294" s="4"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -5459,7 +5189,7 @@
       <c r="G294" s="1"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A295" s="4"/>
+      <c r="A295" s="9"/>
       <c r="B295" s="4"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -5468,7 +5198,7 @@
       <c r="G295" s="1"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A296" s="4"/>
+      <c r="A296" s="9"/>
       <c r="B296" s="4"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -5477,7 +5207,7 @@
       <c r="G296" s="1"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A297" s="4"/>
+      <c r="A297" s="9"/>
       <c r="B297" s="4"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -5486,7 +5216,7 @@
       <c r="G297" s="1"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A298" s="4"/>
+      <c r="A298" s="9"/>
       <c r="B298" s="4"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -5495,7 +5225,7 @@
       <c r="G298" s="1"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A299" s="4"/>
+      <c r="A299" s="9"/>
       <c r="B299" s="4"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -5504,7 +5234,7 @@
       <c r="G299" s="1"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A300" s="4"/>
+      <c r="A300" s="9"/>
       <c r="B300" s="4"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -5513,7 +5243,7 @@
       <c r="G300" s="1"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A301" s="4"/>
+      <c r="A301" s="9"/>
       <c r="B301" s="4"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -5522,7 +5252,7 @@
       <c r="G301" s="1"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A302" s="4"/>
+      <c r="A302" s="9"/>
       <c r="B302" s="4"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -5531,7 +5261,7 @@
       <c r="G302" s="1"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A303" s="4"/>
+      <c r="A303" s="9"/>
       <c r="B303" s="4"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -5540,7 +5270,7 @@
       <c r="G303" s="1"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A304" s="4"/>
+      <c r="A304" s="9"/>
       <c r="B304" s="4"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -5549,7 +5279,7 @@
       <c r="G304" s="1"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A305" s="4"/>
+      <c r="A305" s="9"/>
       <c r="B305" s="4"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -5558,7 +5288,7 @@
       <c r="G305" s="1"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A306" s="4"/>
+      <c r="A306" s="9"/>
       <c r="B306" s="4"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -5567,7 +5297,7 @@
       <c r="G306" s="1"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A307" s="4"/>
+      <c r="A307" s="9"/>
       <c r="B307" s="4"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -5576,7 +5306,7 @@
       <c r="G307" s="1"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A308" s="4"/>
+      <c r="A308" s="9"/>
       <c r="B308" s="4"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -5585,7 +5315,7 @@
       <c r="G308" s="1"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A309" s="4"/>
+      <c r="A309" s="9"/>
       <c r="B309" s="4"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -5594,7 +5324,7 @@
       <c r="G309" s="1"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A310" s="4"/>
+      <c r="A310" s="9"/>
       <c r="B310" s="4"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -5603,7 +5333,7 @@
       <c r="G310" s="1"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A311" s="4"/>
+      <c r="A311" s="9"/>
       <c r="B311" s="4"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -5612,7 +5342,7 @@
       <c r="G311" s="1"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A312" s="4"/>
+      <c r="A312" s="9"/>
       <c r="B312" s="4"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -5621,7 +5351,7 @@
       <c r="G312" s="1"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A313" s="4"/>
+      <c r="A313" s="9"/>
       <c r="B313" s="4"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -5630,7 +5360,7 @@
       <c r="G313" s="1"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A314" s="4"/>
+      <c r="A314" s="9"/>
       <c r="B314" s="4"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -5639,7 +5369,7 @@
       <c r="G314" s="1"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A315" s="4"/>
+      <c r="A315" s="9"/>
       <c r="B315" s="4"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -5648,7 +5378,7 @@
       <c r="G315" s="1"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A316" s="4"/>
+      <c r="A316" s="9"/>
       <c r="B316" s="4"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -5657,7 +5387,7 @@
       <c r="G316" s="1"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A317" s="4"/>
+      <c r="A317" s="9"/>
       <c r="B317" s="4"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -5666,7 +5396,7 @@
       <c r="G317" s="1"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A318" s="4"/>
+      <c r="A318" s="9"/>
       <c r="B318" s="4"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -5675,7 +5405,7 @@
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A319" s="4"/>
+      <c r="A319" s="9"/>
       <c r="B319" s="4"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -5684,7 +5414,7 @@
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A320" s="4"/>
+      <c r="A320" s="9"/>
       <c r="B320" s="4"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -5693,7 +5423,7 @@
       <c r="G320" s="1"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A321" s="4"/>
+      <c r="A321" s="9"/>
       <c r="B321" s="4"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -5702,7 +5432,7 @@
       <c r="G321" s="1"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A322" s="4"/>
+      <c r="A322" s="9"/>
       <c r="B322" s="4"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -5711,7 +5441,7 @@
       <c r="G322" s="1"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A323" s="4"/>
+      <c r="A323" s="9"/>
       <c r="B323" s="4"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -5720,7 +5450,7 @@
       <c r="G323" s="1"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A324" s="4"/>
+      <c r="A324" s="9"/>
       <c r="B324" s="4"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -5729,7 +5459,7 @@
       <c r="G324" s="1"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A325" s="4"/>
+      <c r="A325" s="9"/>
       <c r="B325" s="4"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -5738,7 +5468,7 @@
       <c r="G325" s="1"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A326" s="4"/>
+      <c r="A326" s="9"/>
       <c r="B326" s="4"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -5747,7 +5477,7 @@
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A327" s="4"/>
+      <c r="A327" s="9"/>
       <c r="B327" s="4"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -5756,7 +5486,7 @@
       <c r="G327" s="1"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A328" s="4"/>
+      <c r="A328" s="9"/>
       <c r="B328" s="4"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -5765,7 +5495,7 @@
       <c r="G328" s="1"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A329" s="4"/>
+      <c r="A329" s="9"/>
       <c r="B329" s="4"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -5774,7 +5504,7 @@
       <c r="G329" s="1"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A330" s="4"/>
+      <c r="A330" s="9"/>
       <c r="B330" s="4"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -5783,7 +5513,7 @@
       <c r="G330" s="1"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A331" s="4"/>
+      <c r="A331" s="9"/>
       <c r="B331" s="4"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -5792,7 +5522,7 @@
       <c r="G331" s="1"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A332" s="4"/>
+      <c r="A332" s="9"/>
       <c r="B332" s="4"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -5801,7 +5531,7 @@
       <c r="G332" s="1"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A333" s="4"/>
+      <c r="A333" s="9"/>
       <c r="B333" s="4"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -5810,7 +5540,7 @@
       <c r="G333" s="1"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A334" s="4"/>
+      <c r="A334" s="9"/>
       <c r="B334" s="4"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -5819,7 +5549,7 @@
       <c r="G334" s="1"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A335" s="4"/>
+      <c r="A335" s="9"/>
       <c r="B335" s="4"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -5828,7 +5558,7 @@
       <c r="G335" s="1"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A336" s="4"/>
+      <c r="A336" s="9"/>
       <c r="B336" s="4"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -5837,7 +5567,7 @@
       <c r="G336" s="1"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A337" s="4"/>
+      <c r="A337" s="9"/>
       <c r="B337" s="4"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -5846,7 +5576,7 @@
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A338" s="4"/>
+      <c r="A338" s="9"/>
       <c r="B338" s="4"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -5855,7 +5585,7 @@
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A339" s="4"/>
+      <c r="A339" s="9"/>
       <c r="B339" s="4"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -5864,7 +5594,7 @@
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A340" s="4"/>
+      <c r="A340" s="9"/>
       <c r="B340" s="4"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -5873,7 +5603,7 @@
       <c r="G340" s="1"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A341" s="4"/>
+      <c r="A341" s="9"/>
       <c r="B341" s="4"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -5882,7 +5612,7 @@
       <c r="G341" s="1"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A342" s="4"/>
+      <c r="A342" s="9"/>
       <c r="B342" s="4"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -5891,7 +5621,7 @@
       <c r="G342" s="1"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A343" s="4"/>
+      <c r="A343" s="9"/>
       <c r="B343" s="4"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -5900,7 +5630,7 @@
       <c r="G343" s="1"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A344" s="4"/>
+      <c r="A344" s="9"/>
       <c r="B344" s="4"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -5909,7 +5639,7 @@
       <c r="G344" s="1"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A345" s="4"/>
+      <c r="A345" s="9"/>
       <c r="B345" s="4"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -5918,7 +5648,7 @@
       <c r="G345" s="1"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A346" s="4"/>
+      <c r="A346" s="9"/>
       <c r="B346" s="4"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -5927,7 +5657,7 @@
       <c r="G346" s="1"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A347" s="4"/>
+      <c r="A347" s="9"/>
       <c r="B347" s="4"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -5936,7 +5666,7 @@
       <c r="G347" s="1"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A348" s="4"/>
+      <c r="A348" s="9"/>
       <c r="B348" s="4"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -5945,7 +5675,7 @@
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A349" s="4"/>
+      <c r="A349" s="9"/>
       <c r="B349" s="4"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -5954,7 +5684,7 @@
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A350" s="4"/>
+      <c r="A350" s="9"/>
       <c r="B350" s="4"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -5963,7 +5693,7 @@
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A351" s="4"/>
+      <c r="A351" s="9"/>
       <c r="B351" s="4"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -5972,7 +5702,7 @@
       <c r="G351" s="1"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A352" s="4"/>
+      <c r="A352" s="9"/>
       <c r="B352" s="4"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -5981,7 +5711,7 @@
       <c r="G352" s="1"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A353" s="4"/>
+      <c r="A353" s="9"/>
       <c r="B353" s="4"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -5990,7 +5720,7 @@
       <c r="G353" s="1"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A354" s="4"/>
+      <c r="A354" s="9"/>
       <c r="B354" s="4"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -5999,7 +5729,7 @@
       <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A355" s="4"/>
+      <c r="A355" s="9"/>
       <c r="B355" s="4"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -6008,7 +5738,7 @@
       <c r="G355" s="1"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A356" s="4"/>
+      <c r="A356" s="9"/>
       <c r="B356" s="4"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -6017,7 +5747,7 @@
       <c r="G356" s="1"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A357" s="4"/>
+      <c r="A357" s="9"/>
       <c r="B357" s="4"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -6026,7 +5756,7 @@
       <c r="G357" s="1"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A358" s="4"/>
+      <c r="A358" s="9"/>
       <c r="B358" s="4"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -6035,7 +5765,7 @@
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A359" s="4"/>
+      <c r="A359" s="9"/>
       <c r="B359" s="4"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -6044,7 +5774,7 @@
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A360" s="4"/>
+      <c r="A360" s="9"/>
       <c r="B360" s="4"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -6053,7 +5783,7 @@
       <c r="G360" s="1"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A361" s="4"/>
+      <c r="A361" s="9"/>
       <c r="B361" s="4"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -6062,7 +5792,7 @@
       <c r="G361" s="1"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A362" s="4"/>
+      <c r="A362" s="9"/>
       <c r="B362" s="4"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -6071,7 +5801,7 @@
       <c r="G362" s="1"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A363" s="4"/>
+      <c r="A363" s="9"/>
       <c r="B363" s="4"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -6080,7 +5810,7 @@
       <c r="G363" s="1"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A364" s="4"/>
+      <c r="A364" s="9"/>
       <c r="B364" s="4"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -6089,7 +5819,7 @@
       <c r="G364" s="1"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A365" s="4"/>
+      <c r="A365" s="9"/>
       <c r="B365" s="4"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -6098,7 +5828,7 @@
       <c r="G365" s="1"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A366" s="4"/>
+      <c r="A366" s="9"/>
       <c r="B366" s="4"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -6107,7 +5837,7 @@
       <c r="G366" s="1"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A367" s="4"/>
+      <c r="A367" s="9"/>
       <c r="B367" s="4"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -6116,7 +5846,7 @@
       <c r="G367" s="1"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A368" s="4"/>
+      <c r="A368" s="9"/>
       <c r="B368" s="4"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -6125,7 +5855,7 @@
       <c r="G368" s="1"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A369" s="4"/>
+      <c r="A369" s="9"/>
       <c r="B369" s="4"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -6134,7 +5864,7 @@
       <c r="G369" s="1"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A370" s="4"/>
+      <c r="A370" s="9"/>
       <c r="B370" s="4"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -6143,7 +5873,7 @@
       <c r="G370" s="1"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A371" s="4"/>
+      <c r="A371" s="9"/>
       <c r="B371" s="4"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -6152,7 +5882,7 @@
       <c r="G371" s="1"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A372" s="4"/>
+      <c r="A372" s="9"/>
       <c r="B372" s="4"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -6161,7 +5891,7 @@
       <c r="G372" s="1"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A373" s="4"/>
+      <c r="A373" s="9"/>
       <c r="B373" s="4"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -6170,7 +5900,7 @@
       <c r="G373" s="1"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A374" s="4"/>
+      <c r="A374" s="9"/>
       <c r="B374" s="4"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -6179,7 +5909,7 @@
       <c r="G374" s="1"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A375" s="4"/>
+      <c r="A375" s="9"/>
       <c r="B375" s="4"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -6188,7 +5918,7 @@
       <c r="G375" s="1"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A376" s="4"/>
+      <c r="A376" s="9"/>
       <c r="B376" s="4"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -6197,7 +5927,7 @@
       <c r="G376" s="1"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A377" s="4"/>
+      <c r="A377" s="9"/>
       <c r="B377" s="4"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -6206,7 +5936,7 @@
       <c r="G377" s="1"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A378" s="4"/>
+      <c r="A378" s="9"/>
       <c r="B378" s="4"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -6215,7 +5945,7 @@
       <c r="G378" s="1"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A379" s="4"/>
+      <c r="A379" s="9"/>
       <c r="B379" s="4"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -6224,7 +5954,7 @@
       <c r="G379" s="1"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A380" s="4"/>
+      <c r="A380" s="9"/>
       <c r="B380" s="4"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -6233,7 +5963,7 @@
       <c r="G380" s="1"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A381" s="4"/>
+      <c r="A381" s="9"/>
       <c r="B381" s="4"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -6242,7 +5972,7 @@
       <c r="G381" s="1"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A382" s="4"/>
+      <c r="A382" s="9"/>
       <c r="B382" s="4"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -6251,7 +5981,7 @@
       <c r="G382" s="1"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A383" s="4"/>
+      <c r="A383" s="9"/>
       <c r="B383" s="4"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -6260,7 +5990,7 @@
       <c r="G383" s="1"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A384" s="4"/>
+      <c r="A384" s="9"/>
       <c r="B384" s="4"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -6269,7 +5999,7 @@
       <c r="G384" s="1"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A385" s="4"/>
+      <c r="A385" s="9"/>
       <c r="B385" s="4"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -6278,7 +6008,7 @@
       <c r="G385" s="1"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A386" s="4"/>
+      <c r="A386" s="9"/>
       <c r="B386" s="4"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -6287,7 +6017,7 @@
       <c r="G386" s="1"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A387" s="4"/>
+      <c r="A387" s="9"/>
       <c r="B387" s="4"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -6296,7 +6026,7 @@
       <c r="G387" s="1"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A388" s="4"/>
+      <c r="A388" s="9"/>
       <c r="B388" s="4"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -6305,7 +6035,7 @@
       <c r="G388" s="1"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A389" s="4"/>
+      <c r="A389" s="9"/>
       <c r="B389" s="4"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -6314,7 +6044,7 @@
       <c r="G389" s="1"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A390" s="4"/>
+      <c r="A390" s="9"/>
       <c r="B390" s="4"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -6323,7 +6053,7 @@
       <c r="G390" s="1"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A391" s="4"/>
+      <c r="A391" s="9"/>
       <c r="B391" s="4"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -6332,7 +6062,7 @@
       <c r="G391" s="1"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A392" s="4"/>
+      <c r="A392" s="9"/>
       <c r="B392" s="4"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -6341,7 +6071,7 @@
       <c r="G392" s="1"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A393" s="4"/>
+      <c r="A393" s="9"/>
       <c r="B393" s="4"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -6350,7 +6080,7 @@
       <c r="G393" s="1"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A394" s="4"/>
+      <c r="A394" s="9"/>
       <c r="B394" s="4"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -6359,7 +6089,7 @@
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A395" s="4"/>
+      <c r="A395" s="9"/>
       <c r="B395" s="4"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -6368,7 +6098,7 @@
       <c r="G395" s="1"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A396" s="4"/>
+      <c r="A396" s="9"/>
       <c r="B396" s="4"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -6377,7 +6107,7 @@
       <c r="G396" s="1"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A397" s="4"/>
+      <c r="A397" s="9"/>
       <c r="B397" s="4"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -6386,7 +6116,7 @@
       <c r="G397" s="1"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A398" s="4"/>
+      <c r="A398" s="9"/>
       <c r="B398" s="4"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -6395,7 +6125,7 @@
       <c r="G398" s="1"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A399" s="4"/>
+      <c r="A399" s="9"/>
       <c r="B399" s="4"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -6404,7 +6134,7 @@
       <c r="G399" s="1"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A400" s="4"/>
+      <c r="A400" s="9"/>
       <c r="B400" s="4"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -6413,7 +6143,7 @@
       <c r="G400" s="1"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A401" s="4"/>
+      <c r="A401" s="9"/>
       <c r="B401" s="4"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -6422,7 +6152,7 @@
       <c r="G401" s="1"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A402" s="4"/>
+      <c r="A402" s="9"/>
       <c r="B402" s="4"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -6431,7 +6161,7 @@
       <c r="G402" s="1"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A403" s="4"/>
+      <c r="A403" s="9"/>
       <c r="B403" s="4"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -6440,7 +6170,7 @@
       <c r="G403" s="1"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A404" s="4"/>
+      <c r="A404" s="9"/>
       <c r="B404" s="4"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -6449,7 +6179,7 @@
       <c r="G404" s="1"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A405" s="4"/>
+      <c r="A405" s="9"/>
       <c r="B405" s="4"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -6458,7 +6188,7 @@
       <c r="G405" s="1"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A406" s="4"/>
+      <c r="A406" s="9"/>
       <c r="B406" s="4"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -6467,7 +6197,7 @@
       <c r="G406" s="1"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A407" s="4"/>
+      <c r="A407" s="9"/>
       <c r="B407" s="4"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -6476,7 +6206,7 @@
       <c r="G407" s="1"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A408" s="4"/>
+      <c r="A408" s="9"/>
       <c r="B408" s="4"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -6485,7 +6215,7 @@
       <c r="G408" s="1"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A409" s="4"/>
+      <c r="A409" s="9"/>
       <c r="B409" s="4"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -6494,7 +6224,7 @@
       <c r="G409" s="1"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A410" s="4"/>
+      <c r="A410" s="9"/>
       <c r="B410" s="4"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -6503,7 +6233,7 @@
       <c r="G410" s="1"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A411" s="4"/>
+      <c r="A411" s="9"/>
       <c r="B411" s="4"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -6512,7 +6242,7 @@
       <c r="G411" s="1"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A412" s="4"/>
+      <c r="A412" s="9"/>
       <c r="B412" s="4"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -6521,7 +6251,7 @@
       <c r="G412" s="1"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A413" s="4"/>
+      <c r="A413" s="9"/>
       <c r="B413" s="4"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -6530,7 +6260,7 @@
       <c r="G413" s="1"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A414" s="4"/>
+      <c r="A414" s="9"/>
       <c r="B414" s="4"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -6539,7 +6269,7 @@
       <c r="G414" s="1"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A415" s="4"/>
+      <c r="A415" s="9"/>
       <c r="B415" s="4"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -6548,7 +6278,7 @@
       <c r="G415" s="1"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A416" s="4"/>
+      <c r="A416" s="9"/>
       <c r="B416" s="4"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -6557,7 +6287,7 @@
       <c r="G416" s="1"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A417" s="4"/>
+      <c r="A417" s="9"/>
       <c r="B417" s="4"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -6566,7 +6296,7 @@
       <c r="G417" s="1"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A418" s="4"/>
+      <c r="A418" s="9"/>
       <c r="B418" s="4"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -6575,7 +6305,7 @@
       <c r="G418" s="1"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A419" s="4"/>
+      <c r="A419" s="9"/>
       <c r="B419" s="4"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -6584,7 +6314,7 @@
       <c r="G419" s="1"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A420" s="4"/>
+      <c r="A420" s="9"/>
       <c r="B420" s="4"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -6593,7 +6323,7 @@
       <c r="G420" s="1"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A421" s="4"/>
+      <c r="A421" s="9"/>
       <c r="B421" s="4"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -6602,7 +6332,7 @@
       <c r="G421" s="1"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A422" s="4"/>
+      <c r="A422" s="9"/>
       <c r="B422" s="4"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -6611,7 +6341,7 @@
       <c r="G422" s="1"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A423" s="4"/>
+      <c r="A423" s="9"/>
       <c r="B423" s="4"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -6620,7 +6350,7 @@
       <c r="G423" s="1"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A424" s="4"/>
+      <c r="A424" s="9"/>
       <c r="B424" s="4"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -6629,7 +6359,7 @@
       <c r="G424" s="1"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A425" s="4"/>
+      <c r="A425" s="9"/>
       <c r="B425" s="4"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -6638,7 +6368,7 @@
       <c r="G425" s="1"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A426" s="4"/>
+      <c r="A426" s="9"/>
       <c r="B426" s="4"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -6647,7 +6377,7 @@
       <c r="G426" s="1"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A427" s="4"/>
+      <c r="A427" s="9"/>
       <c r="B427" s="4"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -6656,7 +6386,7 @@
       <c r="G427" s="1"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A428" s="4"/>
+      <c r="A428" s="9"/>
       <c r="B428" s="4"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -6665,7 +6395,7 @@
       <c r="G428" s="1"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A429" s="4"/>
+      <c r="A429" s="9"/>
       <c r="B429" s="4"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -6674,7 +6404,7 @@
       <c r="G429" s="1"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A430" s="4"/>
+      <c r="A430" s="9"/>
       <c r="B430" s="4"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -6683,7 +6413,7 @@
       <c r="G430" s="1"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A431" s="4"/>
+      <c r="A431" s="9"/>
       <c r="B431" s="4"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -6692,7 +6422,7 @@
       <c r="G431" s="1"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A432" s="4"/>
+      <c r="A432" s="9"/>
       <c r="B432" s="4"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -6701,7 +6431,7 @@
       <c r="G432" s="1"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A433" s="4"/>
+      <c r="A433" s="9"/>
       <c r="B433" s="4"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -6710,7 +6440,7 @@
       <c r="G433" s="1"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A434" s="4"/>
+      <c r="A434" s="9"/>
       <c r="B434" s="4"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -6719,7 +6449,7 @@
       <c r="G434" s="1"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A435" s="4"/>
+      <c r="A435" s="9"/>
       <c r="B435" s="4"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -6728,7 +6458,7 @@
       <c r="G435" s="1"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A436" s="4"/>
+      <c r="A436" s="9"/>
       <c r="B436" s="4"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -6737,7 +6467,7 @@
       <c r="G436" s="1"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A437" s="4"/>
+      <c r="A437" s="9"/>
       <c r="B437" s="4"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -6746,7 +6476,7 @@
       <c r="G437" s="1"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A438" s="4"/>
+      <c r="A438" s="9"/>
       <c r="B438" s="4"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -6755,7 +6485,7 @@
       <c r="G438" s="1"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A439" s="4"/>
+      <c r="A439" s="9"/>
       <c r="B439" s="4"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -6764,7 +6494,7 @@
       <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A440" s="4"/>
+      <c r="A440" s="9"/>
       <c r="B440" s="4"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -6783,7 +6513,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
@@ -6798,22 +6528,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6821,7 +6551,7 @@
         <v>45658</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C2" s="15">
         <v>120213.94599999956</v>
@@ -6841,7 +6571,7 @@
         <v>45659</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C3" s="15">
         <v>144284.73899999997</v>
@@ -6861,7 +6591,7 @@
         <v>45660</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C4" s="15">
         <v>54241.24</v>
@@ -6881,7 +6611,7 @@
         <v>45661</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C5" s="15">
         <v>144105.49999999965</v>
@@ -6901,7 +6631,7 @@
         <v>45901</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C6" s="15">
         <v>145618.50499999963</v>
@@ -6921,7 +6651,7 @@
         <v>45901</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C7" s="15">
         <v>142199.90199999968</v>
@@ -6941,7 +6671,7 @@
         <v>45901</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C8" s="15">
         <v>46497.199999999953</v>
@@ -6961,7 +6691,7 @@
         <v>45901</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C9" s="15">
         <v>113564.96000000006</v>
@@ -6981,7 +6711,7 @@
         <v>45871</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C10" s="15">
         <v>152879.68699999916</v>
@@ -7001,7 +6731,7 @@
         <v>45872</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C11" s="15">
         <v>169036.11999999965</v>
@@ -7021,7 +6751,7 @@
         <v>45873</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C12" s="15">
         <v>60594.68000000008</v>
@@ -7041,7 +6771,7 @@
         <v>45874</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C13" s="15">
         <v>139925.25999999983</v>
@@ -7061,7 +6791,7 @@
         <v>45694</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C14" s="15">
         <v>130899.43399999969</v>
@@ -7081,7 +6811,7 @@
         <v>45694</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C15" s="15">
         <v>138713.27200000023</v>
@@ -7101,7 +6831,7 @@
         <v>45694</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C16" s="15">
         <v>53889.840000000055</v>
@@ -7121,7 +6851,7 @@
         <v>45694</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C17" s="15">
         <v>125399.01999999999</v>
@@ -7141,7 +6871,7 @@
         <v>45722</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C18" s="15">
         <v>141804.27099999969</v>
@@ -7161,7 +6891,7 @@
         <v>45722</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C19" s="15">
         <v>156933.24800000002</v>
@@ -7181,7 +6911,7 @@
         <v>45722</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C20" s="15">
         <v>55724.920000000078</v>
@@ -7201,7 +6931,7 @@
         <v>45722</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C21" s="15">
         <v>140601.58000000002</v>
@@ -7221,7 +6951,7 @@
         <v>45753</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C22" s="15">
         <v>104547.96199999975</v>
@@ -7241,7 +6971,7 @@
         <v>45753</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C23" s="15">
         <v>148225.34999999928</v>
@@ -7261,7 +6991,7 @@
         <v>45753</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C24" s="15">
         <v>54411.500000000022</v>
@@ -7281,7 +7011,7 @@
         <v>45753</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C25" s="15">
         <v>134083.96000000034</v>
@@ -7301,7 +7031,7 @@
         <v>45783</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C26" s="15">
         <v>110586.98200000005</v>
@@ -7321,7 +7051,7 @@
         <v>45784</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C27" s="15">
         <v>165003.35900000029</v>
@@ -7341,7 +7071,7 @@
         <v>45785</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C28" s="15">
         <v>56749.460000000028</v>
@@ -7361,7 +7091,7 @@
         <v>45786</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C29" s="15">
         <v>137256.86000000002</v>
@@ -7381,7 +7111,7 @@
         <v>45817</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C30" s="15">
         <v>114030.86799999975</v>
@@ -7401,7 +7131,7 @@
         <v>45818</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C31" s="15">
         <v>158644.23099999933</v>
@@ -7421,7 +7151,7 @@
         <v>45819</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C32" s="15">
         <v>55061.939999999981</v>
@@ -7441,7 +7171,7 @@
         <v>45820</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C33" s="15">
         <v>132862.82000000012</v>
@@ -7461,7 +7191,7 @@
         <v>45850</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C34" s="15">
         <v>154879.25199999931</v>
@@ -7481,7 +7211,7 @@
         <v>45851</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C35" s="15">
         <v>180126.72599999953</v>
@@ -7501,7 +7231,7 @@
         <v>45852</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C36" s="15">
         <v>63801.56000000007</v>
@@ -7521,7 +7251,7 @@
         <v>45853</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C37" s="15">
         <v>148273.12000000002</v>
@@ -7541,7 +7271,7 @@
         <v>45946</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C38" s="15">
         <v>137042.18099999876</v>
@@ -7561,7 +7291,7 @@
         <v>45947</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C39" s="15">
         <v>137521.64100000018</v>
@@ -7581,7 +7311,7 @@
         <v>45948</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C40" s="15">
         <v>44139.899999999987</v>
@@ -7601,7 +7331,7 @@
         <v>45949</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C41" s="15">
         <v>110423.99999999983</v>
@@ -7621,7 +7351,7 @@
         <v>45981</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C42" s="14">
         <v>135965.66</v>
@@ -7641,7 +7371,7 @@
         <v>45982</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C43" s="14">
         <v>128261.47</v>
@@ -7661,7 +7391,7 @@
         <v>45983</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C44" s="14">
         <v>42835.4</v>
@@ -7681,7 +7411,7 @@
         <v>45984</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C45" s="14">
         <v>99398.82</v>
@@ -7701,7 +7431,7 @@
         <v>46015</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C46" s="15">
         <v>156495.56499999922</v>
@@ -7721,7 +7451,7 @@
         <v>46016</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C47" s="15">
         <v>124703.38900000002</v>
@@ -7741,7 +7471,7 @@
         <v>46017</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C48" s="15">
         <v>44799.039999999928</v>
@@ -7761,7 +7491,7 @@
         <v>46018</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C49" s="15">
         <v>100038.0000000001</v>
@@ -7781,7 +7511,7 @@
         <v>46042</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C50" s="15">
         <v>160938.26999999999</v>
@@ -7801,7 +7531,7 @@
         <v>46043</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C51" s="25">
         <v>176147.41699999999</v>
@@ -7821,7 +7551,7 @@
         <v>46044</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C52" s="25">
         <v>79815.808999999994</v>
@@ -7841,7 +7571,7 @@
         <v>46045</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C53" s="25">
         <v>162845.88800000001</v>
@@ -7867,7 +7597,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
@@ -7882,22 +7612,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7905,10 +7635,10 @@
         <v>45901</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1">
         <v>6846.8260000000055</v>
@@ -7926,10 +7656,10 @@
         <v>45902</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>6738.0859999999957</v>
@@ -7947,10 +7677,10 @@
         <v>45903</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>6427.5620000000026</v>
@@ -7968,10 +7698,10 @@
         <v>45904</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>5977.0030000000015</v>
@@ -7989,10 +7719,10 @@
         <v>45905</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>5655.2000000000007</v>
@@ -8010,10 +7740,10 @@
         <v>45906</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>5587.213999999999</v>
@@ -8031,10 +7761,10 @@
         <v>45907</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>5446.4260000000013</v>
@@ -8052,10 +7782,10 @@
         <v>45908</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>5395.2380000000003</v>
@@ -8073,10 +7803,10 @@
         <v>45909</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>5388.4640000000009</v>
@@ -8094,10 +7824,10 @@
         <v>45910</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1">
         <v>5329.6329999999998</v>
@@ -8115,10 +7845,10 @@
         <v>45911</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>5124.9309999999996</v>
@@ -8136,10 +7866,10 @@
         <v>45912</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1">
         <v>5104.0400000000018</v>
@@ -8157,10 +7887,10 @@
         <v>45913</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1">
         <v>5040.8310000000038</v>
@@ -8178,10 +7908,10 @@
         <v>45914</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1">
         <v>4951.6849999999986</v>
@@ -8199,10 +7929,10 @@
         <v>45915</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1">
         <v>4908.7199999999975</v>
@@ -8220,10 +7950,10 @@
         <v>45916</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1">
         <v>4863.0689999999995</v>
@@ -8241,10 +7971,10 @@
         <v>45917</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1">
         <v>4694.4699999999975</v>
@@ -8262,10 +7992,10 @@
         <v>45918</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1">
         <v>4657.5870000000014</v>
@@ -8283,10 +8013,10 @@
         <v>45919</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1">
         <v>4653.7999999999956</v>
@@ -8304,10 +8034,10 @@
         <v>45920</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1">
         <v>4589.1600000000017</v>
@@ -8325,10 +8055,10 @@
         <v>45890</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1">
         <v>7774.1670000000004</v>
@@ -8346,10 +8076,10 @@
         <v>45891</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1">
         <v>7509.2669999999989</v>
@@ -8367,10 +8097,10 @@
         <v>45892</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1">
         <v>6529.8100000000031</v>
@@ -8388,10 +8118,10 @@
         <v>45893</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1">
         <v>6392.5540000000001</v>
@@ -8409,10 +8139,10 @@
         <v>45894</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1">
         <v>6240.3350000000037</v>
@@ -8430,10 +8160,10 @@
         <v>45895</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1">
         <v>5933.8999999999978</v>
@@ -8451,10 +8181,10 @@
         <v>45896</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1">
         <v>5899.6409999999996</v>
@@ -8472,10 +8202,10 @@
         <v>45897</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1">
         <v>5845.5980000000009</v>
@@ -8493,10 +8223,10 @@
         <v>45898</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D30" s="1">
         <v>5765.8460000000032</v>
@@ -8514,10 +8244,10 @@
         <v>45899</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1">
         <v>5692.0220000000008</v>
@@ -8535,10 +8265,10 @@
         <v>45841</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1">
         <v>8279.7780000000039</v>
@@ -8556,10 +8286,10 @@
         <v>45842</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1">
         <v>7966.2190000000001</v>
@@ -8577,10 +8307,10 @@
         <v>45843</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1">
         <v>6972.8280000000004</v>
@@ -8598,10 +8328,10 @@
         <v>45844</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="D35" s="1">
         <v>6769.8060000000005</v>
@@ -8619,10 +8349,10 @@
         <v>45845</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D36" s="1">
         <v>6470.1500000000024</v>
@@ -8640,10 +8370,10 @@
         <v>45846</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1">
         <v>6329.952000000003</v>
@@ -8661,10 +8391,10 @@
         <v>45847</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D38" s="1">
         <v>6295.9800000000005</v>
@@ -8682,10 +8412,10 @@
         <v>45848</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1">
         <v>6262.3699999999981</v>
@@ -8703,10 +8433,10 @@
         <v>45819</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D40" s="7">
         <v>7228.9719999999998</v>
@@ -8724,10 +8454,10 @@
         <v>45820</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D41" s="7">
         <v>6946.9370000000017</v>
@@ -8745,10 +8475,10 @@
         <v>45821</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D42" s="7">
         <v>6167.3450000000039</v>
@@ -8766,10 +8496,10 @@
         <v>45822</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="D43" s="7">
         <v>5895.784999999998</v>
@@ -8787,10 +8517,10 @@
         <v>45823</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="D44" s="7">
         <v>5832.107</v>
@@ -8808,10 +8538,10 @@
         <v>45824</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D45" s="7">
         <v>5675.9550000000017</v>
@@ -8829,10 +8559,10 @@
         <v>45825</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="D46" s="7">
         <v>5550.420000000001</v>
@@ -8850,10 +8580,10 @@
         <v>45826</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D47" s="7">
         <v>5405.474000000002</v>
@@ -8871,10 +8601,10 @@
         <v>45796</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D48" s="7">
         <v>8876.9879999999957</v>
@@ -8892,10 +8622,10 @@
         <v>45797</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D49" s="7">
         <v>7881.9819999999972</v>
@@ -8913,10 +8643,10 @@
         <v>45798</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="D50" s="7">
         <v>7502.072000000001</v>
@@ -8934,10 +8664,10 @@
         <v>45799</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D51" s="7">
         <v>7333.8789999999999</v>
@@ -8955,10 +8685,10 @@
         <v>45800</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D52" s="7">
         <v>6472.2400000000007</v>
@@ -8976,10 +8706,10 @@
         <v>45801</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="D53" s="7">
         <v>5638.5669999999991</v>
@@ -8997,10 +8727,10 @@
         <v>45802</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D54" s="7">
         <v>5343.9630000000025</v>
@@ -9018,10 +8748,10 @@
         <v>45803</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="D55" s="7">
         <v>5343.7000000000035</v>
@@ -9039,10 +8769,10 @@
         <v>45754</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D56" s="7">
         <v>6997.0160000000024</v>
@@ -9060,10 +8790,10 @@
         <v>45754</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D57" s="7">
         <v>6692.0239999999958</v>
@@ -9081,10 +8811,10 @@
         <v>45754</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="D58" s="7">
         <v>6508.0019999999995</v>
@@ -9102,10 +8832,10 @@
         <v>45754</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D59" s="7">
         <v>6049.5960000000005</v>
@@ -9123,10 +8853,10 @@
         <v>45754</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="D60" s="7">
         <v>6002.58</v>
@@ -9144,10 +8874,10 @@
         <v>45754</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D61" s="7">
         <v>5260.849000000002</v>
@@ -9165,10 +8895,10 @@
         <v>45754</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D62" s="7">
         <v>5014.5709999999972</v>
@@ -9186,10 +8916,10 @@
         <v>45754</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="D63" s="7">
         <v>4837.1960000000008</v>
@@ -9207,10 +8937,10 @@
         <v>45724</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D64" s="7">
         <v>7549.9179999999978</v>
@@ -9228,10 +8958,10 @@
         <v>45724</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D65" s="7">
         <v>6864.1479999999992</v>
@@ -9249,10 +8979,10 @@
         <v>45724</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D66" s="7">
         <v>6814.5869999999968</v>
@@ -9270,10 +9000,10 @@
         <v>45724</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D67" s="7">
         <v>6771.3449999999957</v>
@@ -9291,10 +9021,10 @@
         <v>45724</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D68" s="7">
         <v>6247.6099999999951</v>
@@ -9312,10 +9042,10 @@
         <v>45724</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D69" s="7">
         <v>6122.2339999999949</v>
@@ -9333,10 +9063,10 @@
         <v>45724</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="D70" s="7">
         <v>6118.02</v>
@@ -9354,10 +9084,10 @@
         <v>45724</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="D71" s="7">
         <v>5879.9939999999979</v>
@@ -9375,10 +9105,10 @@
         <v>45697</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D72" s="7">
         <v>6623.4480000000003</v>
@@ -9396,10 +9126,10 @@
         <v>45698</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D73" s="7">
         <v>6096.9990000000007</v>
@@ -9417,10 +9147,10 @@
         <v>45699</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D74" s="7">
         <v>5951.6709999999985</v>
@@ -9438,10 +9168,10 @@
         <v>45700</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D75" s="7">
         <v>5919.3840000000027</v>
@@ -9459,10 +9189,10 @@
         <v>45701</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D76" s="7">
         <v>5528.0690000000013</v>
@@ -9480,10 +9210,10 @@
         <v>45702</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="D77" s="7">
         <v>5470.9070000000002</v>
@@ -9501,10 +9231,10 @@
         <v>45703</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D78" s="7">
         <v>5445.0800000000027</v>
@@ -9522,10 +9252,10 @@
         <v>45704</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D79" s="7">
         <v>5385.9720000000007</v>
@@ -9543,10 +9273,10 @@
         <v>45674</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D80" s="7">
         <v>6027.4990000000016</v>
@@ -9564,10 +9294,10 @@
         <v>45675</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="D81" s="7">
         <v>5907.101999999999</v>
@@ -9585,10 +9315,10 @@
         <v>45676</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="D82" s="7">
         <v>5903.7110000000021</v>
@@ -9606,10 +9336,10 @@
         <v>45677</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D83" s="7">
         <v>5687.555000000003</v>
@@ -9627,10 +9357,10 @@
         <v>45678</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D84" s="7">
         <v>5609.2339999999967</v>
@@ -9648,10 +9378,10 @@
         <v>45679</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D85" s="7">
         <v>5462.347999999999</v>
@@ -9669,10 +9399,10 @@
         <v>45680</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D86" s="7">
         <v>5446.4840000000031</v>
@@ -9690,10 +9420,10 @@
         <v>45681</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="D87" s="7">
         <v>5360.3080000000009</v>
@@ -9711,10 +9441,10 @@
         <v>45932</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D88" s="1">
         <v>6464.2200000000012</v>
@@ -9732,10 +9462,10 @@
         <v>45933</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="D89" s="1">
         <v>6029.7140000000045</v>
@@ -9753,10 +9483,10 @@
         <v>45934</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D90" s="1">
         <v>6017.4929999999995</v>
@@ -9774,10 +9504,10 @@
         <v>45935</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="D91" s="1">
         <v>5987.6540000000005</v>
@@ -9795,10 +9525,10 @@
         <v>45936</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D92" s="1">
         <v>5841.3279999999995</v>
@@ -9816,10 +9546,10 @@
         <v>45937</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="D93" s="1">
         <v>5537.5310000000018</v>
@@ -9837,10 +9567,10 @@
         <v>45938</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D94" s="1">
         <v>5528.3860000000013</v>
@@ -9858,10 +9588,10 @@
         <v>45939</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D95" s="1">
         <v>5506.4829999999984</v>
@@ -9879,10 +9609,10 @@
         <v>45940</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D96" s="1">
         <v>5282.5069999999996</v>
@@ -9900,10 +9630,10 @@
         <v>45941</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="D97" s="1">
         <v>5247.6970000000028</v>
@@ -9921,10 +9651,10 @@
         <v>45973</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D98" s="7">
         <v>5896.2929999999997</v>
@@ -9942,10 +9672,10 @@
         <v>45974</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D99" s="7">
         <v>5730.5070000000014</v>
@@ -9963,10 +9693,10 @@
         <v>45975</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D100" s="7">
         <v>5716.6359999999986</v>
@@ -9984,10 +9714,10 @@
         <v>45976</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="D101" s="7">
         <v>5457.9930000000013</v>
@@ -10005,10 +9735,10 @@
         <v>45977</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D102" s="7">
         <v>5428.4710000000005</v>
@@ -10026,10 +9756,10 @@
         <v>45978</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="D103" s="7">
         <v>5357.2280000000019</v>
@@ -10047,10 +9777,10 @@
         <v>45979</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="D104" s="7">
         <v>5346.1090000000013</v>
@@ -10068,10 +9798,10 @@
         <v>45980</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="D105" s="7">
         <v>5072.5409999999993</v>
@@ -10089,10 +9819,10 @@
         <v>45981</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="D106" s="7">
         <v>5040.6410000000014</v>
@@ -10110,10 +9840,10 @@
         <v>45982</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D107" s="7">
         <v>4977.1459999999961</v>
@@ -10131,10 +9861,10 @@
         <v>45983</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D108" s="7">
         <v>4926.3350000000009</v>
@@ -10152,10 +9882,10 @@
         <v>45984</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="D109" s="7">
         <v>4865.5689999999995</v>
@@ -10173,10 +9903,10 @@
         <v>45985</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="D110" s="7">
         <v>4853.6980000000021</v>
@@ -10194,10 +9924,10 @@
         <v>45986</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="D111" s="7">
         <v>4829.3449999999993</v>
@@ -10215,10 +9945,10 @@
         <v>45987</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="D112" s="7">
         <v>4741.9499999999962</v>
@@ -10236,10 +9966,10 @@
         <v>45988</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="D113" s="7">
         <v>4618.4680000000008</v>
@@ -10257,10 +9987,10 @@
         <v>45989</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D114" s="7">
         <v>4542.9400000000023</v>
@@ -10278,10 +10008,10 @@
         <v>45990</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D115" s="7">
         <v>4398.166000000002</v>
@@ -10299,10 +10029,10 @@
         <v>45991</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="D116" s="7">
         <v>4293.5199999999995</v>
@@ -10320,10 +10050,10 @@
         <v>45962</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D117" s="7">
         <v>4191.5629999999992</v>
@@ -10360,13 +10090,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -10374,7 +10104,7 @@
         <v>45901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C2" s="15">
         <v>54939.295000000013</v>
@@ -10385,7 +10115,7 @@
         <v>45902</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C3" s="15">
         <v>24536.197000000018</v>
@@ -10396,7 +10126,7 @@
         <v>45903</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="C4" s="15">
         <v>28528.709999999988</v>
@@ -10407,7 +10137,7 @@
         <v>45904</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C5" s="15">
         <v>10725.66499999999</v>
@@ -10418,7 +10148,7 @@
         <v>45905</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C6" s="15">
         <v>68032.578000000038</v>
@@ -10429,7 +10159,7 @@
         <v>45907</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C7" s="15">
         <v>66778.129000000015</v>
@@ -10440,7 +10170,7 @@
         <v>45908</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="C8" s="15">
         <v>178412.28999999992</v>
@@ -10451,7 +10181,7 @@
         <v>45909</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C9" s="15">
         <v>4885.5640000000021</v>
@@ -10462,7 +10192,7 @@
         <v>45910</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C10" s="15">
         <v>404.01500000000004</v>
@@ -10473,7 +10203,7 @@
         <v>45911</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C11" s="14">
         <v>10031.285000000007</v>
@@ -10484,7 +10214,7 @@
         <v>45912</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C12" s="14">
         <v>556.14099999999996</v>
@@ -10495,7 +10225,7 @@
         <v>45913</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C13" s="14">
         <v>50.697999999999993</v>
@@ -10506,7 +10236,7 @@
         <v>45883</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C14" s="20">
         <v>75524.076000000205</v>
@@ -10517,7 +10247,7 @@
         <v>45884</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C15" s="20">
         <v>28101.525999999994</v>
@@ -10528,7 +10258,7 @@
         <v>45885</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C16" s="20">
         <v>34219.557000000008</v>
@@ -10539,7 +10269,7 @@
         <v>45886</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C17" s="15">
         <v>11258.058999999999</v>
@@ -10550,7 +10280,7 @@
         <v>45887</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C18" s="15">
         <v>86036.677999999796</v>
@@ -10561,7 +10291,7 @@
         <v>45888</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15">
         <v>60828.45600000002</v>
@@ -10572,7 +10302,7 @@
         <v>45889</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C20" s="15">
         <v>10574.231000000002</v>
@@ -10583,7 +10313,7 @@
         <v>45890</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C21" s="15">
         <v>137126.10099999967</v>
@@ -10594,7 +10324,7 @@
         <v>45891</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C22" s="15">
         <v>6191.416000000002</v>
@@ -10605,7 +10335,7 @@
         <v>45892</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C23" s="15">
         <v>60487.229999999967</v>
@@ -10616,7 +10346,7 @@
         <v>45893</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C24" s="15">
         <v>11403.327999999996</v>
@@ -10627,7 +10357,7 @@
         <v>45894</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C25" s="15">
         <v>547.15800000000002</v>
@@ -10638,7 +10368,7 @@
         <v>45895</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C26" s="15">
         <v>118.032</v>
@@ -10649,7 +10379,7 @@
         <v>45896</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="C27" s="15">
         <v>19.899000000000001</v>
@@ -10660,7 +10390,7 @@
         <v>45866</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C28" s="15">
         <v>82285.824999999837</v>
@@ -10671,7 +10401,7 @@
         <v>45866</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C29" s="15">
         <v>34842.363000000005</v>
@@ -10682,7 +10412,7 @@
         <v>45866</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C30" s="15">
         <v>38487.192999999948</v>
@@ -10693,7 +10423,7 @@
         <v>45866</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C31" s="15">
         <v>14677.756999999994</v>
@@ -10704,7 +10434,7 @@
         <v>45866</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C32" s="15">
         <v>139046.67800000022</v>
@@ -10715,7 +10445,7 @@
         <v>45866</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C33" s="15">
         <v>47605.84699999998</v>
@@ -10726,7 +10456,7 @@
         <v>45866</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C34" s="15">
         <v>85729.513999999908</v>
@@ -10737,7 +10467,7 @@
         <v>45866</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C35" s="15">
         <v>59763.048999999912</v>
@@ -10748,7 +10478,7 @@
         <v>45866</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C36" s="15">
         <v>30963.34499999999</v>
@@ -10759,7 +10489,7 @@
         <v>45866</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C37" s="15">
         <v>6672.4420000000055</v>
@@ -10770,7 +10500,7 @@
         <v>45866</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C38" s="15">
         <v>5270.327000000002</v>
@@ -10781,7 +10511,7 @@
         <v>45866</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C39" s="15">
         <v>1514.5620000000006</v>
@@ -10792,7 +10522,7 @@
         <v>45866</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C40" s="15">
         <v>167.74100000000001</v>
@@ -10803,7 +10533,7 @@
         <v>45866</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="C41" s="15">
         <v>39.795000000000002</v>
@@ -10814,7 +10544,7 @@
         <v>45866</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="C42" s="15">
         <v>14.22</v>
@@ -10825,7 +10555,7 @@
         <v>45837</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C43" s="15">
         <v>74735.879000000044</v>
@@ -10836,7 +10566,7 @@
         <v>45837</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C44" s="15">
         <v>28853.434000000001</v>
@@ -10847,7 +10577,7 @@
         <v>45837</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15">
         <v>21278.684999999998</v>
@@ -10858,7 +10588,7 @@
         <v>45837</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C46" s="15">
         <v>12208.985000000002</v>
@@ -10869,7 +10599,7 @@
         <v>45837</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C47" s="15">
         <v>1131.3730000000003</v>
@@ -10880,7 +10610,7 @@
         <v>45837</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C48" s="15">
         <v>70434.532000000079</v>
@@ -10891,7 +10621,7 @@
         <v>45837</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C49" s="15">
         <v>127205.59499999997</v>
@@ -10902,7 +10632,7 @@
         <v>45837</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C50" s="15">
         <v>4115.4610000000002</v>
@@ -10913,7 +10643,7 @@
         <v>45837</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C51" s="15">
         <v>6092.369999999999</v>
@@ -10924,7 +10654,7 @@
         <v>45837</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C52" s="15">
         <v>57548.287000000048</v>
@@ -10935,7 +10665,7 @@
         <v>45837</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C53" s="15">
         <v>54305.242999999937</v>
@@ -10946,7 +10676,7 @@
         <v>45837</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C54" s="15">
         <v>2399.8160000000003</v>
@@ -10957,7 +10687,7 @@
         <v>45837</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="C55" s="15">
         <v>82.6</v>
@@ -10968,7 +10698,7 @@
         <v>45837</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C56" s="15">
         <v>207.59899999999999</v>
@@ -10979,7 +10709,7 @@
         <v>45780</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C57" s="14">
         <v>82561.000000000029</v>
@@ -10990,7 +10720,7 @@
         <v>45781</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C58" s="14">
         <v>26997.302999999964</v>
@@ -11001,7 +10731,7 @@
         <v>45782</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C59" s="14">
         <v>19158.298000000024</v>
@@ -11012,7 +10742,7 @@
         <v>45783</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C60" s="14">
         <v>12829.644</v>
@@ -11023,7 +10753,7 @@
         <v>45784</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C61" s="14">
         <v>59672.267999999887</v>
@@ -11034,7 +10764,7 @@
         <v>45785</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C62" s="14">
         <v>1694.8080000000007</v>
@@ -11045,7 +10775,7 @@
         <v>45786</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C63" s="14">
         <v>80509.540000000037</v>
@@ -11056,7 +10786,7 @@
         <v>45787</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C64" s="14">
         <v>122973.11900000028</v>
@@ -11067,7 +10797,7 @@
         <v>45788</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C65" s="14">
         <v>49760.569999999963</v>
@@ -11078,7 +10808,7 @@
         <v>45789</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C66" s="14">
         <v>6391.4669999999996</v>
@@ -11089,7 +10819,7 @@
         <v>45790</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C67" s="14">
         <v>4119.3390000000018</v>
@@ -11100,7 +10830,7 @@
         <v>45791</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C68" s="14">
         <v>586.06499999999994</v>
@@ -11111,7 +10841,7 @@
         <v>45792</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C69" s="14">
         <v>2343.2399999999998</v>
@@ -11122,7 +10852,7 @@
         <v>45763</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C70" s="14">
         <v>77323.399000000005</v>
@@ -11133,7 +10863,7 @@
         <v>45763</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C71" s="14">
         <v>26811.640999999974</v>
@@ -11144,7 +10874,7 @@
         <v>45763</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C72" s="14">
         <v>17376.701000000012</v>
@@ -11155,7 +10885,7 @@
         <v>45763</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C73" s="14">
         <v>11892.883000000003</v>
@@ -11166,7 +10896,7 @@
         <v>45763</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C74" s="14">
         <v>60037.924999999967</v>
@@ -11177,7 +10907,7 @@
         <v>45763</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C75" s="14">
         <v>62652.252000000015</v>
@@ -11188,7 +10918,7 @@
         <v>45763</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C76" s="14">
         <v>118933.97500000003</v>
@@ -11199,7 +10929,7 @@
         <v>45763</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C77" s="14">
         <v>52076.847999999998</v>
@@ -11210,7 +10940,7 @@
         <v>45763</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C78" s="14">
         <v>7854.1919999999991</v>
@@ -11221,7 +10951,7 @@
         <v>45763</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C79" s="14">
         <v>1076.9669999999999</v>
@@ -11232,7 +10962,7 @@
         <v>45763</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C80" s="14">
         <v>4204.3939999999993</v>
@@ -11243,7 +10973,7 @@
         <v>45763</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C81" s="14">
         <v>332.9969999999999</v>
@@ -11254,7 +10984,7 @@
         <v>45763</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C82" s="14">
         <v>694.59800000000007</v>
@@ -11265,7 +10995,7 @@
         <v>45733</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C83" s="14">
         <v>81087.636999999857</v>
@@ -11276,7 +11006,7 @@
         <v>45733</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C84" s="14">
         <v>30293.000999999975</v>
@@ -11287,7 +11017,7 @@
         <v>45733</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C85" s="14">
         <v>20508.054000000018</v>
@@ -11298,7 +11028,7 @@
         <v>45733</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C86" s="14">
         <v>12886.388999999996</v>
@@ -11309,7 +11039,7 @@
         <v>45733</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C87" s="14">
         <v>47808.189000000028</v>
@@ -11320,7 +11050,7 @@
         <v>45733</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C88" s="14">
         <v>63484.444000000156</v>
@@ -11331,7 +11061,7 @@
         <v>45733</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C89" s="14">
         <v>74947.046999999991</v>
@@ -11342,7 +11072,7 @@
         <v>45733</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C90" s="14">
         <v>139402.62799999976</v>
@@ -11353,7 +11083,7 @@
         <v>45733</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C91" s="14">
         <v>820.74800000000005</v>
@@ -11364,7 +11094,7 @@
         <v>45733</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C92" s="14">
         <v>4958.9290000000028</v>
@@ -11375,7 +11105,7 @@
         <v>45733</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C93" s="14">
         <v>18362.708999999999</v>
@@ -11386,7 +11116,7 @@
         <v>45733</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C94" s="14">
         <v>376.26999999999992</v>
@@ -11397,7 +11127,7 @@
         <v>45733</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C95" s="14">
         <v>127.97399999999999</v>
@@ -11408,7 +11138,7 @@
         <v>45706</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C96" s="14">
         <v>85175.902999999831</v>
@@ -11419,7 +11149,7 @@
         <v>45706</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C97" s="14">
         <v>24725.937999999966</v>
@@ -11430,7 +11160,7 @@
         <v>45706</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C98" s="14">
         <v>13398.610000000013</v>
@@ -11441,7 +11171,7 @@
         <v>45706</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C99" s="14">
         <v>13592.306999999997</v>
@@ -11452,7 +11182,7 @@
         <v>45706</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C100" s="14">
         <v>116665.62099999991</v>
@@ -11463,7 +11193,7 @@
         <v>45706</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C101" s="14">
         <v>49292.963999999964</v>
@@ -11474,7 +11204,7 @@
         <v>45706</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C102" s="14">
         <v>71581.923999999955</v>
@@ -11485,7 +11215,7 @@
         <v>45706</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C103" s="14">
         <v>51016.440000000075</v>
@@ -11496,7 +11226,7 @@
         <v>45706</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C104" s="14">
         <v>3946.0460000000012</v>
@@ -11507,7 +11237,7 @@
         <v>45706</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C105" s="14">
         <v>410.91100000000006</v>
@@ -11518,7 +11248,7 @@
         <v>45706</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C106" s="14">
         <v>176.02900000000002</v>
@@ -11529,7 +11259,7 @@
         <v>45706</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C107" s="14">
         <v>18183.478999999996</v>
@@ -11540,7 +11270,7 @@
         <v>45706</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C108" s="14">
         <v>735.39400000000012</v>
@@ -11551,7 +11281,7 @@
         <v>45676</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C109" s="14">
         <v>95155.333999999755</v>
@@ -11562,7 +11292,7 @@
         <v>45677</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C110" s="14">
         <v>23549.002999999986</v>
@@ -11573,7 +11303,7 @@
         <v>45678</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C111" s="14">
         <v>19990.507000000016</v>
@@ -11584,7 +11314,7 @@
         <v>45679</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C112" s="14">
         <v>13440.823000000009</v>
@@ -11595,7 +11325,7 @@
         <v>45680</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C113" s="14">
         <v>122879.18799999973</v>
@@ -11606,7 +11336,7 @@
         <v>45681</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C114" s="14">
         <v>71410.504999999961</v>
@@ -11617,7 +11347,7 @@
         <v>45682</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C115" s="14">
         <v>5113.0519999999997</v>
@@ -11628,7 +11358,7 @@
         <v>45683</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C116" s="14">
         <v>31043.732999999989</v>
@@ -11639,7 +11369,7 @@
         <v>45684</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C117" s="14">
         <v>53867.410999999956</v>
@@ -11650,7 +11380,7 @@
         <v>45685</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C118" s="14">
         <v>25461.305999999975</v>
@@ -11661,7 +11391,7 @@
         <v>45686</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C119" s="14">
         <v>227.227</v>
@@ -11672,7 +11402,7 @@
         <v>45687</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="C120" s="14">
         <v>17.64</v>
@@ -11683,7 +11413,7 @@
         <v>45660</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C121" s="14">
         <v>481.72199999999998</v>
@@ -11694,7 +11424,7 @@
         <v>45661</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C122" s="14">
         <v>207.97399999999999</v>
@@ -11705,7 +11435,7 @@
         <v>45935</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C123" s="15">
         <v>54456.730999999963</v>
@@ -11716,7 +11446,7 @@
         <v>45936</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C124" s="15">
         <v>24655.316999999995</v>
@@ -11727,7 +11457,7 @@
         <v>45937</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C125" s="15">
         <v>29006.10300000005</v>
@@ -11738,7 +11468,7 @@
         <v>45938</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C126" s="15">
         <v>9313.190000000006</v>
@@ -11749,7 +11479,7 @@
         <v>45939</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C127" s="15">
         <v>60563.448000000019</v>
@@ -11760,7 +11490,7 @@
         <v>45940</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C128" s="15">
         <v>111316.73399999998</v>
@@ -11771,7 +11501,7 @@
         <v>45941</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C129" s="15">
         <v>68208.707999999955</v>
@@ -11782,7 +11512,7 @@
         <v>45942</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C130" s="15">
         <v>1242.0840000000001</v>
@@ -11793,7 +11523,7 @@
         <v>45943</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C131" s="15">
         <v>57400.995999999963</v>
@@ -11804,7 +11534,7 @@
         <v>45944</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C132" s="15">
         <v>4929.6319999999996</v>
@@ -11815,7 +11545,7 @@
         <v>45945</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C133" s="15">
         <v>135.39400000000001</v>
@@ -11826,7 +11556,7 @@
         <v>45946</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C134" s="15">
         <v>6551.229000000003</v>
@@ -11837,7 +11567,7 @@
         <v>45947</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C135" s="15">
         <v>1348.1559999999999</v>
@@ -11848,7 +11578,7 @@
         <v>45979</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="C136" s="14">
         <v>46672.725000000013</v>
@@ -11859,7 +11589,7 @@
         <v>45980</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C137" s="14">
         <v>26550.827000000016</v>
@@ -11870,7 +11600,7 @@
         <v>45981</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C138" s="14">
         <v>29960.102999999977</v>
@@ -11881,7 +11611,7 @@
         <v>45982</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C139" s="14">
         <v>8209.368000000004</v>
@@ -11892,7 +11622,7 @@
         <v>45983</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C140" s="14">
         <v>103808.00500000028</v>
@@ -11903,7 +11633,7 @@
         <v>45984</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C141" s="14">
         <v>64079.183999999979</v>
@@ -11914,7 +11644,7 @@
         <v>45985</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C142" s="14">
         <v>54001.30999999999</v>
@@ -11925,7 +11655,7 @@
         <v>45986</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C143" s="14">
         <v>61041.626999999957</v>
@@ -11936,7 +11666,7 @@
         <v>45987</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C144" s="14">
         <v>3520.4360000000011</v>
@@ -11947,7 +11677,7 @@
         <v>45988</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C145" s="14">
         <v>5509.1930000000002</v>
@@ -11958,7 +11688,7 @@
         <v>45989</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C146" s="14">
         <v>621.23699999999985</v>
@@ -11969,7 +11699,7 @@
         <v>45990</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C147" s="14">
         <v>2326.9060000000009</v>
@@ -11980,7 +11710,7 @@
         <v>45991</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C148" s="14">
         <v>146.976</v>
@@ -11991,7 +11721,7 @@
         <v>45992</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="C149" s="14">
         <v>13.464</v>
@@ -12022,22 +11752,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12045,7 +11775,7 @@
         <v>45901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1">
         <v>317071.95499999891</v>
@@ -12065,7 +11795,7 @@
         <v>45902</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>130808.61199999967</v>
@@ -12085,7 +11815,7 @@
         <v>45872</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>381919.94700000284</v>
@@ -12105,7 +11835,7 @@
         <v>45873</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C5" s="13">
         <v>140515.79999999973</v>
@@ -12125,7 +11855,7 @@
         <v>45843</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>429027.57500000059</v>
@@ -12145,7 +11875,7 @@
         <v>45844</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>118053.08299999978</v>
@@ -12165,7 +11895,7 @@
         <v>45815</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>336926.99200000026</v>
@@ -12185,7 +11915,7 @@
         <v>45816</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7">
         <v>123672.86699999981</v>
@@ -12205,7 +11935,7 @@
         <v>45786</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>314969.8940000002</v>
@@ -12225,7 +11955,7 @@
         <v>45787</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>154626.76700000002</v>
@@ -12245,7 +11975,7 @@
         <v>45758</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>313215.11499999987</v>
@@ -12265,7 +11995,7 @@
         <v>45759</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>128053.6569999998</v>
@@ -12285,7 +12015,7 @@
         <v>45729</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>378034.97900000116</v>
@@ -12305,7 +12035,7 @@
         <v>45730</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>117029.04000000001</v>
@@ -12325,7 +12055,7 @@
         <v>45703</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>331528.76800000243</v>
@@ -12345,7 +12075,7 @@
         <v>45704</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>117372.79800000023</v>
@@ -12365,7 +12095,7 @@
         <v>45674</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>357204.47300000227</v>
@@ -12385,7 +12115,7 @@
         <v>45675</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>105640.95199999987</v>
@@ -12405,7 +12135,7 @@
         <v>45949</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <v>301582.70200000016</v>
@@ -12425,7 +12155,7 @@
         <v>45950</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>127545.01999999973</v>
@@ -12445,7 +12175,7 @@
         <v>45982</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>287248.82700000174</v>
@@ -12465,7 +12195,7 @@
         <v>45983</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7">
         <v>119212.53399999966</v>

--- a/data/hzsj.xlsx
+++ b/data/hzsj.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="171">
   <si>
     <t>充电时间</t>
   </si>
@@ -30,6 +30,267 @@
   </si>
   <si>
     <t>充电服务费(元)</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>2019-05</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>2019-07</t>
+  </si>
+  <si>
+    <t>2019-08</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-12</t>
+  </si>
+  <si>
+    <t>2020-01</t>
+  </si>
+  <si>
+    <t>2020-02</t>
+  </si>
+  <si>
+    <t>2020-03</t>
+  </si>
+  <si>
+    <t>2020-04</t>
+  </si>
+  <si>
+    <t>2020-05</t>
+  </si>
+  <si>
+    <t>2020-06</t>
+  </si>
+  <si>
+    <t>2020-07</t>
+  </si>
+  <si>
+    <t>2020-08</t>
+  </si>
+  <si>
+    <t>2020-09</t>
+  </si>
+  <si>
+    <t>2020-10</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>2020-12</t>
+  </si>
+  <si>
+    <t>2021-01</t>
+  </si>
+  <si>
+    <t>2021-02</t>
+  </si>
+  <si>
+    <t>2021-03</t>
+  </si>
+  <si>
+    <t>2021-04</t>
+  </si>
+  <si>
+    <t>2021-05</t>
+  </si>
+  <si>
+    <t>2021-06</t>
+  </si>
+  <si>
+    <t>2021-07</t>
+  </si>
+  <si>
+    <t>2021-08</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>2021-10</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-12</t>
+  </si>
+  <si>
+    <t>2022-01</t>
+  </si>
+  <si>
+    <t>2022-02</t>
+  </si>
+  <si>
+    <t>2022-03</t>
+  </si>
+  <si>
+    <t>2022-04</t>
+  </si>
+  <si>
+    <t>2022-05</t>
+  </si>
+  <si>
+    <t>2022-06</t>
+  </si>
+  <si>
+    <t>2022-07</t>
+  </si>
+  <si>
+    <t>2022-08</t>
+  </si>
+  <si>
+    <t>2022-09</t>
+  </si>
+  <si>
+    <t>2022-10</t>
+  </si>
+  <si>
+    <t>2022-11</t>
+  </si>
+  <si>
+    <t>2022-12</t>
+  </si>
+  <si>
+    <t>2023-01</t>
+  </si>
+  <si>
+    <t>2023-02</t>
+  </si>
+  <si>
+    <t>2023-03</t>
+  </si>
+  <si>
+    <t>2023-04</t>
+  </si>
+  <si>
+    <t>2023-05</t>
+  </si>
+  <si>
+    <t>2023-06</t>
+  </si>
+  <si>
+    <t>2023-07</t>
+  </si>
+  <si>
+    <t>2023-08</t>
+  </si>
+  <si>
+    <t>2023-09</t>
+  </si>
+  <si>
+    <t>2023-10</t>
+  </si>
+  <si>
+    <t>2023-11</t>
+  </si>
+  <si>
+    <t>2023-12</t>
+  </si>
+  <si>
+    <t>2024-01</t>
+  </si>
+  <si>
+    <t>2024-02</t>
+  </si>
+  <si>
+    <t>2024-03</t>
+  </si>
+  <si>
+    <t>2024-04</t>
+  </si>
+  <si>
+    <t>2024-05</t>
+  </si>
+  <si>
+    <t>2024-06</t>
+  </si>
+  <si>
+    <t>2024-07</t>
+  </si>
+  <si>
+    <t>2024-08</t>
+  </si>
+  <si>
+    <t>2024-09</t>
+  </si>
+  <si>
+    <t>2024-10</t>
+  </si>
+  <si>
+    <t>2024-11</t>
+  </si>
+  <si>
+    <t>2024-12</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
+  </si>
+  <si>
+    <t>2025-05</t>
+  </si>
+  <si>
+    <t>2025-06</t>
+  </si>
+  <si>
+    <t>2025-07</t>
+  </si>
+  <si>
+    <t>2025-08</t>
   </si>
   <si>
     <t>站点</t>
@@ -52,6 +313,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2025-09</t>
+  </si>
+  <si>
     <t>四方坪站</t>
   </si>
   <si>
@@ -259,6 +523,9 @@
     <t>四方坪西区</t>
   </si>
   <si>
+    <t>2025-10</t>
+  </si>
+  <si>
     <t>高岭充电站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,6 +534,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2025-11</t>
+  </si>
+  <si>
     <t>212号直流</t>
   </si>
   <si>
@@ -276,6 +546,9 @@
   <si>
     <t>南区充电站</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-12</t>
   </si>
 </sst>
 </file>
@@ -366,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,9 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,13 +1015,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" style="2" bestFit="1" customWidth="1"/>
@@ -766,11 +1036,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -782,18 +1052,18 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
-        <v>43252</v>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1">
         <v>276.08</v>
@@ -813,11 +1083,11 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
-        <v>43282</v>
+      <c r="A3" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1">
         <v>60171.720000000074</v>
@@ -837,11 +1107,11 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>43313</v>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1">
         <v>61781.849999999962</v>
@@ -861,11 +1131,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>43344</v>
+      <c r="A5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1">
         <v>94676.269999999713</v>
@@ -890,11 +1160,11 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>43374</v>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1">
         <v>120954.96999999981</v>
@@ -914,11 +1184,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>43405</v>
+      <c r="A7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1">
         <v>133453.96999999997</v>
@@ -940,11 +1210,11 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>43435</v>
+      <c r="A8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1">
         <v>155310.13000000009</v>
@@ -964,11 +1234,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>43466</v>
+      <c r="A9" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1">
         <v>140296.57000000015</v>
@@ -988,11 +1258,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>43497</v>
+      <c r="A10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1">
         <v>90221.229999999938</v>
@@ -1012,11 +1282,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>43525</v>
+      <c r="A11" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1">
         <v>128259.44000000009</v>
@@ -1036,11 +1306,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>43556</v>
+      <c r="A12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1">
         <v>186518.22000000032</v>
@@ -1060,11 +1330,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>43586</v>
+      <c r="A13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1">
         <v>208195.52000000005</v>
@@ -1084,11 +1354,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>43617</v>
+      <c r="A14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1">
         <v>207321.07999999955</v>
@@ -1108,11 +1378,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>43647</v>
+      <c r="A15" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1">
         <v>223550.75999999975</v>
@@ -1132,11 +1402,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>43678</v>
+      <c r="A16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1">
         <v>223592.69999999914</v>
@@ -1156,11 +1426,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>43709</v>
+      <c r="A17" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1">
         <v>188241.87999999995</v>
@@ -1180,11 +1450,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>43739</v>
+      <c r="A18" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1">
         <v>238037.90999999945</v>
@@ -1204,11 +1474,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>43770</v>
+      <c r="A19" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1">
         <v>291934.4999999986</v>
@@ -1228,11 +1498,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>43800</v>
+      <c r="A20" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1">
         <v>361481.67000000144</v>
@@ -1252,11 +1522,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>43831</v>
+      <c r="A21" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C21" s="18">
         <f>324029.82</f>
@@ -1279,11 +1549,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>43862</v>
+      <c r="A22" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1">
         <v>71232.629999999859</v>
@@ -1304,11 +1574,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
-        <v>43891</v>
+      <c r="A23" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1">
         <v>171210.18000000034</v>
@@ -1328,11 +1598,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
-        <v>43922</v>
+      <c r="A24" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1">
         <v>221773.39000000004</v>
@@ -1352,11 +1622,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
-        <v>43952</v>
+      <c r="A25" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1">
         <v>209015.27000000031</v>
@@ -1376,11 +1646,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>43983</v>
+      <c r="A26" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1">
         <v>266563.71000000072</v>
@@ -1400,11 +1670,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>44013</v>
+      <c r="A27" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1">
         <v>277446.12999999971</v>
@@ -1424,11 +1694,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>44044</v>
+      <c r="A28" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1">
         <v>388725.31999999826</v>
@@ -1448,11 +1718,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>44075</v>
+      <c r="A29" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1">
         <v>327347.20000000001</v>
@@ -1472,11 +1742,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>44105</v>
+      <c r="A30" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1">
         <v>337917.21000000183</v>
@@ -1496,11 +1766,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>44136</v>
+      <c r="A31" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1">
         <v>416971.15000000142</v>
@@ -1520,11 +1790,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>44166</v>
+      <c r="A32" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1">
         <v>568188.53900000243</v>
@@ -1544,11 +1814,11 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>44197</v>
+      <c r="A33" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1">
         <f>538319.98+57.2</f>
@@ -1572,11 +1842,11 @@
       <c r="J33" s="24"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>44228</v>
+      <c r="A34" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1">
         <v>350926.49400000152</v>
@@ -1597,11 +1867,11 @@
       <c r="K34" s="24"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>44256</v>
+      <c r="A35" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C35" s="1">
         <v>353745.77899999841</v>
@@ -1621,11 +1891,11 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>44287</v>
+      <c r="A36" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1">
         <v>284140.44400000083</v>
@@ -1647,11 +1917,11 @@
       <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>44317</v>
+      <c r="A37" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1">
         <v>329970.87800000008</v>
@@ -1671,11 +1941,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>44348</v>
+      <c r="A38" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C38" s="1">
         <v>521034.7840000001</v>
@@ -1695,11 +1965,11 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
-        <v>44378</v>
+      <c r="A39" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1">
         <v>667085.79699999967</v>
@@ -1719,11 +1989,11 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>44409</v>
+      <c r="A40" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1">
         <v>370120.30400000105</v>
@@ -1743,11 +2013,11 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>44440</v>
+      <c r="A41" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1">
         <v>390662.89099999919</v>
@@ -1767,11 +2037,11 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>44470</v>
+      <c r="A42" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>328815.68100000039</v>
@@ -1791,11 +2061,11 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
-        <v>44501</v>
+      <c r="A43" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1">
         <v>328662.25099999987</v>
@@ -1815,11 +2085,11 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
-        <v>44531</v>
+      <c r="A44" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C44" s="1">
         <v>419732.66699999961</v>
@@ -1839,11 +2109,11 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="9">
-        <v>44562</v>
+      <c r="A45" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1">
         <v>466563.12699999998</v>
@@ -1863,11 +2133,11 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="9">
-        <v>44593</v>
+      <c r="A46" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1">
         <v>369842.09899999981</v>
@@ -1887,11 +2157,11 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="9">
-        <v>44621</v>
+      <c r="A47" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C47" s="1">
         <v>390410.73700000125</v>
@@ -1911,11 +2181,11 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="9">
-        <v>44652</v>
+      <c r="A48" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1">
         <v>384633.24399999896</v>
@@ -1935,11 +2205,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="9">
-        <v>44682</v>
+      <c r="A49" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1">
         <v>432236.52799999912</v>
@@ -1959,11 +2229,11 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="9">
-        <v>44713</v>
+      <c r="A50" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1">
         <v>480696.82300000201</v>
@@ -1983,11 +2253,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="9">
-        <v>44743</v>
+      <c r="A51" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C51" s="1">
         <v>540693.31500000332</v>
@@ -2007,11 +2277,11 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="9">
-        <v>44774</v>
+      <c r="A52" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C52" s="1">
         <v>550673.11999999988</v>
@@ -2031,11 +2301,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="9">
-        <v>44805</v>
+      <c r="A53" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1">
         <v>416275.09300000145</v>
@@ -2055,11 +2325,11 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="9">
-        <v>44835</v>
+      <c r="A54" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C54" s="1">
         <v>373518.10800000158</v>
@@ -2079,11 +2349,11 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="9">
-        <v>44866</v>
+      <c r="A55" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C55" s="1">
         <v>367617.62999999966</v>
@@ -2103,11 +2373,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="9">
-        <v>44896</v>
+      <c r="A56" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C56" s="1">
         <v>363429.61099999945</v>
@@ -2127,11 +2397,11 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="9">
-        <v>44927</v>
+      <c r="A57" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C57" s="1">
         <v>308208.74899999989</v>
@@ -2151,11 +2421,11 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="9">
-        <v>44958</v>
+      <c r="A58" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1">
         <v>421405.62000000081</v>
@@ -2175,11 +2445,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="9">
-        <v>44986</v>
+      <c r="A59" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C59" s="1">
         <v>449170.92499999941</v>
@@ -2199,11 +2469,11 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="9">
-        <v>45017</v>
+      <c r="A60" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C60" s="1">
         <v>431602.59000000008</v>
@@ -2223,11 +2493,11 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="9">
-        <v>45047</v>
+      <c r="A61" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C61" s="1">
         <v>432741.64299999847</v>
@@ -2247,11 +2517,11 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="9">
-        <v>45078</v>
+      <c r="A62" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C62" s="1">
         <v>430446.36099999736</v>
@@ -2271,11 +2541,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="9">
-        <v>45108</v>
+      <c r="A63" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C63" s="1">
         <v>500972.23800000071</v>
@@ -2295,11 +2565,11 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="9">
-        <v>45139</v>
+      <c r="A64" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1">
         <v>489071.34400000138</v>
@@ -2319,11 +2589,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="9">
-        <v>45170</v>
+      <c r="A65" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C65" s="1">
         <v>395557.42599999788</v>
@@ -2343,11 +2613,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="9">
-        <v>45200</v>
+      <c r="A66" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1">
         <v>359924.54199999914</v>
@@ -2367,11 +2637,11 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="9">
-        <v>45231</v>
+      <c r="A67" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C67" s="1">
         <v>401043.42400000076</v>
@@ -2391,11 +2661,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="9">
-        <v>45261</v>
+      <c r="A68" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C68" s="1">
         <v>455952.43099999928</v>
@@ -2415,11 +2685,11 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="9">
-        <v>45292</v>
+      <c r="A69" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1">
         <v>486138.51200000383</v>
@@ -2439,11 +2709,11 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="9">
-        <v>45323</v>
+      <c r="A70" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1">
         <v>393714.60999999876</v>
@@ -2463,11 +2733,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="9">
-        <v>45352</v>
+      <c r="A71" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C71" s="1">
         <v>454076.01800000225</v>
@@ -2487,11 +2757,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="9">
-        <v>45383</v>
+      <c r="A72" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C72" s="1">
         <v>412115.89000000339</v>
@@ -2511,11 +2781,11 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="9">
-        <v>45413</v>
+      <c r="A73" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C73" s="1">
         <v>454351.75999999943</v>
@@ -2535,11 +2805,11 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="9">
-        <v>45444</v>
+      <c r="A74" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1">
         <v>469512.21199999721</v>
@@ -2559,11 +2829,11 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="9">
-        <v>45474</v>
+      <c r="A75" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C75" s="1">
         <v>590679.42099999997</v>
@@ -2583,11 +2853,11 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="9">
-        <v>45505</v>
+      <c r="A76" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C76" s="1">
         <v>572501.16000000085</v>
@@ -2607,11 +2877,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="9">
-        <v>45536</v>
+      <c r="A77" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C77" s="1">
         <v>478145.82499999902</v>
@@ -2631,11 +2901,11 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="9">
-        <v>45566</v>
+      <c r="A78" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C78" s="1">
         <v>409208.91099999961</v>
@@ -2655,11 +2925,11 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="9">
-        <v>45597</v>
+      <c r="A79" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C79" s="1">
         <v>389860.41600000142</v>
@@ -2679,11 +2949,11 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="9">
-        <v>45627</v>
+      <c r="A80" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C80" s="1">
         <v>415888.10000000073</v>
@@ -2703,11 +2973,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="9">
-        <v>45658</v>
+      <c r="A81" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C81" s="1">
         <v>359353.55699999986</v>
@@ -2727,11 +2997,11 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="9">
-        <v>45689</v>
+      <c r="A82" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C82" s="1">
         <v>333239.72800000024</v>
@@ -2751,11 +3021,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="9">
-        <v>45717</v>
+      <c r="A83" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C83" s="1">
         <v>370662.16199999995</v>
@@ -2775,11 +3045,11 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="9">
-        <v>45748</v>
+      <c r="A84" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C84" s="1">
         <v>352885.06299999851</v>
@@ -2799,11 +3069,11 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="9">
-        <v>45778</v>
+      <c r="A85" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C85" s="1">
         <v>359974.39199999953</v>
@@ -2823,11 +3093,11 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="9">
-        <v>45809</v>
+      <c r="A86" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C86" s="1">
         <v>347102.27</v>
@@ -2847,11 +3117,11 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="9">
-        <v>45839</v>
+      <c r="A87" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C87" s="1">
         <v>393120.00899999798</v>
@@ -2871,11 +3141,11 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="9">
-        <v>45870</v>
+      <c r="A88" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C88" s="1">
         <v>370346.40000000125</v>
@@ -2895,11 +3165,11 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="9">
-        <v>45292</v>
+      <c r="A89" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C89" s="1">
         <v>32624.94</v>
@@ -2919,11 +3189,11 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="9">
-        <v>45323</v>
+      <c r="A90" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C90" s="1">
         <v>42533.06</v>
@@ -2943,11 +3213,11 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="9">
-        <v>45352</v>
+      <c r="A91" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C91" s="1">
         <v>123846.48</v>
@@ -2967,11 +3237,11 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="9">
-        <v>45383</v>
+      <c r="A92" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C92" s="1">
         <v>110084.38</v>
@@ -2991,11 +3261,11 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="9">
-        <v>45413</v>
+      <c r="A93" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C93" s="1">
         <v>114575.17</v>
@@ -3015,11 +3285,11 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="9">
-        <v>45444</v>
+      <c r="A94" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C94" s="1">
         <v>88227.65</v>
@@ -3039,11 +3309,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="9">
-        <v>45474</v>
+      <c r="A95" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C95" s="1">
         <v>113359.26</v>
@@ -3063,11 +3333,11 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="9">
-        <v>45505</v>
+      <c r="A96" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C96" s="1">
         <v>116919.03</v>
@@ -3087,11 +3357,11 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="9">
-        <v>45536</v>
+      <c r="A97" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>99918.5</v>
@@ -3111,11 +3381,11 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="9">
-        <v>45566</v>
+      <c r="A98" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C98" s="1">
         <v>93083.08</v>
@@ -3135,11 +3405,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="9">
-        <v>45597</v>
+      <c r="A99" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C99" s="1">
         <v>97247.07</v>
@@ -3159,11 +3429,11 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="9">
-        <v>45627</v>
+      <c r="A100" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C100" s="1">
         <v>116110.63</v>
@@ -3183,11 +3453,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="9">
-        <v>45658</v>
+      <c r="A101" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C101" s="1">
         <v>120379.6</v>
@@ -3207,11 +3477,11 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="9">
-        <v>45689</v>
+      <c r="A102" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C102" s="1">
         <v>131023.95</v>
@@ -3231,11 +3501,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="9">
-        <v>45717</v>
+      <c r="A103" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C103" s="1">
         <v>142329.75</v>
@@ -3255,11 +3525,11 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="9">
-        <v>45748</v>
+      <c r="A104" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C104" s="1">
         <v>104999.88</v>
@@ -3279,11 +3549,11 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="9">
-        <v>45778</v>
+      <c r="A105" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C105" s="1">
         <v>110916.35</v>
@@ -3303,11 +3573,11 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="9">
-        <v>45809</v>
+      <c r="A106" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C106" s="1">
         <v>114309.06</v>
@@ -3327,11 +3597,11 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="9">
-        <v>45839</v>
+      <c r="A107" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C107" s="1">
         <v>155319.34</v>
@@ -3351,11 +3621,11 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="9">
-        <v>45870</v>
+      <c r="A108" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C108" s="1">
         <v>153275.94</v>
@@ -3375,11 +3645,11 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="9">
-        <v>45901</v>
+      <c r="A109" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C109" s="1">
         <v>302262.06</v>
@@ -3398,11 +3668,11 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="9">
-        <v>45901</v>
+      <c r="A110" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C110" s="1">
         <v>145618.5</v>
@@ -3421,11 +3691,11 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" s="9">
-        <v>45931</v>
+      <c r="A111" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C111" s="1">
         <v>292085.53999999998</v>
@@ -3444,11 +3714,11 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="9">
-        <v>45931</v>
+      <c r="A112" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C112" s="1">
         <v>137042.18</v>
@@ -3467,11 +3737,11 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="9">
-        <v>45962</v>
+      <c r="A113" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C113" s="1">
         <v>270495.69</v>
@@ -3490,11 +3760,11 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" s="9">
-        <v>45962</v>
+      <c r="A114" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C114" s="1">
         <v>135965.66</v>
@@ -3513,11 +3783,11 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" s="9">
-        <v>45992</v>
+      <c r="A115" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C115" s="1">
         <v>276668.06</v>
@@ -3536,11 +3806,11 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116" s="9">
-        <v>45992</v>
+      <c r="A116" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C116" s="1">
         <v>156495.57</v>
@@ -3563,7 +3833,7 @@
         <v>46023</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C117" s="1">
         <v>419557.75</v>
@@ -3586,7 +3856,7 @@
         <v>46023</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C118" s="1">
         <v>160938.26999999999</v>
@@ -3605,7 +3875,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119" s="9"/>
+      <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3614,7 +3884,7 @@
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="9"/>
+      <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3623,7 +3893,7 @@
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121" s="9"/>
+      <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3632,7 +3902,7 @@
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="9"/>
+      <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3641,7 +3911,7 @@
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123" s="9"/>
+      <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3650,7 +3920,7 @@
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" s="9"/>
+      <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3659,7 +3929,7 @@
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="9"/>
+      <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3668,7 +3938,7 @@
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" s="9"/>
+      <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3677,7 +3947,7 @@
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" s="9"/>
+      <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3686,7 +3956,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128" s="9"/>
+      <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3695,7 +3965,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="9"/>
+      <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3704,7 +3974,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="9"/>
+      <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3713,7 +3983,7 @@
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A131" s="9"/>
+      <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3722,7 +3992,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A132" s="9"/>
+      <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3731,7 +4001,7 @@
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="9"/>
+      <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3740,7 +4010,7 @@
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="9"/>
+      <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3749,7 +4019,7 @@
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="9"/>
+      <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3758,7 +4028,7 @@
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="9"/>
+      <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3767,7 +4037,7 @@
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A137" s="9"/>
+      <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3776,7 +4046,7 @@
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A138" s="9"/>
+      <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3785,7 +4055,7 @@
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A139" s="9"/>
+      <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3794,7 +4064,7 @@
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A140" s="9"/>
+      <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3803,7 +4073,7 @@
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A141" s="9"/>
+      <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3812,7 +4082,7 @@
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A142" s="9"/>
+      <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3821,7 +4091,7 @@
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A143" s="9"/>
+      <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3830,7 +4100,7 @@
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A144" s="9"/>
+      <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3839,7 +4109,7 @@
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A145" s="9"/>
+      <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3848,7 +4118,7 @@
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A146" s="9"/>
+      <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3857,7 +4127,7 @@
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A147" s="9"/>
+      <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3866,7 +4136,7 @@
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A148" s="9"/>
+      <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3875,7 +4145,7 @@
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A149" s="9"/>
+      <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3884,7 +4154,7 @@
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A150" s="9"/>
+      <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3893,7 +4163,7 @@
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A151" s="9"/>
+      <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3902,7 +4172,7 @@
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A152" s="9"/>
+      <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3911,7 +4181,7 @@
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A153" s="9"/>
+      <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3920,7 +4190,7 @@
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A154" s="9"/>
+      <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3929,7 +4199,7 @@
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A155" s="9"/>
+      <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3938,7 +4208,7 @@
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A156" s="9"/>
+      <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3947,7 +4217,7 @@
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A157" s="9"/>
+      <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3956,7 +4226,7 @@
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A158" s="9"/>
+      <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3965,7 +4235,7 @@
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A159" s="9"/>
+      <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3974,7 +4244,7 @@
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A160" s="9"/>
+      <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3983,7 +4253,7 @@
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A161" s="9"/>
+      <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3992,7 +4262,7 @@
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A162" s="9"/>
+      <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -4001,7 +4271,7 @@
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A163" s="9"/>
+      <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -4010,7 +4280,7 @@
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A164" s="9"/>
+      <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4019,7 +4289,7 @@
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A165" s="9"/>
+      <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -4028,7 +4298,7 @@
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A166" s="9"/>
+      <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4037,7 +4307,7 @@
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A167" s="9"/>
+      <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4046,7 +4316,7 @@
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A168" s="9"/>
+      <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4055,7 +4325,7 @@
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A169" s="9"/>
+      <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4064,7 +4334,7 @@
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A170" s="9"/>
+      <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4073,7 +4343,7 @@
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A171" s="9"/>
+      <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4082,7 +4352,7 @@
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A172" s="9"/>
+      <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4091,7 +4361,7 @@
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A173" s="9"/>
+      <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4100,7 +4370,7 @@
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A174" s="9"/>
+      <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4109,7 +4379,7 @@
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A175" s="9"/>
+      <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4118,7 +4388,7 @@
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A176" s="9"/>
+      <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4127,7 +4397,7 @@
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A177" s="9"/>
+      <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4136,7 +4406,7 @@
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A178" s="9"/>
+      <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4145,7 +4415,7 @@
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A179" s="9"/>
+      <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4154,7 +4424,7 @@
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A180" s="9"/>
+      <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4163,7 +4433,7 @@
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A181" s="9"/>
+      <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4172,7 +4442,7 @@
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A182" s="9"/>
+      <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4181,7 +4451,7 @@
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A183" s="9"/>
+      <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4190,7 +4460,7 @@
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A184" s="9"/>
+      <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4199,7 +4469,7 @@
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A185" s="9"/>
+      <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4208,7 +4478,7 @@
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A186" s="9"/>
+      <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4217,7 +4487,7 @@
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A187" s="9"/>
+      <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4226,7 +4496,7 @@
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A188" s="9"/>
+      <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4235,7 +4505,7 @@
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A189" s="9"/>
+      <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4244,7 +4514,7 @@
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A190" s="9"/>
+      <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4253,7 +4523,7 @@
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="9"/>
+      <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4262,7 +4532,7 @@
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" s="9"/>
+      <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4271,7 +4541,7 @@
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A193" s="9"/>
+      <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4280,7 +4550,7 @@
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A194" s="9"/>
+      <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4289,7 +4559,7 @@
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A195" s="9"/>
+      <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -4298,7 +4568,7 @@
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A196" s="9"/>
+      <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4307,7 +4577,7 @@
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A197" s="9"/>
+      <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -4316,7 +4586,7 @@
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A198" s="9"/>
+      <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -4325,7 +4595,7 @@
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A199" s="9"/>
+      <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -4334,7 +4604,7 @@
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A200" s="9"/>
+      <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4343,7 +4613,7 @@
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A201" s="9"/>
+      <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -4352,7 +4622,7 @@
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A202" s="9"/>
+      <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -4361,7 +4631,7 @@
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A203" s="9"/>
+      <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -4370,7 +4640,7 @@
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A204" s="9"/>
+      <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4379,7 +4649,7 @@
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A205" s="9"/>
+      <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -4388,7 +4658,7 @@
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A206" s="9"/>
+      <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -4397,7 +4667,7 @@
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A207" s="9"/>
+      <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -4406,7 +4676,7 @@
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A208" s="9"/>
+      <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -4415,7 +4685,7 @@
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A209" s="9"/>
+      <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -4424,7 +4694,7 @@
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A210" s="9"/>
+      <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -4433,7 +4703,7 @@
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A211" s="9"/>
+      <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -4442,7 +4712,7 @@
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A212" s="9"/>
+      <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4451,7 +4721,7 @@
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A213" s="9"/>
+      <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -4460,7 +4730,7 @@
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A214" s="9"/>
+      <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -4469,7 +4739,7 @@
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A215" s="9"/>
+      <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -4478,7 +4748,7 @@
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A216" s="9"/>
+      <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -4487,7 +4757,7 @@
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A217" s="9"/>
+      <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -4496,7 +4766,7 @@
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A218" s="9"/>
+      <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -4505,7 +4775,7 @@
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A219" s="9"/>
+      <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -4514,7 +4784,7 @@
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A220" s="9"/>
+      <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -4523,7 +4793,7 @@
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A221" s="9"/>
+      <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -4532,7 +4802,7 @@
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A222" s="9"/>
+      <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -4541,7 +4811,7 @@
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A223" s="9"/>
+      <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -4550,7 +4820,7 @@
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A224" s="9"/>
+      <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -4559,7 +4829,7 @@
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A225" s="9"/>
+      <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -4568,7 +4838,7 @@
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A226" s="9"/>
+      <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -4577,7 +4847,7 @@
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A227" s="9"/>
+      <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -4586,7 +4856,7 @@
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A228" s="9"/>
+      <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -4595,7 +4865,7 @@
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A229" s="9"/>
+      <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -4604,7 +4874,7 @@
       <c r="G229" s="1"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A230" s="9"/>
+      <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -4613,7 +4883,7 @@
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A231" s="9"/>
+      <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -4622,7 +4892,7 @@
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A232" s="9"/>
+      <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -4631,7 +4901,7 @@
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A233" s="9"/>
+      <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -4640,7 +4910,7 @@
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A234" s="9"/>
+      <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -4649,7 +4919,7 @@
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A235" s="9"/>
+      <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -4658,7 +4928,7 @@
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A236" s="9"/>
+      <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -4667,7 +4937,7 @@
       <c r="G236" s="1"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A237" s="9"/>
+      <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -4676,7 +4946,7 @@
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A238" s="9"/>
+      <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -4685,7 +4955,7 @@
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A239" s="9"/>
+      <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -4694,7 +4964,7 @@
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A240" s="9"/>
+      <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -4703,7 +4973,7 @@
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A241" s="9"/>
+      <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -4712,7 +4982,7 @@
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A242" s="9"/>
+      <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -4721,7 +4991,7 @@
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A243" s="9"/>
+      <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -4730,7 +5000,7 @@
       <c r="G243" s="1"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A244" s="9"/>
+      <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -4739,7 +5009,7 @@
       <c r="G244" s="1"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A245" s="9"/>
+      <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -4748,7 +5018,7 @@
       <c r="G245" s="1"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A246" s="9"/>
+      <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -4757,7 +5027,7 @@
       <c r="G246" s="1"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A247" s="9"/>
+      <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -4766,7 +5036,7 @@
       <c r="G247" s="1"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A248" s="9"/>
+      <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -4775,7 +5045,7 @@
       <c r="G248" s="1"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A249" s="9"/>
+      <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -4784,7 +5054,7 @@
       <c r="G249" s="1"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A250" s="9"/>
+      <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -4793,7 +5063,7 @@
       <c r="G250" s="1"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A251" s="9"/>
+      <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -4802,7 +5072,7 @@
       <c r="G251" s="1"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A252" s="9"/>
+      <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -4811,7 +5081,7 @@
       <c r="G252" s="1"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A253" s="9"/>
+      <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -4820,7 +5090,7 @@
       <c r="G253" s="1"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A254" s="9"/>
+      <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -4829,7 +5099,7 @@
       <c r="G254" s="1"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A255" s="9"/>
+      <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -4838,7 +5108,7 @@
       <c r="G255" s="1"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A256" s="9"/>
+      <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -4847,7 +5117,7 @@
       <c r="G256" s="1"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A257" s="9"/>
+      <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -4856,7 +5126,7 @@
       <c r="G257" s="1"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A258" s="9"/>
+      <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -4865,7 +5135,7 @@
       <c r="G258" s="1"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A259" s="9"/>
+      <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -4874,7 +5144,7 @@
       <c r="G259" s="1"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A260" s="9"/>
+      <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -4883,7 +5153,7 @@
       <c r="G260" s="1"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A261" s="9"/>
+      <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -4892,7 +5162,7 @@
       <c r="G261" s="1"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A262" s="9"/>
+      <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -4901,7 +5171,7 @@
       <c r="G262" s="1"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A263" s="9"/>
+      <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -4910,7 +5180,7 @@
       <c r="G263" s="1"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A264" s="9"/>
+      <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -4919,7 +5189,7 @@
       <c r="G264" s="1"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A265" s="9"/>
+      <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -4928,7 +5198,7 @@
       <c r="G265" s="1"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A266" s="9"/>
+      <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -4937,7 +5207,7 @@
       <c r="G266" s="1"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A267" s="9"/>
+      <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -4946,7 +5216,7 @@
       <c r="G267" s="1"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A268" s="9"/>
+      <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -4955,7 +5225,7 @@
       <c r="G268" s="1"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A269" s="9"/>
+      <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -4964,7 +5234,7 @@
       <c r="G269" s="1"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A270" s="9"/>
+      <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -4973,7 +5243,7 @@
       <c r="G270" s="1"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A271" s="9"/>
+      <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -4982,7 +5252,7 @@
       <c r="G271" s="1"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A272" s="9"/>
+      <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -4991,7 +5261,7 @@
       <c r="G272" s="1"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A273" s="9"/>
+      <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -5000,7 +5270,7 @@
       <c r="G273" s="1"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A274" s="9"/>
+      <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -5009,7 +5279,7 @@
       <c r="G274" s="1"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A275" s="9"/>
+      <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -5018,7 +5288,7 @@
       <c r="G275" s="1"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A276" s="9"/>
+      <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -5027,7 +5297,7 @@
       <c r="G276" s="1"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A277" s="9"/>
+      <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -5036,7 +5306,7 @@
       <c r="G277" s="1"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A278" s="9"/>
+      <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -5045,7 +5315,7 @@
       <c r="G278" s="1"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A279" s="9"/>
+      <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -5054,7 +5324,7 @@
       <c r="G279" s="1"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A280" s="9"/>
+      <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -5063,7 +5333,7 @@
       <c r="G280" s="1"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A281" s="9"/>
+      <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -5072,7 +5342,7 @@
       <c r="G281" s="1"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A282" s="9"/>
+      <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -5081,7 +5351,7 @@
       <c r="G282" s="1"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A283" s="9"/>
+      <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -5090,7 +5360,7 @@
       <c r="G283" s="1"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A284" s="9"/>
+      <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -5099,7 +5369,7 @@
       <c r="G284" s="1"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A285" s="9"/>
+      <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -5108,7 +5378,7 @@
       <c r="G285" s="1"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A286" s="9"/>
+      <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -5117,7 +5387,7 @@
       <c r="G286" s="1"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A287" s="9"/>
+      <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -5126,7 +5396,7 @@
       <c r="G287" s="1"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A288" s="9"/>
+      <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -5135,7 +5405,7 @@
       <c r="G288" s="1"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A289" s="9"/>
+      <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -5144,7 +5414,7 @@
       <c r="G289" s="1"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A290" s="9"/>
+      <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -5153,7 +5423,7 @@
       <c r="G290" s="1"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A291" s="9"/>
+      <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -5162,7 +5432,7 @@
       <c r="G291" s="1"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A292" s="9"/>
+      <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -5171,7 +5441,7 @@
       <c r="G292" s="1"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A293" s="9"/>
+      <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -5180,7 +5450,7 @@
       <c r="G293" s="1"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A294" s="9"/>
+      <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -5189,7 +5459,7 @@
       <c r="G294" s="1"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A295" s="9"/>
+      <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -5198,7 +5468,7 @@
       <c r="G295" s="1"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A296" s="9"/>
+      <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -5207,7 +5477,7 @@
       <c r="G296" s="1"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A297" s="9"/>
+      <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -5216,7 +5486,7 @@
       <c r="G297" s="1"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A298" s="9"/>
+      <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -5225,7 +5495,7 @@
       <c r="G298" s="1"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A299" s="9"/>
+      <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -5234,7 +5504,7 @@
       <c r="G299" s="1"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A300" s="9"/>
+      <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -5243,7 +5513,7 @@
       <c r="G300" s="1"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A301" s="9"/>
+      <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -5252,7 +5522,7 @@
       <c r="G301" s="1"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A302" s="9"/>
+      <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -5261,7 +5531,7 @@
       <c r="G302" s="1"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A303" s="9"/>
+      <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -5270,7 +5540,7 @@
       <c r="G303" s="1"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A304" s="9"/>
+      <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -5279,7 +5549,7 @@
       <c r="G304" s="1"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A305" s="9"/>
+      <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -5288,7 +5558,7 @@
       <c r="G305" s="1"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A306" s="9"/>
+      <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -5297,7 +5567,7 @@
       <c r="G306" s="1"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A307" s="9"/>
+      <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -5306,7 +5576,7 @@
       <c r="G307" s="1"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A308" s="9"/>
+      <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -5315,7 +5585,7 @@
       <c r="G308" s="1"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A309" s="9"/>
+      <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -5324,7 +5594,7 @@
       <c r="G309" s="1"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A310" s="9"/>
+      <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -5333,7 +5603,7 @@
       <c r="G310" s="1"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A311" s="9"/>
+      <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -5342,7 +5612,7 @@
       <c r="G311" s="1"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A312" s="9"/>
+      <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -5351,7 +5621,7 @@
       <c r="G312" s="1"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A313" s="9"/>
+      <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -5360,7 +5630,7 @@
       <c r="G313" s="1"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A314" s="9"/>
+      <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -5369,7 +5639,7 @@
       <c r="G314" s="1"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A315" s="9"/>
+      <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -5378,7 +5648,7 @@
       <c r="G315" s="1"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A316" s="9"/>
+      <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -5387,7 +5657,7 @@
       <c r="G316" s="1"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A317" s="9"/>
+      <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -5396,7 +5666,7 @@
       <c r="G317" s="1"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A318" s="9"/>
+      <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -5405,7 +5675,7 @@
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A319" s="9"/>
+      <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -5414,7 +5684,7 @@
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A320" s="9"/>
+      <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -5423,7 +5693,7 @@
       <c r="G320" s="1"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A321" s="9"/>
+      <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -5432,7 +5702,7 @@
       <c r="G321" s="1"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A322" s="9"/>
+      <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -5441,7 +5711,7 @@
       <c r="G322" s="1"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A323" s="9"/>
+      <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -5450,7 +5720,7 @@
       <c r="G323" s="1"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A324" s="9"/>
+      <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -5459,7 +5729,7 @@
       <c r="G324" s="1"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A325" s="9"/>
+      <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -5468,7 +5738,7 @@
       <c r="G325" s="1"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A326" s="9"/>
+      <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -5477,7 +5747,7 @@
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A327" s="9"/>
+      <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -5486,7 +5756,7 @@
       <c r="G327" s="1"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A328" s="9"/>
+      <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -5495,7 +5765,7 @@
       <c r="G328" s="1"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A329" s="9"/>
+      <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -5504,7 +5774,7 @@
       <c r="G329" s="1"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A330" s="9"/>
+      <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -5513,7 +5783,7 @@
       <c r="G330" s="1"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A331" s="9"/>
+      <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -5522,7 +5792,7 @@
       <c r="G331" s="1"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A332" s="9"/>
+      <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -5531,7 +5801,7 @@
       <c r="G332" s="1"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A333" s="9"/>
+      <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -5540,7 +5810,7 @@
       <c r="G333" s="1"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A334" s="9"/>
+      <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -5549,7 +5819,7 @@
       <c r="G334" s="1"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A335" s="9"/>
+      <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -5558,7 +5828,7 @@
       <c r="G335" s="1"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A336" s="9"/>
+      <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -5567,7 +5837,7 @@
       <c r="G336" s="1"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A337" s="9"/>
+      <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -5576,7 +5846,7 @@
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A338" s="9"/>
+      <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -5585,7 +5855,7 @@
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A339" s="9"/>
+      <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -5594,7 +5864,7 @@
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A340" s="9"/>
+      <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -5603,7 +5873,7 @@
       <c r="G340" s="1"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A341" s="9"/>
+      <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -5612,7 +5882,7 @@
       <c r="G341" s="1"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A342" s="9"/>
+      <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -5621,7 +5891,7 @@
       <c r="G342" s="1"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A343" s="9"/>
+      <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -5630,7 +5900,7 @@
       <c r="G343" s="1"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A344" s="9"/>
+      <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -5639,7 +5909,7 @@
       <c r="G344" s="1"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A345" s="9"/>
+      <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -5648,7 +5918,7 @@
       <c r="G345" s="1"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A346" s="9"/>
+      <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -5657,7 +5927,7 @@
       <c r="G346" s="1"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A347" s="9"/>
+      <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -5666,7 +5936,7 @@
       <c r="G347" s="1"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A348" s="9"/>
+      <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -5675,7 +5945,7 @@
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A349" s="9"/>
+      <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -5684,7 +5954,7 @@
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A350" s="9"/>
+      <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -5693,7 +5963,7 @@
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A351" s="9"/>
+      <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -5702,7 +5972,7 @@
       <c r="G351" s="1"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A352" s="9"/>
+      <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -5711,7 +5981,7 @@
       <c r="G352" s="1"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A353" s="9"/>
+      <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -5720,7 +5990,7 @@
       <c r="G353" s="1"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A354" s="9"/>
+      <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -5729,7 +5999,7 @@
       <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A355" s="9"/>
+      <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -5738,7 +6008,7 @@
       <c r="G355" s="1"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A356" s="9"/>
+      <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -5747,7 +6017,7 @@
       <c r="G356" s="1"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A357" s="9"/>
+      <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -5756,7 +6026,7 @@
       <c r="G357" s="1"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A358" s="9"/>
+      <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -5765,7 +6035,7 @@
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A359" s="9"/>
+      <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -5774,7 +6044,7 @@
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A360" s="9"/>
+      <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -5783,7 +6053,7 @@
       <c r="G360" s="1"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A361" s="9"/>
+      <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -5792,7 +6062,7 @@
       <c r="G361" s="1"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A362" s="9"/>
+      <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -5801,7 +6071,7 @@
       <c r="G362" s="1"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A363" s="9"/>
+      <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -5810,7 +6080,7 @@
       <c r="G363" s="1"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A364" s="9"/>
+      <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -5819,7 +6089,7 @@
       <c r="G364" s="1"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A365" s="9"/>
+      <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -5828,7 +6098,7 @@
       <c r="G365" s="1"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A366" s="9"/>
+      <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -5837,7 +6107,7 @@
       <c r="G366" s="1"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A367" s="9"/>
+      <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -5846,7 +6116,7 @@
       <c r="G367" s="1"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A368" s="9"/>
+      <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -5855,7 +6125,7 @@
       <c r="G368" s="1"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A369" s="9"/>
+      <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -5864,7 +6134,7 @@
       <c r="G369" s="1"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A370" s="9"/>
+      <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -5873,7 +6143,7 @@
       <c r="G370" s="1"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A371" s="9"/>
+      <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -5882,7 +6152,7 @@
       <c r="G371" s="1"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A372" s="9"/>
+      <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -5891,7 +6161,7 @@
       <c r="G372" s="1"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A373" s="9"/>
+      <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -5900,7 +6170,7 @@
       <c r="G373" s="1"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A374" s="9"/>
+      <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -5909,7 +6179,7 @@
       <c r="G374" s="1"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A375" s="9"/>
+      <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -5918,7 +6188,7 @@
       <c r="G375" s="1"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A376" s="9"/>
+      <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -5927,7 +6197,7 @@
       <c r="G376" s="1"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A377" s="9"/>
+      <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -5936,7 +6206,7 @@
       <c r="G377" s="1"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A378" s="9"/>
+      <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -5945,7 +6215,7 @@
       <c r="G378" s="1"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A379" s="9"/>
+      <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -5954,7 +6224,7 @@
       <c r="G379" s="1"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A380" s="9"/>
+      <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -5963,7 +6233,7 @@
       <c r="G380" s="1"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A381" s="9"/>
+      <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -5972,7 +6242,7 @@
       <c r="G381" s="1"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A382" s="9"/>
+      <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -5981,7 +6251,7 @@
       <c r="G382" s="1"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A383" s="9"/>
+      <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -5990,7 +6260,7 @@
       <c r="G383" s="1"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A384" s="9"/>
+      <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -5999,7 +6269,7 @@
       <c r="G384" s="1"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A385" s="9"/>
+      <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -6008,7 +6278,7 @@
       <c r="G385" s="1"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A386" s="9"/>
+      <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -6017,7 +6287,7 @@
       <c r="G386" s="1"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A387" s="9"/>
+      <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -6026,7 +6296,7 @@
       <c r="G387" s="1"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A388" s="9"/>
+      <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -6035,7 +6305,7 @@
       <c r="G388" s="1"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A389" s="9"/>
+      <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -6044,7 +6314,7 @@
       <c r="G389" s="1"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A390" s="9"/>
+      <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -6053,7 +6323,7 @@
       <c r="G390" s="1"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A391" s="9"/>
+      <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -6062,7 +6332,7 @@
       <c r="G391" s="1"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A392" s="9"/>
+      <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -6071,7 +6341,7 @@
       <c r="G392" s="1"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A393" s="9"/>
+      <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -6080,7 +6350,7 @@
       <c r="G393" s="1"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A394" s="9"/>
+      <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -6089,7 +6359,7 @@
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A395" s="9"/>
+      <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -6098,7 +6368,7 @@
       <c r="G395" s="1"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A396" s="9"/>
+      <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -6107,7 +6377,7 @@
       <c r="G396" s="1"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A397" s="9"/>
+      <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -6116,7 +6386,7 @@
       <c r="G397" s="1"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A398" s="9"/>
+      <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -6125,7 +6395,7 @@
       <c r="G398" s="1"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A399" s="9"/>
+      <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -6134,7 +6404,7 @@
       <c r="G399" s="1"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A400" s="9"/>
+      <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -6143,7 +6413,7 @@
       <c r="G400" s="1"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A401" s="9"/>
+      <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -6152,7 +6422,7 @@
       <c r="G401" s="1"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A402" s="9"/>
+      <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -6161,7 +6431,7 @@
       <c r="G402" s="1"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A403" s="9"/>
+      <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -6170,7 +6440,7 @@
       <c r="G403" s="1"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A404" s="9"/>
+      <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -6179,7 +6449,7 @@
       <c r="G404" s="1"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A405" s="9"/>
+      <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -6188,7 +6458,7 @@
       <c r="G405" s="1"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A406" s="9"/>
+      <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -6197,7 +6467,7 @@
       <c r="G406" s="1"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A407" s="9"/>
+      <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -6206,7 +6476,7 @@
       <c r="G407" s="1"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A408" s="9"/>
+      <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -6215,7 +6485,7 @@
       <c r="G408" s="1"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A409" s="9"/>
+      <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -6224,7 +6494,7 @@
       <c r="G409" s="1"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A410" s="9"/>
+      <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -6233,7 +6503,7 @@
       <c r="G410" s="1"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A411" s="9"/>
+      <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -6242,7 +6512,7 @@
       <c r="G411" s="1"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A412" s="9"/>
+      <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -6251,7 +6521,7 @@
       <c r="G412" s="1"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A413" s="9"/>
+      <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -6260,7 +6530,7 @@
       <c r="G413" s="1"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A414" s="9"/>
+      <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -6269,7 +6539,7 @@
       <c r="G414" s="1"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A415" s="9"/>
+      <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -6278,7 +6548,7 @@
       <c r="G415" s="1"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A416" s="9"/>
+      <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -6287,7 +6557,7 @@
       <c r="G416" s="1"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A417" s="9"/>
+      <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -6296,7 +6566,7 @@
       <c r="G417" s="1"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A418" s="9"/>
+      <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -6305,7 +6575,7 @@
       <c r="G418" s="1"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A419" s="9"/>
+      <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -6314,7 +6584,7 @@
       <c r="G419" s="1"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A420" s="9"/>
+      <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -6323,7 +6593,7 @@
       <c r="G420" s="1"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A421" s="9"/>
+      <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -6332,7 +6602,7 @@
       <c r="G421" s="1"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A422" s="9"/>
+      <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -6341,7 +6611,7 @@
       <c r="G422" s="1"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A423" s="9"/>
+      <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -6350,7 +6620,7 @@
       <c r="G423" s="1"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A424" s="9"/>
+      <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -6359,7 +6629,7 @@
       <c r="G424" s="1"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A425" s="9"/>
+      <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -6368,7 +6638,7 @@
       <c r="G425" s="1"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A426" s="9"/>
+      <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -6377,7 +6647,7 @@
       <c r="G426" s="1"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A427" s="9"/>
+      <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -6386,7 +6656,7 @@
       <c r="G427" s="1"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A428" s="9"/>
+      <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -6395,7 +6665,7 @@
       <c r="G428" s="1"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A429" s="9"/>
+      <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -6404,7 +6674,7 @@
       <c r="G429" s="1"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A430" s="9"/>
+      <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -6413,7 +6683,7 @@
       <c r="G430" s="1"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A431" s="9"/>
+      <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -6422,7 +6692,7 @@
       <c r="G431" s="1"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A432" s="9"/>
+      <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -6431,7 +6701,7 @@
       <c r="G432" s="1"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A433" s="9"/>
+      <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -6440,7 +6710,7 @@
       <c r="G433" s="1"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A434" s="9"/>
+      <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -6449,7 +6719,7 @@
       <c r="G434" s="1"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A435" s="9"/>
+      <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -6458,7 +6728,7 @@
       <c r="G435" s="1"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A436" s="9"/>
+      <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -6467,7 +6737,7 @@
       <c r="G436" s="1"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A437" s="9"/>
+      <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -6476,7 +6746,7 @@
       <c r="G437" s="1"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A438" s="9"/>
+      <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -6485,7 +6755,7 @@
       <c r="G438" s="1"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A439" s="9"/>
+      <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -6494,7 +6764,7 @@
       <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A440" s="9"/>
+      <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -6528,22 +6798,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6551,7 +6821,7 @@
         <v>45658</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C2" s="15">
         <v>120213.94599999956</v>
@@ -6571,7 +6841,7 @@
         <v>45659</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C3" s="15">
         <v>144284.73899999997</v>
@@ -6591,7 +6861,7 @@
         <v>45660</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C4" s="15">
         <v>54241.24</v>
@@ -6611,7 +6881,7 @@
         <v>45661</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C5" s="15">
         <v>144105.49999999965</v>
@@ -6631,7 +6901,7 @@
         <v>45901</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C6" s="15">
         <v>145618.50499999963</v>
@@ -6651,7 +6921,7 @@
         <v>45901</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C7" s="15">
         <v>142199.90199999968</v>
@@ -6671,7 +6941,7 @@
         <v>45901</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C8" s="15">
         <v>46497.199999999953</v>
@@ -6691,7 +6961,7 @@
         <v>45901</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C9" s="15">
         <v>113564.96000000006</v>
@@ -6711,7 +6981,7 @@
         <v>45871</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C10" s="15">
         <v>152879.68699999916</v>
@@ -6731,7 +7001,7 @@
         <v>45872</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C11" s="15">
         <v>169036.11999999965</v>
@@ -6751,7 +7021,7 @@
         <v>45873</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C12" s="15">
         <v>60594.68000000008</v>
@@ -6771,7 +7041,7 @@
         <v>45874</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C13" s="15">
         <v>139925.25999999983</v>
@@ -6791,7 +7061,7 @@
         <v>45694</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C14" s="15">
         <v>130899.43399999969</v>
@@ -6811,7 +7081,7 @@
         <v>45694</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C15" s="15">
         <v>138713.27200000023</v>
@@ -6831,7 +7101,7 @@
         <v>45694</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C16" s="15">
         <v>53889.840000000055</v>
@@ -6851,7 +7121,7 @@
         <v>45694</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C17" s="15">
         <v>125399.01999999999</v>
@@ -6871,7 +7141,7 @@
         <v>45722</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C18" s="15">
         <v>141804.27099999969</v>
@@ -6891,7 +7161,7 @@
         <v>45722</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C19" s="15">
         <v>156933.24800000002</v>
@@ -6911,7 +7181,7 @@
         <v>45722</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C20" s="15">
         <v>55724.920000000078</v>
@@ -6931,7 +7201,7 @@
         <v>45722</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C21" s="15">
         <v>140601.58000000002</v>
@@ -6951,7 +7221,7 @@
         <v>45753</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C22" s="15">
         <v>104547.96199999975</v>
@@ -6971,7 +7241,7 @@
         <v>45753</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C23" s="15">
         <v>148225.34999999928</v>
@@ -6991,7 +7261,7 @@
         <v>45753</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C24" s="15">
         <v>54411.500000000022</v>
@@ -7011,7 +7281,7 @@
         <v>45753</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C25" s="15">
         <v>134083.96000000034</v>
@@ -7031,7 +7301,7 @@
         <v>45783</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C26" s="15">
         <v>110586.98200000005</v>
@@ -7051,7 +7321,7 @@
         <v>45784</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C27" s="15">
         <v>165003.35900000029</v>
@@ -7071,7 +7341,7 @@
         <v>45785</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C28" s="15">
         <v>56749.460000000028</v>
@@ -7091,7 +7361,7 @@
         <v>45786</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C29" s="15">
         <v>137256.86000000002</v>
@@ -7111,7 +7381,7 @@
         <v>45817</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C30" s="15">
         <v>114030.86799999975</v>
@@ -7131,7 +7401,7 @@
         <v>45818</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C31" s="15">
         <v>158644.23099999933</v>
@@ -7151,7 +7421,7 @@
         <v>45819</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C32" s="15">
         <v>55061.939999999981</v>
@@ -7171,7 +7441,7 @@
         <v>45820</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C33" s="15">
         <v>132862.82000000012</v>
@@ -7191,7 +7461,7 @@
         <v>45850</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C34" s="15">
         <v>154879.25199999931</v>
@@ -7211,7 +7481,7 @@
         <v>45851</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C35" s="15">
         <v>180126.72599999953</v>
@@ -7231,7 +7501,7 @@
         <v>45852</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C36" s="15">
         <v>63801.56000000007</v>
@@ -7251,7 +7521,7 @@
         <v>45853</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C37" s="15">
         <v>148273.12000000002</v>
@@ -7271,7 +7541,7 @@
         <v>45946</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C38" s="15">
         <v>137042.18099999876</v>
@@ -7291,7 +7561,7 @@
         <v>45947</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C39" s="15">
         <v>137521.64100000018</v>
@@ -7311,7 +7581,7 @@
         <v>45948</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C40" s="15">
         <v>44139.899999999987</v>
@@ -7331,7 +7601,7 @@
         <v>45949</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C41" s="15">
         <v>110423.99999999983</v>
@@ -7351,7 +7621,7 @@
         <v>45981</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C42" s="14">
         <v>135965.66</v>
@@ -7371,7 +7641,7 @@
         <v>45982</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C43" s="14">
         <v>128261.47</v>
@@ -7391,7 +7661,7 @@
         <v>45983</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C44" s="14">
         <v>42835.4</v>
@@ -7411,7 +7681,7 @@
         <v>45984</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C45" s="14">
         <v>99398.82</v>
@@ -7431,7 +7701,7 @@
         <v>46015</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C46" s="15">
         <v>156495.56499999922</v>
@@ -7451,7 +7721,7 @@
         <v>46016</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C47" s="15">
         <v>124703.38900000002</v>
@@ -7471,7 +7741,7 @@
         <v>46017</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C48" s="15">
         <v>44799.039999999928</v>
@@ -7491,7 +7761,7 @@
         <v>46018</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C49" s="15">
         <v>100038.0000000001</v>
@@ -7511,7 +7781,7 @@
         <v>46042</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C50" s="15">
         <v>160938.26999999999</v>
@@ -7531,7 +7801,7 @@
         <v>46043</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C51" s="25">
         <v>176147.41699999999</v>
@@ -7551,7 +7821,7 @@
         <v>46044</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C52" s="25">
         <v>79815.808999999994</v>
@@ -7571,7 +7841,7 @@
         <v>46045</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C53" s="25">
         <v>162845.88800000001</v>
@@ -7597,7 +7867,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
@@ -7612,22 +7882,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7635,10 +7905,10 @@
         <v>45901</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1">
         <v>6846.8260000000055</v>
@@ -7656,10 +7926,10 @@
         <v>45902</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1">
         <v>6738.0859999999957</v>
@@ -7677,10 +7947,10 @@
         <v>45903</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1">
         <v>6427.5620000000026</v>
@@ -7698,10 +7968,10 @@
         <v>45904</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1">
         <v>5977.0030000000015</v>
@@ -7719,10 +7989,10 @@
         <v>45905</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1">
         <v>5655.2000000000007</v>
@@ -7740,10 +8010,10 @@
         <v>45906</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1">
         <v>5587.213999999999</v>
@@ -7761,10 +8031,10 @@
         <v>45907</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1">
         <v>5446.4260000000013</v>
@@ -7782,10 +8052,10 @@
         <v>45908</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1">
         <v>5395.2380000000003</v>
@@ -7803,10 +8073,10 @@
         <v>45909</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1">
         <v>5388.4640000000009</v>
@@ -7824,10 +8094,10 @@
         <v>45910</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D11" s="1">
         <v>5329.6329999999998</v>
@@ -7845,10 +8115,10 @@
         <v>45911</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D12" s="1">
         <v>5124.9309999999996</v>
@@ -7866,10 +8136,10 @@
         <v>45912</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D13" s="1">
         <v>5104.0400000000018</v>
@@ -7887,10 +8157,10 @@
         <v>45913</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="D14" s="1">
         <v>5040.8310000000038</v>
@@ -7908,10 +8178,10 @@
         <v>45914</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D15" s="1">
         <v>4951.6849999999986</v>
@@ -7929,10 +8199,10 @@
         <v>45915</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D16" s="1">
         <v>4908.7199999999975</v>
@@ -7950,10 +8220,10 @@
         <v>45916</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D17" s="1">
         <v>4863.0689999999995</v>
@@ -7971,10 +8241,10 @@
         <v>45917</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="D18" s="1">
         <v>4694.4699999999975</v>
@@ -7992,10 +8262,10 @@
         <v>45918</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="D19" s="1">
         <v>4657.5870000000014</v>
@@ -8013,10 +8283,10 @@
         <v>45919</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D20" s="1">
         <v>4653.7999999999956</v>
@@ -8034,10 +8304,10 @@
         <v>45920</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1">
         <v>4589.1600000000017</v>
@@ -8055,10 +8325,10 @@
         <v>45890</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1">
         <v>7774.1670000000004</v>
@@ -8076,10 +8346,10 @@
         <v>45891</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1">
         <v>7509.2669999999989</v>
@@ -8097,10 +8367,10 @@
         <v>45892</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="D24" s="1">
         <v>6529.8100000000031</v>
@@ -8118,10 +8388,10 @@
         <v>45893</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1">
         <v>6392.5540000000001</v>
@@ -8139,10 +8409,10 @@
         <v>45894</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D26" s="1">
         <v>6240.3350000000037</v>
@@ -8160,10 +8430,10 @@
         <v>45895</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D27" s="1">
         <v>5933.8999999999978</v>
@@ -8181,10 +8451,10 @@
         <v>45896</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D28" s="1">
         <v>5899.6409999999996</v>
@@ -8202,10 +8472,10 @@
         <v>45897</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="D29" s="1">
         <v>5845.5980000000009</v>
@@ -8223,10 +8493,10 @@
         <v>45898</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D30" s="1">
         <v>5765.8460000000032</v>
@@ -8244,10 +8514,10 @@
         <v>45899</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D31" s="1">
         <v>5692.0220000000008</v>
@@ -8265,10 +8535,10 @@
         <v>45841</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D32" s="1">
         <v>8279.7780000000039</v>
@@ -8286,10 +8556,10 @@
         <v>45842</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D33" s="1">
         <v>7966.2190000000001</v>
@@ -8307,10 +8577,10 @@
         <v>45843</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D34" s="1">
         <v>6972.8280000000004</v>
@@ -8328,10 +8598,10 @@
         <v>45844</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D35" s="1">
         <v>6769.8060000000005</v>
@@ -8349,10 +8619,10 @@
         <v>45845</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D36" s="1">
         <v>6470.1500000000024</v>
@@ -8370,10 +8640,10 @@
         <v>45846</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D37" s="1">
         <v>6329.952000000003</v>
@@ -8391,10 +8661,10 @@
         <v>45847</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D38" s="1">
         <v>6295.9800000000005</v>
@@ -8412,10 +8682,10 @@
         <v>45848</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1">
         <v>6262.3699999999981</v>
@@ -8433,10 +8703,10 @@
         <v>45819</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D40" s="7">
         <v>7228.9719999999998</v>
@@ -8454,10 +8724,10 @@
         <v>45820</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D41" s="7">
         <v>6946.9370000000017</v>
@@ -8475,10 +8745,10 @@
         <v>45821</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D42" s="7">
         <v>6167.3450000000039</v>
@@ -8496,10 +8766,10 @@
         <v>45822</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D43" s="7">
         <v>5895.784999999998</v>
@@ -8517,10 +8787,10 @@
         <v>45823</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D44" s="7">
         <v>5832.107</v>
@@ -8538,10 +8808,10 @@
         <v>45824</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D45" s="7">
         <v>5675.9550000000017</v>
@@ -8559,10 +8829,10 @@
         <v>45825</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="D46" s="7">
         <v>5550.420000000001</v>
@@ -8580,10 +8850,10 @@
         <v>45826</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="D47" s="7">
         <v>5405.474000000002</v>
@@ -8601,10 +8871,10 @@
         <v>45796</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D48" s="7">
         <v>8876.9879999999957</v>
@@ -8622,10 +8892,10 @@
         <v>45797</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D49" s="7">
         <v>7881.9819999999972</v>
@@ -8643,10 +8913,10 @@
         <v>45798</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D50" s="7">
         <v>7502.072000000001</v>
@@ -8664,10 +8934,10 @@
         <v>45799</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D51" s="7">
         <v>7333.8789999999999</v>
@@ -8685,10 +8955,10 @@
         <v>45800</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D52" s="7">
         <v>6472.2400000000007</v>
@@ -8706,10 +8976,10 @@
         <v>45801</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D53" s="7">
         <v>5638.5669999999991</v>
@@ -8727,10 +8997,10 @@
         <v>45802</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D54" s="7">
         <v>5343.9630000000025</v>
@@ -8748,10 +9018,10 @@
         <v>45803</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="D55" s="7">
         <v>5343.7000000000035</v>
@@ -8769,10 +9039,10 @@
         <v>45754</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D56" s="7">
         <v>6997.0160000000024</v>
@@ -8790,10 +9060,10 @@
         <v>45754</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D57" s="7">
         <v>6692.0239999999958</v>
@@ -8811,10 +9081,10 @@
         <v>45754</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D58" s="7">
         <v>6508.0019999999995</v>
@@ -8832,10 +9102,10 @@
         <v>45754</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D59" s="7">
         <v>6049.5960000000005</v>
@@ -8853,10 +9123,10 @@
         <v>45754</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="D60" s="7">
         <v>6002.58</v>
@@ -8874,10 +9144,10 @@
         <v>45754</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D61" s="7">
         <v>5260.849000000002</v>
@@ -8895,10 +9165,10 @@
         <v>45754</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D62" s="7">
         <v>5014.5709999999972</v>
@@ -8916,10 +9186,10 @@
         <v>45754</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="D63" s="7">
         <v>4837.1960000000008</v>
@@ -8937,10 +9207,10 @@
         <v>45724</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D64" s="7">
         <v>7549.9179999999978</v>
@@ -8958,10 +9228,10 @@
         <v>45724</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D65" s="7">
         <v>6864.1479999999992</v>
@@ -8979,10 +9249,10 @@
         <v>45724</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D66" s="7">
         <v>6814.5869999999968</v>
@@ -9000,10 +9270,10 @@
         <v>45724</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D67" s="7">
         <v>6771.3449999999957</v>
@@ -9021,10 +9291,10 @@
         <v>45724</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D68" s="7">
         <v>6247.6099999999951</v>
@@ -9042,10 +9312,10 @@
         <v>45724</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D69" s="7">
         <v>6122.2339999999949</v>
@@ -9063,10 +9333,10 @@
         <v>45724</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="D70" s="7">
         <v>6118.02</v>
@@ -9084,10 +9354,10 @@
         <v>45724</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D71" s="7">
         <v>5879.9939999999979</v>
@@ -9105,10 +9375,10 @@
         <v>45697</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D72" s="7">
         <v>6623.4480000000003</v>
@@ -9126,10 +9396,10 @@
         <v>45698</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D73" s="7">
         <v>6096.9990000000007</v>
@@ -9147,10 +9417,10 @@
         <v>45699</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D74" s="7">
         <v>5951.6709999999985</v>
@@ -9168,10 +9438,10 @@
         <v>45700</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D75" s="7">
         <v>5919.3840000000027</v>
@@ -9189,10 +9459,10 @@
         <v>45701</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D76" s="7">
         <v>5528.0690000000013</v>
@@ -9210,10 +9480,10 @@
         <v>45702</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="D77" s="7">
         <v>5470.9070000000002</v>
@@ -9231,10 +9501,10 @@
         <v>45703</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D78" s="7">
         <v>5445.0800000000027</v>
@@ -9252,10 +9522,10 @@
         <v>45704</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="D79" s="7">
         <v>5385.9720000000007</v>
@@ -9273,10 +9543,10 @@
         <v>45674</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D80" s="7">
         <v>6027.4990000000016</v>
@@ -9294,10 +9564,10 @@
         <v>45675</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D81" s="7">
         <v>5907.101999999999</v>
@@ -9315,10 +9585,10 @@
         <v>45676</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D82" s="7">
         <v>5903.7110000000021</v>
@@ -9336,10 +9606,10 @@
         <v>45677</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D83" s="7">
         <v>5687.555000000003</v>
@@ -9357,10 +9627,10 @@
         <v>45678</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D84" s="7">
         <v>5609.2339999999967</v>
@@ -9378,10 +9648,10 @@
         <v>45679</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D85" s="7">
         <v>5462.347999999999</v>
@@ -9399,10 +9669,10 @@
         <v>45680</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D86" s="7">
         <v>5446.4840000000031</v>
@@ -9420,10 +9690,10 @@
         <v>45681</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="D87" s="7">
         <v>5360.3080000000009</v>
@@ -9441,10 +9711,10 @@
         <v>45932</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="D88" s="1">
         <v>6464.2200000000012</v>
@@ -9462,10 +9732,10 @@
         <v>45933</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D89" s="1">
         <v>6029.7140000000045</v>
@@ -9483,10 +9753,10 @@
         <v>45934</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D90" s="1">
         <v>6017.4929999999995</v>
@@ -9504,10 +9774,10 @@
         <v>45935</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D91" s="1">
         <v>5987.6540000000005</v>
@@ -9525,10 +9795,10 @@
         <v>45936</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D92" s="1">
         <v>5841.3279999999995</v>
@@ -9546,10 +9816,10 @@
         <v>45937</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="D93" s="1">
         <v>5537.5310000000018</v>
@@ -9567,10 +9837,10 @@
         <v>45938</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D94" s="1">
         <v>5528.3860000000013</v>
@@ -9588,10 +9858,10 @@
         <v>45939</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D95" s="1">
         <v>5506.4829999999984</v>
@@ -9609,10 +9879,10 @@
         <v>45940</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D96" s="1">
         <v>5282.5069999999996</v>
@@ -9630,10 +9900,10 @@
         <v>45941</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="D97" s="1">
         <v>5247.6970000000028</v>
@@ -9651,10 +9921,10 @@
         <v>45973</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="D98" s="7">
         <v>5896.2929999999997</v>
@@ -9672,10 +9942,10 @@
         <v>45974</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D99" s="7">
         <v>5730.5070000000014</v>
@@ -9693,10 +9963,10 @@
         <v>45975</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D100" s="7">
         <v>5716.6359999999986</v>
@@ -9714,10 +9984,10 @@
         <v>45976</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="D101" s="7">
         <v>5457.9930000000013</v>
@@ -9735,10 +10005,10 @@
         <v>45977</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D102" s="7">
         <v>5428.4710000000005</v>
@@ -9756,10 +10026,10 @@
         <v>45978</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D103" s="7">
         <v>5357.2280000000019</v>
@@ -9777,10 +10047,10 @@
         <v>45979</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="D104" s="7">
         <v>5346.1090000000013</v>
@@ -9798,10 +10068,10 @@
         <v>45980</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D105" s="7">
         <v>5072.5409999999993</v>
@@ -9819,10 +10089,10 @@
         <v>45981</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D106" s="7">
         <v>5040.6410000000014</v>
@@ -9840,10 +10110,10 @@
         <v>45982</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D107" s="7">
         <v>4977.1459999999961</v>
@@ -9861,10 +10131,10 @@
         <v>45983</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D108" s="7">
         <v>4926.3350000000009</v>
@@ -9882,10 +10152,10 @@
         <v>45984</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="D109" s="7">
         <v>4865.5689999999995</v>
@@ -9903,10 +10173,10 @@
         <v>45985</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="D110" s="7">
         <v>4853.6980000000021</v>
@@ -9924,10 +10194,10 @@
         <v>45986</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D111" s="7">
         <v>4829.3449999999993</v>
@@ -9945,10 +10215,10 @@
         <v>45987</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="D112" s="7">
         <v>4741.9499999999962</v>
@@ -9966,10 +10236,10 @@
         <v>45988</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D113" s="7">
         <v>4618.4680000000008</v>
@@ -9987,10 +10257,10 @@
         <v>45989</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D114" s="7">
         <v>4542.9400000000023</v>
@@ -10008,10 +10278,10 @@
         <v>45990</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D115" s="7">
         <v>4398.166000000002</v>
@@ -10029,10 +10299,10 @@
         <v>45991</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="D116" s="7">
         <v>4293.5199999999995</v>
@@ -10050,10 +10320,10 @@
         <v>45962</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D117" s="7">
         <v>4191.5629999999992</v>
@@ -10090,13 +10360,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -10104,7 +10374,7 @@
         <v>45901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C2" s="15">
         <v>54939.295000000013</v>
@@ -10115,7 +10385,7 @@
         <v>45902</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C3" s="15">
         <v>24536.197000000018</v>
@@ -10126,7 +10396,7 @@
         <v>45903</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C4" s="15">
         <v>28528.709999999988</v>
@@ -10137,7 +10407,7 @@
         <v>45904</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C5" s="15">
         <v>10725.66499999999</v>
@@ -10148,7 +10418,7 @@
         <v>45905</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C6" s="15">
         <v>68032.578000000038</v>
@@ -10159,7 +10429,7 @@
         <v>45907</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C7" s="15">
         <v>66778.129000000015</v>
@@ -10170,7 +10440,7 @@
         <v>45908</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="C8" s="15">
         <v>178412.28999999992</v>
@@ -10181,7 +10451,7 @@
         <v>45909</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C9" s="15">
         <v>4885.5640000000021</v>
@@ -10192,7 +10462,7 @@
         <v>45910</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C10" s="15">
         <v>404.01500000000004</v>
@@ -10203,7 +10473,7 @@
         <v>45911</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C11" s="14">
         <v>10031.285000000007</v>
@@ -10214,7 +10484,7 @@
         <v>45912</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C12" s="14">
         <v>556.14099999999996</v>
@@ -10225,7 +10495,7 @@
         <v>45913</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C13" s="14">
         <v>50.697999999999993</v>
@@ -10236,7 +10506,7 @@
         <v>45883</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C14" s="20">
         <v>75524.076000000205</v>
@@ -10247,7 +10517,7 @@
         <v>45884</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C15" s="20">
         <v>28101.525999999994</v>
@@ -10258,7 +10528,7 @@
         <v>45885</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C16" s="20">
         <v>34219.557000000008</v>
@@ -10269,7 +10539,7 @@
         <v>45886</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C17" s="15">
         <v>11258.058999999999</v>
@@ -10280,7 +10550,7 @@
         <v>45887</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C18" s="15">
         <v>86036.677999999796</v>
@@ -10291,7 +10561,7 @@
         <v>45888</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C19" s="15">
         <v>60828.45600000002</v>
@@ -10302,7 +10572,7 @@
         <v>45889</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C20" s="15">
         <v>10574.231000000002</v>
@@ -10313,7 +10583,7 @@
         <v>45890</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C21" s="15">
         <v>137126.10099999967</v>
@@ -10324,7 +10594,7 @@
         <v>45891</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C22" s="15">
         <v>6191.416000000002</v>
@@ -10335,7 +10605,7 @@
         <v>45892</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C23" s="15">
         <v>60487.229999999967</v>
@@ -10346,7 +10616,7 @@
         <v>45893</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C24" s="15">
         <v>11403.327999999996</v>
@@ -10357,7 +10627,7 @@
         <v>45894</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C25" s="15">
         <v>547.15800000000002</v>
@@ -10368,7 +10638,7 @@
         <v>45895</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C26" s="15">
         <v>118.032</v>
@@ -10379,7 +10649,7 @@
         <v>45896</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C27" s="15">
         <v>19.899000000000001</v>
@@ -10390,7 +10660,7 @@
         <v>45866</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C28" s="15">
         <v>82285.824999999837</v>
@@ -10401,7 +10671,7 @@
         <v>45866</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C29" s="15">
         <v>34842.363000000005</v>
@@ -10412,7 +10682,7 @@
         <v>45866</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C30" s="15">
         <v>38487.192999999948</v>
@@ -10423,7 +10693,7 @@
         <v>45866</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C31" s="15">
         <v>14677.756999999994</v>
@@ -10434,7 +10704,7 @@
         <v>45866</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C32" s="15">
         <v>139046.67800000022</v>
@@ -10445,7 +10715,7 @@
         <v>45866</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C33" s="15">
         <v>47605.84699999998</v>
@@ -10456,7 +10726,7 @@
         <v>45866</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C34" s="15">
         <v>85729.513999999908</v>
@@ -10467,7 +10737,7 @@
         <v>45866</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C35" s="15">
         <v>59763.048999999912</v>
@@ -10478,7 +10748,7 @@
         <v>45866</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C36" s="15">
         <v>30963.34499999999</v>
@@ -10489,7 +10759,7 @@
         <v>45866</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C37" s="15">
         <v>6672.4420000000055</v>
@@ -10500,7 +10770,7 @@
         <v>45866</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C38" s="15">
         <v>5270.327000000002</v>
@@ -10511,7 +10781,7 @@
         <v>45866</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C39" s="15">
         <v>1514.5620000000006</v>
@@ -10522,7 +10792,7 @@
         <v>45866</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C40" s="15">
         <v>167.74100000000001</v>
@@ -10533,7 +10803,7 @@
         <v>45866</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C41" s="15">
         <v>39.795000000000002</v>
@@ -10544,7 +10814,7 @@
         <v>45866</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="C42" s="15">
         <v>14.22</v>
@@ -10555,7 +10825,7 @@
         <v>45837</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C43" s="15">
         <v>74735.879000000044</v>
@@ -10566,7 +10836,7 @@
         <v>45837</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C44" s="15">
         <v>28853.434000000001</v>
@@ -10577,7 +10847,7 @@
         <v>45837</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C45" s="15">
         <v>21278.684999999998</v>
@@ -10588,7 +10858,7 @@
         <v>45837</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C46" s="15">
         <v>12208.985000000002</v>
@@ -10599,7 +10869,7 @@
         <v>45837</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C47" s="15">
         <v>1131.3730000000003</v>
@@ -10610,7 +10880,7 @@
         <v>45837</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C48" s="15">
         <v>70434.532000000079</v>
@@ -10621,7 +10891,7 @@
         <v>45837</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C49" s="15">
         <v>127205.59499999997</v>
@@ -10632,7 +10902,7 @@
         <v>45837</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C50" s="15">
         <v>4115.4610000000002</v>
@@ -10643,7 +10913,7 @@
         <v>45837</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C51" s="15">
         <v>6092.369999999999</v>
@@ -10654,7 +10924,7 @@
         <v>45837</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C52" s="15">
         <v>57548.287000000048</v>
@@ -10665,7 +10935,7 @@
         <v>45837</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C53" s="15">
         <v>54305.242999999937</v>
@@ -10676,7 +10946,7 @@
         <v>45837</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C54" s="15">
         <v>2399.8160000000003</v>
@@ -10687,7 +10957,7 @@
         <v>45837</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="C55" s="15">
         <v>82.6</v>
@@ -10698,7 +10968,7 @@
         <v>45837</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C56" s="15">
         <v>207.59899999999999</v>
@@ -10709,7 +10979,7 @@
         <v>45780</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C57" s="14">
         <v>82561.000000000029</v>
@@ -10720,7 +10990,7 @@
         <v>45781</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C58" s="14">
         <v>26997.302999999964</v>
@@ -10731,7 +11001,7 @@
         <v>45782</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C59" s="14">
         <v>19158.298000000024</v>
@@ -10742,7 +11012,7 @@
         <v>45783</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C60" s="14">
         <v>12829.644</v>
@@ -10753,7 +11023,7 @@
         <v>45784</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C61" s="14">
         <v>59672.267999999887</v>
@@ -10764,7 +11034,7 @@
         <v>45785</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C62" s="14">
         <v>1694.8080000000007</v>
@@ -10775,7 +11045,7 @@
         <v>45786</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C63" s="14">
         <v>80509.540000000037</v>
@@ -10786,7 +11056,7 @@
         <v>45787</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C64" s="14">
         <v>122973.11900000028</v>
@@ -10797,7 +11067,7 @@
         <v>45788</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C65" s="14">
         <v>49760.569999999963</v>
@@ -10808,7 +11078,7 @@
         <v>45789</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C66" s="14">
         <v>6391.4669999999996</v>
@@ -10819,7 +11089,7 @@
         <v>45790</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C67" s="14">
         <v>4119.3390000000018</v>
@@ -10830,7 +11100,7 @@
         <v>45791</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C68" s="14">
         <v>586.06499999999994</v>
@@ -10841,7 +11111,7 @@
         <v>45792</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C69" s="14">
         <v>2343.2399999999998</v>
@@ -10852,7 +11122,7 @@
         <v>45763</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C70" s="14">
         <v>77323.399000000005</v>
@@ -10863,7 +11133,7 @@
         <v>45763</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C71" s="14">
         <v>26811.640999999974</v>
@@ -10874,7 +11144,7 @@
         <v>45763</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C72" s="14">
         <v>17376.701000000012</v>
@@ -10885,7 +11155,7 @@
         <v>45763</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C73" s="14">
         <v>11892.883000000003</v>
@@ -10896,7 +11166,7 @@
         <v>45763</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C74" s="14">
         <v>60037.924999999967</v>
@@ -10907,7 +11177,7 @@
         <v>45763</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C75" s="14">
         <v>62652.252000000015</v>
@@ -10918,7 +11188,7 @@
         <v>45763</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C76" s="14">
         <v>118933.97500000003</v>
@@ -10929,7 +11199,7 @@
         <v>45763</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C77" s="14">
         <v>52076.847999999998</v>
@@ -10940,7 +11210,7 @@
         <v>45763</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C78" s="14">
         <v>7854.1919999999991</v>
@@ -10951,7 +11221,7 @@
         <v>45763</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C79" s="14">
         <v>1076.9669999999999</v>
@@ -10962,7 +11232,7 @@
         <v>45763</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C80" s="14">
         <v>4204.3939999999993</v>
@@ -10973,7 +11243,7 @@
         <v>45763</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C81" s="14">
         <v>332.9969999999999</v>
@@ -10984,7 +11254,7 @@
         <v>45763</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C82" s="14">
         <v>694.59800000000007</v>
@@ -10995,7 +11265,7 @@
         <v>45733</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C83" s="14">
         <v>81087.636999999857</v>
@@ -11006,7 +11276,7 @@
         <v>45733</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C84" s="14">
         <v>30293.000999999975</v>
@@ -11017,7 +11287,7 @@
         <v>45733</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C85" s="14">
         <v>20508.054000000018</v>
@@ -11028,7 +11298,7 @@
         <v>45733</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C86" s="14">
         <v>12886.388999999996</v>
@@ -11039,7 +11309,7 @@
         <v>45733</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C87" s="14">
         <v>47808.189000000028</v>
@@ -11050,7 +11320,7 @@
         <v>45733</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C88" s="14">
         <v>63484.444000000156</v>
@@ -11061,7 +11331,7 @@
         <v>45733</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C89" s="14">
         <v>74947.046999999991</v>
@@ -11072,7 +11342,7 @@
         <v>45733</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C90" s="14">
         <v>139402.62799999976</v>
@@ -11083,7 +11353,7 @@
         <v>45733</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C91" s="14">
         <v>820.74800000000005</v>
@@ -11094,7 +11364,7 @@
         <v>45733</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C92" s="14">
         <v>4958.9290000000028</v>
@@ -11105,7 +11375,7 @@
         <v>45733</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C93" s="14">
         <v>18362.708999999999</v>
@@ -11116,7 +11386,7 @@
         <v>45733</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C94" s="14">
         <v>376.26999999999992</v>
@@ -11127,7 +11397,7 @@
         <v>45733</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C95" s="14">
         <v>127.97399999999999</v>
@@ -11138,7 +11408,7 @@
         <v>45706</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C96" s="14">
         <v>85175.902999999831</v>
@@ -11149,7 +11419,7 @@
         <v>45706</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C97" s="14">
         <v>24725.937999999966</v>
@@ -11160,7 +11430,7 @@
         <v>45706</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C98" s="14">
         <v>13398.610000000013</v>
@@ -11171,7 +11441,7 @@
         <v>45706</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C99" s="14">
         <v>13592.306999999997</v>
@@ -11182,7 +11452,7 @@
         <v>45706</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C100" s="14">
         <v>116665.62099999991</v>
@@ -11193,7 +11463,7 @@
         <v>45706</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C101" s="14">
         <v>49292.963999999964</v>
@@ -11204,7 +11474,7 @@
         <v>45706</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C102" s="14">
         <v>71581.923999999955</v>
@@ -11215,7 +11485,7 @@
         <v>45706</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C103" s="14">
         <v>51016.440000000075</v>
@@ -11226,7 +11496,7 @@
         <v>45706</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C104" s="14">
         <v>3946.0460000000012</v>
@@ -11237,7 +11507,7 @@
         <v>45706</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C105" s="14">
         <v>410.91100000000006</v>
@@ -11248,7 +11518,7 @@
         <v>45706</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C106" s="14">
         <v>176.02900000000002</v>
@@ -11259,7 +11529,7 @@
         <v>45706</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C107" s="14">
         <v>18183.478999999996</v>
@@ -11270,7 +11540,7 @@
         <v>45706</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C108" s="14">
         <v>735.39400000000012</v>
@@ -11281,7 +11551,7 @@
         <v>45676</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C109" s="14">
         <v>95155.333999999755</v>
@@ -11292,7 +11562,7 @@
         <v>45677</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C110" s="14">
         <v>23549.002999999986</v>
@@ -11303,7 +11573,7 @@
         <v>45678</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C111" s="14">
         <v>19990.507000000016</v>
@@ -11314,7 +11584,7 @@
         <v>45679</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C112" s="14">
         <v>13440.823000000009</v>
@@ -11325,7 +11595,7 @@
         <v>45680</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C113" s="14">
         <v>122879.18799999973</v>
@@ -11336,7 +11606,7 @@
         <v>45681</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C114" s="14">
         <v>71410.504999999961</v>
@@ -11347,7 +11617,7 @@
         <v>45682</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C115" s="14">
         <v>5113.0519999999997</v>
@@ -11358,7 +11628,7 @@
         <v>45683</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C116" s="14">
         <v>31043.732999999989</v>
@@ -11369,7 +11639,7 @@
         <v>45684</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C117" s="14">
         <v>53867.410999999956</v>
@@ -11380,7 +11650,7 @@
         <v>45685</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C118" s="14">
         <v>25461.305999999975</v>
@@ -11391,7 +11661,7 @@
         <v>45686</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C119" s="14">
         <v>227.227</v>
@@ -11402,7 +11672,7 @@
         <v>45687</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="C120" s="14">
         <v>17.64</v>
@@ -11413,7 +11683,7 @@
         <v>45660</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C121" s="14">
         <v>481.72199999999998</v>
@@ -11424,7 +11694,7 @@
         <v>45661</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C122" s="14">
         <v>207.97399999999999</v>
@@ -11435,7 +11705,7 @@
         <v>45935</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C123" s="15">
         <v>54456.730999999963</v>
@@ -11446,7 +11716,7 @@
         <v>45936</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C124" s="15">
         <v>24655.316999999995</v>
@@ -11457,7 +11727,7 @@
         <v>45937</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C125" s="15">
         <v>29006.10300000005</v>
@@ -11468,7 +11738,7 @@
         <v>45938</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C126" s="15">
         <v>9313.190000000006</v>
@@ -11479,7 +11749,7 @@
         <v>45939</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C127" s="15">
         <v>60563.448000000019</v>
@@ -11490,7 +11760,7 @@
         <v>45940</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C128" s="15">
         <v>111316.73399999998</v>
@@ -11501,7 +11771,7 @@
         <v>45941</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C129" s="15">
         <v>68208.707999999955</v>
@@ -11512,7 +11782,7 @@
         <v>45942</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C130" s="15">
         <v>1242.0840000000001</v>
@@ -11523,7 +11793,7 @@
         <v>45943</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C131" s="15">
         <v>57400.995999999963</v>
@@ -11534,7 +11804,7 @@
         <v>45944</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C132" s="15">
         <v>4929.6319999999996</v>
@@ -11545,7 +11815,7 @@
         <v>45945</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C133" s="15">
         <v>135.39400000000001</v>
@@ -11556,7 +11826,7 @@
         <v>45946</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C134" s="15">
         <v>6551.229000000003</v>
@@ -11567,7 +11837,7 @@
         <v>45947</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C135" s="15">
         <v>1348.1559999999999</v>
@@ -11578,7 +11848,7 @@
         <v>45979</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C136" s="14">
         <v>46672.725000000013</v>
@@ -11589,7 +11859,7 @@
         <v>45980</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C137" s="14">
         <v>26550.827000000016</v>
@@ -11600,7 +11870,7 @@
         <v>45981</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C138" s="14">
         <v>29960.102999999977</v>
@@ -11611,7 +11881,7 @@
         <v>45982</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C139" s="14">
         <v>8209.368000000004</v>
@@ -11622,7 +11892,7 @@
         <v>45983</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C140" s="14">
         <v>103808.00500000028</v>
@@ -11633,7 +11903,7 @@
         <v>45984</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C141" s="14">
         <v>64079.183999999979</v>
@@ -11644,7 +11914,7 @@
         <v>45985</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="C142" s="14">
         <v>54001.30999999999</v>
@@ -11655,7 +11925,7 @@
         <v>45986</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C143" s="14">
         <v>61041.626999999957</v>
@@ -11666,7 +11936,7 @@
         <v>45987</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C144" s="14">
         <v>3520.4360000000011</v>
@@ -11677,7 +11947,7 @@
         <v>45988</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C145" s="14">
         <v>5509.1930000000002</v>
@@ -11688,7 +11958,7 @@
         <v>45989</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C146" s="14">
         <v>621.23699999999985</v>
@@ -11699,7 +11969,7 @@
         <v>45990</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C147" s="14">
         <v>2326.9060000000009</v>
@@ -11710,7 +11980,7 @@
         <v>45991</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C148" s="14">
         <v>146.976</v>
@@ -11721,7 +11991,7 @@
         <v>45992</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C149" s="14">
         <v>13.464</v>
@@ -11752,22 +12022,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11775,7 +12045,7 @@
         <v>45901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1">
         <v>317071.95499999891</v>
@@ -11795,7 +12065,7 @@
         <v>45902</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1">
         <v>130808.61199999967</v>
@@ -11815,7 +12085,7 @@
         <v>45872</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1">
         <v>381919.94700000284</v>
@@ -11835,7 +12105,7 @@
         <v>45873</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C5" s="13">
         <v>140515.79999999973</v>
@@ -11855,7 +12125,7 @@
         <v>45843</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1">
         <v>429027.57500000059</v>
@@ -11875,7 +12145,7 @@
         <v>45844</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1">
         <v>118053.08299999978</v>
@@ -11895,7 +12165,7 @@
         <v>45815</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7">
         <v>336926.99200000026</v>
@@ -11915,7 +12185,7 @@
         <v>45816</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C9" s="7">
         <v>123672.86699999981</v>
@@ -11935,7 +12205,7 @@
         <v>45786</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1">
         <v>314969.8940000002</v>
@@ -11955,7 +12225,7 @@
         <v>45787</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1">
         <v>154626.76700000002</v>
@@ -11975,7 +12245,7 @@
         <v>45758</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1">
         <v>313215.11499999987</v>
@@ -11995,7 +12265,7 @@
         <v>45759</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1">
         <v>128053.6569999998</v>
@@ -12015,7 +12285,7 @@
         <v>45729</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1">
         <v>378034.97900000116</v>
@@ -12035,7 +12305,7 @@
         <v>45730</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1">
         <v>117029.04000000001</v>
@@ -12055,7 +12325,7 @@
         <v>45703</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1">
         <v>331528.76800000243</v>
@@ -12075,7 +12345,7 @@
         <v>45704</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1">
         <v>117372.79800000023</v>
@@ -12095,7 +12365,7 @@
         <v>45674</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1">
         <v>357204.47300000227</v>
@@ -12115,7 +12385,7 @@
         <v>45675</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1">
         <v>105640.95199999987</v>
@@ -12135,7 +12405,7 @@
         <v>45949</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1">
         <v>301582.70200000016</v>
@@ -12155,7 +12425,7 @@
         <v>45950</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1">
         <v>127545.01999999973</v>
@@ -12175,7 +12445,7 @@
         <v>45982</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C22" s="7">
         <v>287248.82700000174</v>
@@ -12195,7 +12465,7 @@
         <v>45983</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C23" s="7">
         <v>119212.53399999966</v>
